--- a/Places_V2.xlsx
+++ b/Places_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0FF7CB-74A4-4853-8BE2-0427A4EAB81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD67BC9-46A6-4DB7-AFCE-3BD05622C62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="441">
   <si>
     <t>Place</t>
   </si>
@@ -557,9 +557,6 @@
   </si>
   <si>
     <t>Alone</t>
-  </si>
-  <si>
-    <t>Day trip to Bern, Fribourg, Lausanne and Montreux with Daniel. Also went there on the 16th of July 2022 with Gemma and her sister, Marina, for the Jazz festival. First time that I met Joelle.</t>
   </si>
   <si>
     <t>Klewenalp</t>
@@ -799,12 +796,6 @@
     <t xml:space="preserve">Weekend escape to west Ireland with Irish people and Brasilians for the Birthday of Alan. Craziest come back trip of my life. After surfing for the first time in my life, I did not have neither time nor energy to take a shower. We were 9 people and the hot water was limitied so we decided that half of us will take a shower later after the drinks. Needless to say that 5 hours later we were wasted singing in the middle of nowhere in west Irland. At 3am on sunday I passed out in the couch whithout any hesitation. Next day I am traveling back to Basel. Hangover, with the salt still on my body, I begin with a 3 hour drive to Dublin airport. There I wait for a 3 hour and an additional delay of my flight to Zurich. I kindly give my carry on bag to be checked in. Little did I know that this would be the reason to lose my last connection to Basel form Zurich. Baggage claim was delayed one hour. This was my frist time in life to sleep in a bench outside Zurich HB. Next morning I took the first train to Basel at 5am. </t>
   </si>
   <si>
-    <t xml:space="preserve">Trip with boat from Thun to Bern through the river Aar. Also, 08.07.2023 with Sofia, Nina, Jule, Daniel and Alex. The day that my ebike was stoles but I would do it all over again even if I knew. The day ended with a semi nice date with Viki. </t>
-  </si>
-  <si>
-    <t>Sofia, Gemma, Sabrina, Marina, Christina, Alex, Nina, Jule, Daniel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sofia, Gemma </t>
   </si>
   <si>
@@ -820,9 +811,6 @@
     <t>Daniel, Kato, Sofia, Nina, Alex, Jule, Gemma, Sabri, Marina, Kristina</t>
   </si>
   <si>
-    <t>Daniel, Gemma, Marina, Joelle, Jule</t>
-  </si>
-  <si>
     <t>Aninnia, Carlos, Corina</t>
   </si>
   <si>
@@ -1325,6 +1313,39 @@
   </si>
   <si>
     <t xml:space="preserve">Kimon </t>
+  </si>
+  <si>
+    <t>Netherlands First time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driving in Highlands </t>
+  </si>
+  <si>
+    <t>New years with Covid</t>
+  </si>
+  <si>
+    <t>Romantic? No</t>
+  </si>
+  <si>
+    <t>Went there on the 16th of July 2022 with Gemma and her sister, Marina, for the Jazz festival. First time that I met Joelle.</t>
+  </si>
+  <si>
+    <t>Gemma, Marina, Joelle, Jule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day trip to Bern, Fribourg, Lausanne and Montreux with Daniel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With Sofia, Nina, Jule, Daniel and Alex. The day that my ebike was stoles but I would do it all over again even if I knew. The day ended with a semi nice date with Viki. </t>
+  </si>
+  <si>
+    <t>Sofia, Alex, Nina, Jule, Daniel</t>
+  </si>
+  <si>
+    <t>Sofia, Gemma, Sabrina, Marina, Christina, Jule</t>
+  </si>
+  <si>
+    <t>Trip with boat from Thun to Bern through the river Aar.</t>
   </si>
 </sst>
 </file>
@@ -1669,10 +1690,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1694,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1726,7 +1747,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
@@ -1745,7 +1766,7 @@
         <v>42933</v>
       </c>
       <c r="J2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
@@ -1756,11 +1777,11 @@
         <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F3" s="1">
         <v>2019</v>
@@ -1775,7 +1796,7 @@
         <v>43435</v>
       </c>
       <c r="J3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
@@ -1786,7 +1807,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -1816,9 +1837,11 @@
         <v>51</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1835,7 +1858,7 @@
         <v>43507</v>
       </c>
       <c r="J5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
@@ -1846,9 +1869,11 @@
         <v>51</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1876,9 +1901,11 @@
         <v>51</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1895,7 +1922,7 @@
         <v>43508</v>
       </c>
       <c r="J7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -1906,7 +1933,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -1925,7 +1952,7 @@
         <v>43530</v>
       </c>
       <c r="J8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -1936,7 +1963,7 @@
         <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -1955,7 +1982,7 @@
         <v>43542</v>
       </c>
       <c r="J9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
@@ -1966,7 +1993,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -1985,7 +2012,7 @@
         <v>43551</v>
       </c>
       <c r="J10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -1996,7 +2023,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -2015,7 +2042,7 @@
         <v>43552</v>
       </c>
       <c r="J11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
@@ -2026,7 +2053,7 @@
         <v>79</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" t="s">
@@ -2045,7 +2072,7 @@
         <v>43683</v>
       </c>
       <c r="J12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -2056,10 +2083,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>22</v>
@@ -2088,10 +2115,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>22</v>
@@ -2109,7 +2136,7 @@
         <v>43775</v>
       </c>
       <c r="J14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -2120,11 +2147,11 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F15" s="1">
         <v>2021</v>
@@ -2141,17 +2168,17 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F16" s="1">
         <v>2021</v>
@@ -2166,7 +2193,7 @@
         <v>44099</v>
       </c>
       <c r="J16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2177,7 +2204,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
@@ -2207,7 +2234,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
@@ -2226,7 +2253,7 @@
         <v>44290</v>
       </c>
       <c r="J18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -2237,13 +2264,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F19" s="1">
         <v>2021</v>
@@ -2266,13 +2293,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F20" s="1">
         <v>2021</v>
@@ -2287,7 +2314,7 @@
         <v>45109</v>
       </c>
       <c r="J20" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
@@ -2298,13 +2325,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F21" s="1">
         <v>2021</v>
@@ -2319,7 +2346,7 @@
         <v>45108</v>
       </c>
       <c r="J21" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
@@ -2330,7 +2357,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -2360,7 +2387,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -2390,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -2409,7 +2436,7 @@
         <v>44290</v>
       </c>
       <c r="J24" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
@@ -2420,11 +2447,11 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F25" s="1">
         <v>2021</v>
@@ -2439,7 +2466,7 @@
         <v>44640</v>
       </c>
       <c r="J25" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -2450,11 +2477,11 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F26" s="1">
         <v>2021</v>
@@ -2469,7 +2496,7 @@
         <v>44329</v>
       </c>
       <c r="J26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
@@ -2480,7 +2507,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -2510,14 +2537,14 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>265</v>
+        <v>435</v>
       </c>
       <c r="F28" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G28" s="5">
         <v>46.433010000000003</v>
@@ -2526,233 +2553,245 @@
         <v>6.9114300000000002</v>
       </c>
       <c r="I28" s="9">
-        <v>44363</v>
+        <v>44758</v>
       </c>
       <c r="J28" t="s">
-        <v>179</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1">
         <v>2021</v>
       </c>
       <c r="G29" s="5">
-        <v>46.991790000000002</v>
+        <v>46.433010000000003</v>
       </c>
       <c r="H29" s="5">
-        <v>6.931</v>
+        <v>6.9114300000000002</v>
       </c>
       <c r="I29" s="9">
-        <v>44366</v>
+        <v>44363</v>
       </c>
       <c r="J29" t="s">
-        <v>342</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>363</v>
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F30" s="1">
         <v>2021</v>
       </c>
       <c r="G30" s="5">
-        <v>51.586559999999999</v>
+        <v>46.991790000000002</v>
       </c>
       <c r="H30" s="5">
-        <v>4.7759600000000004</v>
+        <v>6.931</v>
       </c>
       <c r="I30" s="9">
-        <v>44381</v>
+        <v>44366</v>
       </c>
       <c r="J30" t="s">
-        <v>135</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1">
         <v>2021</v>
       </c>
       <c r="G31" s="5">
-        <v>52.377955999999998</v>
+        <v>51.586559999999999</v>
       </c>
       <c r="H31" s="5">
-        <v>4.8970700000000003</v>
+        <v>4.7759600000000004</v>
       </c>
       <c r="I31" s="9">
         <v>44381</v>
       </c>
       <c r="J31" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F32" s="1">
         <v>2021</v>
       </c>
       <c r="G32" s="5">
-        <v>52.07667</v>
+        <v>52.377955999999998</v>
       </c>
       <c r="H32" s="5">
-        <v>4.29861</v>
+        <v>4.8970700000000003</v>
       </c>
       <c r="I32" s="9">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="J32" t="s">
-        <v>347</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F33" s="1">
         <v>2021</v>
       </c>
       <c r="G33" s="5">
-        <v>52.63167</v>
-      </c>
-      <c r="H33" s="6">
-        <v>4.7486100000000002</v>
+        <v>52.07667</v>
+      </c>
+      <c r="H33" s="5">
+        <v>4.29861</v>
       </c>
       <c r="I33" s="9">
         <v>44382</v>
       </c>
       <c r="J33" t="s">
-        <v>135</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F34" s="1">
         <v>2021</v>
       </c>
       <c r="G34" s="5">
-        <v>51.922499999999999</v>
-      </c>
-      <c r="H34" s="5">
-        <v>4.4791699999999999</v>
+        <v>52.63167</v>
+      </c>
+      <c r="H34" s="6">
+        <v>4.7486100000000002</v>
       </c>
       <c r="I34" s="9">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="J34" t="s">
-        <v>422</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F35" s="1">
         <v>2021</v>
       </c>
       <c r="G35" s="5">
-        <v>52.642499999999998</v>
+        <v>51.922499999999999</v>
       </c>
       <c r="H35" s="5">
-        <v>5.0597200000000004</v>
+        <v>4.4791699999999999</v>
       </c>
       <c r="I35" s="9">
         <v>44383</v>
       </c>
       <c r="J35" t="s">
-        <v>135</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D36" s="1"/>
+      <c r="C36" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>41</v>
       </c>
@@ -2760,166 +2799,168 @@
         <v>2021</v>
       </c>
       <c r="G36" s="5">
-        <v>52.380839999999999</v>
+        <v>52.642499999999998</v>
       </c>
       <c r="H36" s="5">
-        <v>4.6368299999999998</v>
+        <v>5.0597200000000004</v>
       </c>
       <c r="I36" s="9">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="J36" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.5">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="F37" s="1">
         <v>2021</v>
       </c>
       <c r="G37" s="5">
-        <v>47.50564</v>
+        <v>52.380839999999999</v>
       </c>
       <c r="H37" s="5">
-        <v>8.7241300000000006</v>
+        <v>4.6368299999999998</v>
       </c>
       <c r="I37" s="9">
-        <v>44440</v>
+        <v>44384</v>
       </c>
       <c r="J37" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="12.5">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="F38" s="1">
         <v>2021</v>
       </c>
       <c r="G38" s="5">
-        <v>47.558390000000003</v>
+        <v>47.50564</v>
       </c>
       <c r="H38" s="5">
-        <v>7.5732699999999999</v>
+        <v>8.7241300000000006</v>
       </c>
       <c r="I38" s="9">
-        <v>44525</v>
+        <v>44440</v>
       </c>
       <c r="J38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="12.5">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="F39" s="1">
         <v>2021</v>
       </c>
       <c r="G39" s="5">
-        <v>47.0505</v>
+        <v>47.558390000000003</v>
       </c>
       <c r="H39" s="5">
-        <v>8.3064</v>
+        <v>7.5732699999999999</v>
       </c>
       <c r="I39" s="9">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="J39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.5">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="F40" s="1">
         <v>2021</v>
       </c>
       <c r="G40" s="5">
-        <v>46.683869999999999</v>
+        <v>47.0505</v>
       </c>
       <c r="H40" s="5">
-        <v>7.8663800000000004</v>
+        <v>8.3064</v>
       </c>
       <c r="I40" s="9">
-        <v>44548</v>
+        <v>44527</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="12.5">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>363</v>
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>433</v>
+        <v>30</v>
       </c>
       <c r="F41" s="1">
         <v>2021</v>
       </c>
       <c r="G41" s="5">
-        <v>52.00667</v>
+        <v>46.683869999999999</v>
       </c>
       <c r="H41" s="5">
-        <v>4.3555599999999997</v>
+        <v>7.8663800000000004</v>
       </c>
       <c r="I41" s="9">
-        <v>44557</v>
+        <v>44548</v>
       </c>
       <c r="J41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="12.5">
@@ -2930,16 +2971,16 @@
         <v>34</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>337</v>
+        <v>429</v>
       </c>
       <c r="F42" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G42" s="5">
         <v>52.00667</v>
@@ -2948,83 +2989,89 @@
         <v>4.3555599999999997</v>
       </c>
       <c r="I42" s="9">
-        <v>45227</v>
+        <v>44557</v>
       </c>
       <c r="J42" t="s">
-        <v>432</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="12.5">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>333</v>
       </c>
       <c r="F43" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G43" s="5">
-        <v>51.220469999999999</v>
+        <v>52.00667</v>
       </c>
       <c r="H43" s="5">
-        <v>4.4002600000000003</v>
+        <v>4.3555599999999997</v>
       </c>
       <c r="I43" s="9">
-        <v>44560</v>
+        <v>45227</v>
       </c>
       <c r="J43" t="s">
-        <v>175</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="12.5">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="E44" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F44" s="1">
         <v>2021</v>
       </c>
       <c r="G44" s="5">
-        <v>51.81</v>
+        <v>51.220469999999999</v>
       </c>
       <c r="H44" s="5">
-        <v>4.67361</v>
+        <v>4.4002600000000003</v>
       </c>
       <c r="I44" s="9">
         <v>44560</v>
       </c>
       <c r="J44" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.5">
-      <c r="A45" s="2" t="s">
-        <v>46</v>
+      <c r="A45" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="E45" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,10 +3079,10 @@
         <v>2021</v>
       </c>
       <c r="G45" s="5">
-        <v>51.975830000000002</v>
+        <v>51.81</v>
       </c>
       <c r="H45" s="5">
-        <v>4.3138899999999998</v>
+        <v>4.67361</v>
       </c>
       <c r="I45" s="9">
         <v>44560</v>
@@ -3045,509 +3092,511 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="12.5">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G46" s="5">
+        <v>51.975830000000002</v>
+      </c>
+      <c r="H46" s="5">
+        <v>4.3138899999999998</v>
+      </c>
+      <c r="I46" s="9">
+        <v>44560</v>
+      </c>
+      <c r="J46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="12.5">
+      <c r="A47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F47" s="1">
         <v>2022</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G47" s="5">
         <v>47.636623999999998</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H47" s="5">
         <v>8.7891720000000007</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I47" s="9">
         <v>44591</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J47" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="12.5">
-      <c r="A47" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47">
-        <v>2022</v>
-      </c>
-      <c r="G47">
-        <v>48.853409999999997</v>
-      </c>
-      <c r="H47">
-        <v>2.3488000000000002</v>
-      </c>
-      <c r="I47" s="9">
-        <v>44625</v>
-      </c>
-      <c r="J47" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="12.5">
       <c r="A48" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D48" s="8"/>
+        <v>359</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>433</v>
+      </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="F48">
         <v>2022</v>
       </c>
       <c r="G48">
-        <v>48.080779999999997</v>
+        <v>48.853409999999997</v>
       </c>
       <c r="H48">
-        <v>7.3558399999999997</v>
+        <v>2.3488000000000002</v>
       </c>
       <c r="I48" s="9">
-        <v>44666</v>
+        <v>44625</v>
       </c>
       <c r="J48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="12.5">
       <c r="A49" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="F49">
         <v>2022</v>
       </c>
       <c r="G49">
-        <v>53.333060000000003</v>
+        <v>48.080779999999997</v>
       </c>
       <c r="H49">
-        <v>-6.2488900000000003</v>
+        <v>7.3558399999999997</v>
       </c>
       <c r="I49" s="9">
-        <v>44690</v>
+        <v>44666</v>
       </c>
       <c r="J49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="12.5">
-      <c r="A50" s="11" t="s">
-        <v>128</v>
+      <c r="A50" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>127</v>
+        <v>114</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" t="s">
+        <v>115</v>
       </c>
       <c r="F50">
         <v>2022</v>
       </c>
-      <c r="G50" s="11">
-        <v>47.423560000000002</v>
-      </c>
-      <c r="H50" s="11">
-        <v>9.3774899999999999</v>
+      <c r="G50">
+        <v>53.333060000000003</v>
+      </c>
+      <c r="H50">
+        <v>-6.2488900000000003</v>
       </c>
       <c r="I50" s="9">
-        <v>44706</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>130</v>
+        <v>44690</v>
+      </c>
+      <c r="J50" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.5">
-      <c r="A51" s="8" t="s">
-        <v>117</v>
+      <c r="A51" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E51" t="s">
+        <v>383</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F51">
         <v>2022</v>
       </c>
-      <c r="G51">
-        <v>47.268889000000001</v>
-      </c>
-      <c r="H51">
-        <v>9.4</v>
+      <c r="G51" s="11">
+        <v>47.423560000000002</v>
+      </c>
+      <c r="H51" s="11">
+        <v>9.3774899999999999</v>
       </c>
       <c r="I51" s="9">
-        <v>44707</v>
-      </c>
-      <c r="J51" t="s">
-        <v>141</v>
+        <v>44706</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="12.5">
       <c r="A52" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D52" s="8"/>
+      <c r="C52" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>383</v>
+      </c>
       <c r="E52" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F52">
         <v>2022</v>
       </c>
       <c r="G52">
-        <v>46.793889</v>
+        <v>47.268889000000001</v>
       </c>
       <c r="H52">
-        <v>8.3908330000000007</v>
+        <v>9.4</v>
       </c>
       <c r="I52" s="9">
-        <v>44716</v>
+        <v>44707</v>
       </c>
       <c r="J52" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="12.5">
-      <c r="A53" t="s">
-        <v>119</v>
+      <c r="A53" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D53" s="8"/>
-      <c r="E53" s="11" t="s">
-        <v>132</v>
+      <c r="E53" t="s">
+        <v>120</v>
       </c>
       <c r="F53">
         <v>2022</v>
       </c>
       <c r="G53">
-        <v>46.498333000000002</v>
+        <v>46.793889</v>
       </c>
       <c r="H53">
-        <v>7.7269439999999996</v>
+        <v>8.3908330000000007</v>
       </c>
       <c r="I53" s="9">
-        <v>44723</v>
+        <v>44716</v>
       </c>
       <c r="J53" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="12.5">
-      <c r="A54" s="8" t="s">
-        <v>245</v>
+      <c r="A54" t="s">
+        <v>119</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="11" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="F54">
         <v>2022</v>
       </c>
       <c r="G54">
-        <v>46.821510000000004</v>
-      </c>
-      <c r="H54" s="7">
-        <v>7.5713210000000002</v>
+        <v>46.498333000000002</v>
+      </c>
+      <c r="H54">
+        <v>7.7269439999999996</v>
       </c>
       <c r="I54" s="9">
-        <v>44730</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>258</v>
+        <v>44723</v>
+      </c>
+      <c r="J54" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="12.5">
       <c r="A55" s="8" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>386</v>
-      </c>
+      <c r="C55" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D55" s="8"/>
       <c r="E55" s="11" t="s">
-        <v>122</v>
+        <v>438</v>
       </c>
       <c r="F55">
-        <v>2022</v>
-      </c>
-      <c r="G55" s="11">
-        <v>46.599991000000003</v>
-      </c>
-      <c r="H55" s="11">
-        <v>7.908887</v>
+        <v>2023</v>
+      </c>
+      <c r="G55">
+        <v>46.821510000000004</v>
+      </c>
+      <c r="H55" s="7">
+        <v>7.5713210000000002</v>
       </c>
       <c r="I55" s="9">
-        <v>44764</v>
+        <v>45115</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>131</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="12.5">
       <c r="A56" s="8" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>386</v>
-      </c>
+      <c r="C56" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D56" s="8"/>
       <c r="E56" s="11" t="s">
-        <v>122</v>
+        <v>439</v>
       </c>
       <c r="F56">
         <v>2022</v>
       </c>
-      <c r="G56" s="11">
-        <v>46.316136</v>
-      </c>
-      <c r="H56" s="11">
-        <v>7.9872899999999998</v>
+      <c r="G56">
+        <v>46.821510000000004</v>
+      </c>
+      <c r="H56" s="7">
+        <v>7.5713210000000002</v>
       </c>
       <c r="I56" s="9">
-        <v>44765</v>
+        <v>44730</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>208</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="12.5">
       <c r="A57" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E57" t="s">
+        <v>382</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>122</v>
       </c>
       <c r="F57">
         <v>2022</v>
       </c>
-      <c r="G57">
-        <v>46.023603999999999</v>
-      </c>
-      <c r="H57">
-        <v>7.7486069999999998</v>
+      <c r="G57" s="11">
+        <v>46.599991000000003</v>
+      </c>
+      <c r="H57" s="11">
+        <v>7.908887</v>
       </c>
       <c r="I57" s="9">
-        <v>44766</v>
+        <v>44764</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="12.5">
-      <c r="A58" t="s">
-        <v>123</v>
+      <c r="A58" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" t="s">
-        <v>219</v>
+      <c r="C58" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="F58">
         <v>2022</v>
       </c>
-      <c r="G58">
-        <v>46.616110999999997</v>
-      </c>
-      <c r="H58">
-        <v>8.3322219999999998</v>
+      <c r="G58" s="11">
+        <v>46.316136</v>
+      </c>
+      <c r="H58" s="11">
+        <v>7.9872899999999998</v>
       </c>
       <c r="I58" s="9">
-        <v>44772</v>
-      </c>
-      <c r="J58" t="s">
-        <v>141</v>
+        <v>44765</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="12.5">
-      <c r="A59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="A59" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="8" t="s">
-        <v>220</v>
+      <c r="C59" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E59" t="s">
+        <v>122</v>
       </c>
       <c r="F59">
         <v>2022</v>
       </c>
       <c r="G59">
-        <v>46.25</v>
+        <v>46.023603999999999</v>
       </c>
       <c r="H59">
-        <v>8.8333329999999997</v>
+        <v>7.7486069999999998</v>
       </c>
       <c r="I59" s="9">
-        <v>44795</v>
-      </c>
-      <c r="J59" t="s">
-        <v>151</v>
+        <v>44766</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="12.5">
-      <c r="A60" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>153</v>
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" t="s">
+        <v>218</v>
       </c>
       <c r="F60">
         <v>2022</v>
       </c>
       <c r="G60">
-        <v>45.465421900000003</v>
+        <v>46.616110999999997</v>
       </c>
       <c r="H60">
-        <v>9.1859242999999999</v>
+        <v>8.3322219999999998</v>
       </c>
       <c r="I60" s="9">
-        <v>44800</v>
+        <v>44772</v>
       </c>
       <c r="J60" t="s">
-        <v>383</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="12.5">
-      <c r="A61" s="8" t="s">
-        <v>155</v>
+      <c r="A61" t="s">
+        <v>150</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>385</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D61" s="1"/>
       <c r="E61" s="8" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="F61">
         <v>2022</v>
       </c>
       <c r="G61">
-        <v>44.414164999999997</v>
+        <v>46.25</v>
       </c>
       <c r="H61">
-        <v>8.9421839999999992</v>
+        <v>8.8333329999999997</v>
       </c>
       <c r="I61" s="9">
-        <v>44801</v>
+        <v>44795</v>
       </c>
       <c r="J61" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="12.5">
       <c r="A62" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>153</v>
@@ -3556,30 +3605,30 @@
         <v>2022</v>
       </c>
       <c r="G62">
-        <v>43.551299999999998</v>
+        <v>45.465421900000003</v>
       </c>
       <c r="H62">
-        <v>7.0128000000000004</v>
+        <v>9.1859242999999999</v>
       </c>
       <c r="I62" s="9">
-        <v>44802</v>
+        <v>44800</v>
       </c>
       <c r="J62" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="12.5">
       <c r="A63" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>153</v>
@@ -3588,974 +3637,974 @@
         <v>2022</v>
       </c>
       <c r="G63">
-        <v>43.611899999999999</v>
+        <v>44.414164999999997</v>
       </c>
       <c r="H63">
-        <v>3.8772000000000002</v>
+        <v>8.9421839999999992</v>
       </c>
       <c r="I63" s="9">
-        <v>44802</v>
+        <v>44801</v>
       </c>
       <c r="J63" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="F64">
         <v>2022</v>
       </c>
       <c r="G64">
-        <v>43.296398000000003</v>
+        <v>43.551299999999998</v>
       </c>
       <c r="H64">
-        <v>5.37</v>
+        <v>7.0128000000000004</v>
       </c>
       <c r="I64" s="9">
         <v>44802</v>
       </c>
       <c r="J64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="F65">
         <v>2022</v>
       </c>
       <c r="G65">
-        <v>41.390205000000002</v>
+        <v>43.611899999999999</v>
       </c>
       <c r="H65">
-        <v>2.154007</v>
+        <v>3.8772000000000002</v>
       </c>
       <c r="I65" s="9">
-        <v>44805</v>
+        <v>44802</v>
       </c>
       <c r="J65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="F66">
         <v>2022</v>
       </c>
       <c r="G66">
-        <v>45.763420000000004</v>
+        <v>43.296398000000003</v>
       </c>
       <c r="H66">
-        <v>4.8342770000000002</v>
+        <v>5.37</v>
       </c>
       <c r="I66" s="9">
-        <v>44807</v>
+        <v>44802</v>
       </c>
       <c r="J66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="F67">
         <v>2022</v>
       </c>
       <c r="G67">
-        <v>41.125278000000002</v>
+        <v>41.390205000000002</v>
       </c>
       <c r="H67">
-        <v>16.866667</v>
+        <v>2.154007</v>
       </c>
       <c r="I67" s="9">
-        <v>44822</v>
+        <v>44805</v>
       </c>
       <c r="J67" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A68" t="s">
-        <v>164</v>
+      <c r="A68" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F68">
         <v>2022</v>
       </c>
       <c r="G68">
-        <v>40.055850999999997</v>
+        <v>45.763420000000004</v>
       </c>
       <c r="H68">
-        <v>17.992615000000001</v>
+        <v>4.8342770000000002</v>
       </c>
       <c r="I68" s="9">
-        <v>44823</v>
+        <v>44807</v>
       </c>
       <c r="J68" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A69" t="s">
-        <v>165</v>
+      <c r="A69" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F69">
         <v>2022</v>
       </c>
       <c r="G69">
-        <v>39.800596797600001</v>
+        <v>41.125278000000002</v>
       </c>
       <c r="H69">
-        <v>18.354165250000001</v>
+        <v>16.866667</v>
       </c>
       <c r="I69" s="9">
-        <v>44824</v>
+        <v>44822</v>
       </c>
       <c r="J69" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F70">
         <v>2022</v>
       </c>
       <c r="G70">
-        <v>40.99221</v>
+        <v>40.055850999999997</v>
       </c>
       <c r="H70">
-        <v>17.221489999999999</v>
+        <v>17.992615000000001</v>
       </c>
       <c r="I70" s="9">
-        <v>44824</v>
+        <v>44823</v>
       </c>
       <c r="J70" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D71" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="E71" s="8" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F71">
         <v>2022</v>
       </c>
       <c r="G71">
-        <v>47.630859999999998</v>
+        <v>39.800596797600001</v>
       </c>
       <c r="H71">
-        <v>7.665832</v>
+        <v>18.354165250000001</v>
       </c>
       <c r="I71" s="9">
-        <v>44920</v>
+        <v>44824</v>
       </c>
       <c r="J71" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D72" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="E72" s="8" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F72">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G72">
-        <v>46.938800999999998</v>
+        <v>40.99221</v>
       </c>
       <c r="H72">
-        <v>8.4761690000000005</v>
+        <v>17.221489999999999</v>
       </c>
       <c r="I72" s="9">
-        <v>44940</v>
+        <v>44824</v>
       </c>
       <c r="J72" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>379</v>
-      </c>
+      <c r="C73" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D73" s="1"/>
       <c r="E73" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F73">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G73">
-        <v>46.635497458000003</v>
+        <v>47.630859999999998</v>
       </c>
       <c r="H73">
-        <v>8.5894976419999995</v>
+        <v>7.665832</v>
       </c>
       <c r="I73" s="9">
-        <v>44948</v>
+        <v>44920</v>
       </c>
       <c r="J73" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>380</v>
-      </c>
+      <c r="C74" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D74" s="1"/>
       <c r="E74" s="8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F74">
         <v>2023</v>
       </c>
       <c r="G74">
-        <v>46.734780000000001</v>
+        <v>46.938800999999998</v>
       </c>
       <c r="H74">
-        <v>8.5217100000000006</v>
+        <v>8.4761690000000005</v>
       </c>
       <c r="I74" s="9">
-        <v>44948</v>
+        <v>44940</v>
       </c>
       <c r="J74" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="F75">
         <v>2023</v>
       </c>
       <c r="G75">
-        <v>45.681187999999999</v>
+        <v>46.635497458000003</v>
       </c>
       <c r="H75">
-        <v>10.017573000000001</v>
+        <v>8.5894976419999995</v>
       </c>
       <c r="I75" s="9">
-        <v>44973</v>
+        <v>44948</v>
       </c>
       <c r="J75" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="F76">
         <v>2023</v>
       </c>
       <c r="G76">
-        <v>46.259526000000001</v>
+        <v>46.734780000000001</v>
       </c>
       <c r="H76">
-        <v>10.508959000000001</v>
+        <v>8.5217100000000006</v>
       </c>
       <c r="I76" s="9">
-        <v>44974</v>
+        <v>44948</v>
       </c>
       <c r="J76" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F77">
         <v>2023</v>
       </c>
       <c r="G77">
-        <v>45.465421900000003</v>
+        <v>45.681187999999999</v>
       </c>
       <c r="H77">
-        <v>9.1859242999999999</v>
+        <v>10.017573000000001</v>
       </c>
       <c r="I77" s="9">
-        <v>44974</v>
+        <v>44973</v>
       </c>
       <c r="J77" t="s">
-        <v>384</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F78">
         <v>2023</v>
       </c>
       <c r="G78">
-        <v>46.361384999999999</v>
+        <v>46.259526000000001</v>
       </c>
       <c r="H78">
-        <v>11.032558999999999</v>
+        <v>10.508959000000001</v>
       </c>
       <c r="I78" s="9">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="J78" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A79" s="8" t="s">
-        <v>204</v>
+      <c r="A79" t="s">
+        <v>154</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" t="s">
-        <v>205</v>
+        <v>68</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="F79">
         <v>2023</v>
       </c>
       <c r="G79">
-        <v>47.484813000000003</v>
+        <v>45.465421900000003</v>
       </c>
       <c r="H79">
-        <v>7.7341870000000004</v>
+        <v>9.1859242999999999</v>
       </c>
       <c r="I79" s="9">
-        <v>44983</v>
+        <v>44974</v>
       </c>
       <c r="J79" t="s">
-        <v>206</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
       <c r="A80" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" t="s">
-        <v>215</v>
+        <v>68</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="F80">
         <v>2023</v>
       </c>
       <c r="G80">
-        <v>46.583629000000002</v>
-      </c>
-      <c r="H80" s="5">
-        <v>7.0815279999999996</v>
+        <v>46.361384999999999</v>
+      </c>
+      <c r="H80">
+        <v>11.032558999999999</v>
       </c>
       <c r="I80" s="9">
-        <v>45004</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>214</v>
+        <v>44975</v>
+      </c>
+      <c r="J80" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="F81">
         <v>2023</v>
       </c>
       <c r="G81">
-        <v>44.838689000000002</v>
-      </c>
-      <c r="H81" s="5">
-        <v>-0.57411000000000001</v>
+        <v>47.484813000000003</v>
+      </c>
+      <c r="H81">
+        <v>7.7341870000000004</v>
       </c>
       <c r="I81" s="9">
-        <v>45012</v>
+        <v>44983</v>
       </c>
       <c r="J81" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>234</v>
+      <c r="A82" t="s">
+        <v>215</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>178</v>
+        <v>7</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" t="s">
+        <v>214</v>
       </c>
       <c r="F82">
         <v>2023</v>
       </c>
       <c r="G82">
-        <v>59.916871999999998</v>
+        <v>46.583629000000002</v>
       </c>
       <c r="H82" s="5">
-        <v>10.728199</v>
+        <v>7.0815279999999996</v>
       </c>
       <c r="I82" s="9">
-        <v>45033</v>
-      </c>
-      <c r="J82" t="s">
-        <v>236</v>
+        <v>45004</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" t="s">
         <v>178</v>
       </c>
       <c r="F83">
         <v>2023</v>
       </c>
       <c r="G83">
-        <v>60.199133000000003</v>
+        <v>44.838689000000002</v>
       </c>
       <c r="H83" s="5">
-        <v>12.010057</v>
+        <v>-0.57411000000000001</v>
       </c>
       <c r="I83" s="9">
-        <v>45037</v>
+        <v>45012</v>
       </c>
       <c r="J83" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E84" t="s">
-        <v>239</v>
+        <v>374</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F84">
         <v>2023</v>
       </c>
       <c r="G84">
-        <v>39.984146000000003</v>
+        <v>59.916871999999998</v>
       </c>
       <c r="H84" s="5">
-        <v>2.205E-2</v>
+        <v>10.728199</v>
       </c>
       <c r="I84" s="9">
-        <v>45052</v>
+        <v>45033</v>
       </c>
       <c r="J84" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E85" t="s">
-        <v>239</v>
+        <v>374</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F85">
         <v>2023</v>
       </c>
       <c r="G85">
-        <v>39.475171000000003</v>
+        <v>60.199133000000003</v>
       </c>
       <c r="H85" s="5">
-        <v>-0.37599399999999999</v>
+        <v>12.010057</v>
       </c>
       <c r="I85" s="9">
-        <v>45052</v>
+        <v>45037</v>
       </c>
       <c r="J85" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="11" t="s">
-        <v>242</v>
+        <v>273</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E86" t="s">
+        <v>238</v>
       </c>
       <c r="F86">
         <v>2023</v>
       </c>
       <c r="G86">
-        <v>47.055830999999998</v>
-      </c>
-      <c r="H86" s="7">
-        <v>8.4851500000000009</v>
-      </c>
-      <c r="I86" s="13">
-        <v>45066</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>244</v>
+        <v>39.984146000000003</v>
+      </c>
+      <c r="H86" s="5">
+        <v>2.205E-2</v>
+      </c>
+      <c r="I86" s="9">
+        <v>45052</v>
+      </c>
+      <c r="J86" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="11" t="s">
-        <v>246</v>
+        <v>239</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E87" t="s">
+        <v>238</v>
       </c>
       <c r="F87">
         <v>2023</v>
       </c>
       <c r="G87">
-        <v>47.253703999999999</v>
-      </c>
-      <c r="H87" s="7">
-        <v>9.4245389999999993</v>
+        <v>39.475171000000003</v>
+      </c>
+      <c r="H87" s="5">
+        <v>-0.37599399999999999</v>
       </c>
       <c r="I87" s="9">
-        <v>45095</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>248</v>
+        <v>45052</v>
+      </c>
+      <c r="J87" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A88" t="s">
-        <v>256</v>
+      <c r="A88" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E88" t="s">
-        <v>254</v>
+        <v>7</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="F88">
         <v>2023</v>
       </c>
       <c r="G88">
-        <v>54.296000999999997</v>
+        <v>47.055830999999998</v>
       </c>
       <c r="H88" s="7">
-        <v>-8.1386520000000004</v>
-      </c>
-      <c r="I88" s="9">
-        <v>45107</v>
-      </c>
-      <c r="J88" t="s">
-        <v>257</v>
+        <v>8.4851500000000009</v>
+      </c>
+      <c r="I88" s="13">
+        <v>45066</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E89" t="s">
-        <v>254</v>
+        <v>7</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="F89">
         <v>2023</v>
       </c>
       <c r="G89">
-        <v>54.548098000000003</v>
-      </c>
-      <c r="H89">
-        <v>-8.2106480000000008</v>
+        <v>47.253703999999999</v>
+      </c>
+      <c r="H89" s="7">
+        <v>9.4245389999999993</v>
       </c>
       <c r="I89" s="9">
-        <v>45108</v>
-      </c>
-      <c r="J89" t="s">
+        <v>45095</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A90" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>375</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F90">
         <v>2023</v>
       </c>
       <c r="G90">
+        <v>54.296000999999997</v>
+      </c>
+      <c r="H90" s="7">
+        <v>-8.1386520000000004</v>
+      </c>
+      <c r="I90" s="9">
+        <v>45107</v>
+      </c>
+      <c r="J90" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A91" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E91" t="s">
+        <v>253</v>
+      </c>
+      <c r="F91">
+        <v>2023</v>
+      </c>
+      <c r="G91">
+        <v>54.548098000000003</v>
+      </c>
+      <c r="H91">
+        <v>-8.2106480000000008</v>
+      </c>
+      <c r="I91" s="9">
+        <v>45108</v>
+      </c>
+      <c r="J91" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A92" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E92" t="s">
+        <v>253</v>
+      </c>
+      <c r="F92">
+        <v>2023</v>
+      </c>
+      <c r="G92">
         <v>53.333060000000003</v>
       </c>
-      <c r="H90">
+      <c r="H92">
         <v>-6.2488900000000003</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I92" s="9">
         <v>45108</v>
       </c>
-      <c r="J90" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A91" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D91" s="1"/>
-      <c r="E91" t="s">
-        <v>260</v>
-      </c>
-      <c r="F91" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G91">
-        <v>55.693223000000003</v>
-      </c>
-      <c r="H91" s="5">
-        <v>12.590375999999999</v>
-      </c>
-      <c r="I91" s="9">
-        <v>45129</v>
-      </c>
-      <c r="J91" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A92" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G92">
-        <v>40.229362000000002</v>
-      </c>
-      <c r="H92" s="5">
-        <v>23.606514000000001</v>
-      </c>
-      <c r="I92" s="9">
-        <v>45143</v>
-      </c>
       <c r="J92" t="s">
-        <v>269</v>
+        <v>414</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>374</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D93" s="1"/>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="F93" s="1">
         <v>2023</v>
       </c>
       <c r="G93">
-        <v>40.243563000000002</v>
-      </c>
-      <c r="H93">
-        <v>23.724177999999998</v>
+        <v>55.693223000000003</v>
+      </c>
+      <c r="H93" s="5">
+        <v>12.590375999999999</v>
       </c>
       <c r="I93" s="9">
-        <v>45143</v>
+        <v>45129</v>
       </c>
       <c r="J93" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
@@ -4564,1018 +4613,1018 @@
         <v>2023</v>
       </c>
       <c r="G94">
-        <v>39.996034999999999</v>
-      </c>
-      <c r="H94">
-        <v>23.875952000000002</v>
+        <v>40.229362000000002</v>
+      </c>
+      <c r="H94" s="5">
+        <v>23.606514000000001</v>
       </c>
       <c r="I94" s="9">
-        <v>45144</v>
+        <v>45143</v>
       </c>
       <c r="J94" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E95" t="s">
-        <v>281</v>
+        <v>13</v>
       </c>
       <c r="F95" s="1">
         <v>2023</v>
       </c>
       <c r="G95">
-        <v>37.447319</v>
+        <v>40.243563000000002</v>
       </c>
       <c r="H95">
-        <v>25.331893000000001</v>
+        <v>23.724177999999998</v>
       </c>
       <c r="I95" s="9">
-        <v>45153</v>
+        <v>45143</v>
       </c>
       <c r="J95" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E96" t="s">
-        <v>281</v>
+        <v>13</v>
       </c>
       <c r="F96" s="1">
         <v>2023</v>
       </c>
       <c r="G96">
-        <v>37.403429000000003</v>
+        <v>39.996034999999999</v>
       </c>
       <c r="H96">
-        <v>25.225902000000001</v>
+        <v>23.875952000000002</v>
       </c>
       <c r="I96" s="9">
-        <v>45154</v>
+        <v>45144</v>
       </c>
       <c r="J96" t="s">
-        <v>419</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E97" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F97" s="1">
         <v>2023</v>
       </c>
       <c r="G97">
-        <v>37.442714000000002</v>
+        <v>37.447319</v>
       </c>
       <c r="H97">
-        <v>24.944464</v>
+        <v>25.331893000000001</v>
       </c>
       <c r="I97" s="9">
-        <v>45155</v>
+        <v>45153</v>
       </c>
       <c r="J97" t="s">
-        <v>420</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E98" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F98" s="1">
         <v>2023</v>
       </c>
       <c r="G98">
-        <v>37.146124</v>
+        <v>37.403429000000003</v>
       </c>
       <c r="H98">
-        <v>25.225349999999999</v>
+        <v>25.225902000000001</v>
       </c>
       <c r="I98" s="9">
-        <v>45156</v>
+        <v>45154</v>
       </c>
       <c r="J98" t="s">
-        <v>300</v>
+        <v>415</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A99" s="8" t="s">
-        <v>287</v>
+      <c r="A99" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="11" t="s">
-        <v>286</v>
+      <c r="C99" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E99" t="s">
+        <v>277</v>
       </c>
       <c r="F99" s="1">
         <v>2023</v>
       </c>
       <c r="G99">
-        <v>41.260348999999998</v>
+        <v>37.442714000000002</v>
       </c>
       <c r="H99">
-        <v>24.661873</v>
+        <v>24.944464</v>
       </c>
       <c r="I99" s="9">
-        <v>45161</v>
+        <v>45155</v>
       </c>
       <c r="J99" t="s">
-        <v>288</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A100" s="8" t="s">
-        <v>290</v>
+      <c r="A100" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="11" t="s">
-        <v>289</v>
+        <v>79</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E100" t="s">
+        <v>277</v>
       </c>
       <c r="F100" s="1">
         <v>2023</v>
       </c>
       <c r="G100">
-        <v>46.668177</v>
+        <v>37.146124</v>
       </c>
       <c r="H100">
-        <v>8.0234740000000002</v>
+        <v>25.225349999999999</v>
       </c>
       <c r="I100" s="9">
-        <v>45172</v>
+        <v>45156</v>
       </c>
       <c r="J100" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>372</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D101" s="1"/>
       <c r="E101" s="11" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F101" s="1">
         <v>2023</v>
       </c>
       <c r="G101">
-        <v>43.576137000000003</v>
+        <v>41.260348999999998</v>
       </c>
       <c r="H101">
-        <v>7.1053680000000004</v>
+        <v>24.661873</v>
       </c>
       <c r="I101" s="9">
-        <v>45177</v>
+        <v>45161</v>
       </c>
       <c r="J101" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1">
       <c r="A102" s="8" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>372</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D102" s="1"/>
       <c r="E102" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F102" s="1">
         <v>2023</v>
       </c>
       <c r="G102">
-        <v>43.728296</v>
+        <v>46.668177</v>
       </c>
       <c r="H102">
-        <v>7.3617720000000002</v>
+        <v>8.0234740000000002</v>
       </c>
       <c r="I102" s="9">
-        <v>45178</v>
+        <v>45172</v>
       </c>
       <c r="J102" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D103" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="E103" s="11" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F103" s="1">
         <v>2023</v>
       </c>
       <c r="G103">
-        <v>46.971915000000003</v>
+        <v>43.576137000000003</v>
       </c>
       <c r="H103">
-        <v>8.67347</v>
+        <v>7.1053680000000004</v>
       </c>
       <c r="I103" s="9">
-        <v>45186</v>
+        <v>45177</v>
       </c>
       <c r="J103" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D104" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="E104" s="11" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F104" s="1">
         <v>2023</v>
       </c>
       <c r="G104">
-        <v>46.488424000000002</v>
+        <v>43.728296</v>
       </c>
       <c r="H104">
-        <v>6.7528680000000003</v>
+        <v>7.3617720000000002</v>
       </c>
       <c r="I104" s="9">
-        <v>45192</v>
+        <v>45178</v>
       </c>
       <c r="J104" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1">
       <c r="A105" s="8" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="11" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F105" s="1">
         <v>2023</v>
       </c>
       <c r="G105">
-        <v>47.249125999999997</v>
+        <v>46.971915000000003</v>
       </c>
       <c r="H105">
-        <v>9.3436690000000002</v>
+        <v>8.67347</v>
       </c>
       <c r="I105" s="9">
-        <v>45207</v>
+        <v>45186</v>
       </c>
       <c r="J105" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F106" s="1">
         <v>2023</v>
       </c>
       <c r="G106">
+        <v>46.488424000000002</v>
+      </c>
+      <c r="H106">
+        <v>6.7528680000000003</v>
+      </c>
+      <c r="I106" s="9">
+        <v>45192</v>
+      </c>
+      <c r="J106" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A107" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G107">
+        <v>47.249125999999997</v>
+      </c>
+      <c r="H107">
+        <v>9.3436690000000002</v>
+      </c>
+      <c r="I107" s="9">
+        <v>45207</v>
+      </c>
+      <c r="J107" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A108" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G108">
         <v>46.575812999999997</v>
       </c>
-      <c r="H106">
+      <c r="H108">
         <v>7.2527039999999996</v>
       </c>
-      <c r="I106" s="9">
+      <c r="I108" s="9">
         <v>45214</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J108" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A109" t="s">
+        <v>307</v>
+      </c>
+      <c r="B109" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E109" t="s">
+        <v>308</v>
+      </c>
+      <c r="F109">
+        <v>2023</v>
+      </c>
+      <c r="G109">
+        <v>52.091363999999999</v>
+      </c>
+      <c r="H109">
+        <v>5.1140600000000003</v>
+      </c>
+      <c r="I109" s="9">
+        <v>45224</v>
+      </c>
+      <c r="J109" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A110" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A107" t="s">
+      <c r="B110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E110" t="s">
         <v>311</v>
       </c>
-      <c r="B107" t="s">
-        <v>34</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="F110">
+        <v>2023</v>
+      </c>
+      <c r="G110">
+        <v>52.158278000000003</v>
+      </c>
+      <c r="H110">
+        <v>4.4934250000000002</v>
+      </c>
+      <c r="I110" s="9">
+        <v>45227</v>
+      </c>
+      <c r="J110" t="s">
         <v>312</v>
-      </c>
-      <c r="F107">
-        <v>2023</v>
-      </c>
-      <c r="G107">
-        <v>52.091363999999999</v>
-      </c>
-      <c r="H107">
-        <v>5.1140600000000003</v>
-      </c>
-      <c r="I107" s="9">
-        <v>45224</v>
-      </c>
-      <c r="J107" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A108" t="s">
-        <v>314</v>
-      </c>
-      <c r="B108" t="s">
-        <v>34</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E108" t="s">
-        <v>315</v>
-      </c>
-      <c r="F108">
-        <v>2023</v>
-      </c>
-      <c r="G108">
-        <v>52.158278000000003</v>
-      </c>
-      <c r="H108">
-        <v>4.4934250000000002</v>
-      </c>
-      <c r="I108" s="9">
-        <v>45227</v>
-      </c>
-      <c r="J108" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A109" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D109" s="1"/>
-      <c r="E109" t="s">
-        <v>320</v>
-      </c>
-      <c r="F109" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G109" s="11">
-        <v>47.857779999999998</v>
-      </c>
-      <c r="H109">
-        <v>8.0450409999999994</v>
-      </c>
-      <c r="I109" s="9">
-        <v>45276</v>
-      </c>
-      <c r="J109" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A110" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E110" t="s">
-        <v>369</v>
-      </c>
-      <c r="F110" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G110">
-        <v>41.649692999999999</v>
-      </c>
-      <c r="H110">
-        <v>-0.88771199999999995</v>
-      </c>
-      <c r="I110" s="9">
-        <v>45281</v>
-      </c>
-      <c r="J110" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
       <c r="A111" s="8" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>368</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D111" s="1"/>
       <c r="E111" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F111" s="1">
         <v>2023</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="11">
+        <v>47.857779999999998</v>
+      </c>
+      <c r="H111">
+        <v>8.0450409999999994</v>
+      </c>
+      <c r="I111" s="9">
+        <v>45276</v>
+      </c>
+      <c r="J111" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A112" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E112" t="s">
+        <v>365</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G112">
         <v>41.649692999999999</v>
       </c>
-      <c r="H111">
+      <c r="H112">
         <v>-0.88771199999999995</v>
       </c>
-      <c r="I111" s="9">
+      <c r="I112" s="9">
         <v>45281</v>
       </c>
-      <c r="J111" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A112" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D112" s="1"/>
-      <c r="E112" t="s">
-        <v>324</v>
-      </c>
-      <c r="F112" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G112" s="11">
-        <v>46.779941000000001</v>
-      </c>
-      <c r="H112" s="7">
-        <v>8.4215420000000005</v>
-      </c>
-      <c r="I112" s="9">
-        <v>45304</v>
-      </c>
-      <c r="J112" s="11" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="15.5" customHeight="1">
-      <c r="A113" t="s">
-        <v>328</v>
+      <c r="J112" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A113" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E113" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F113" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G113" s="11">
-        <v>46.189376000000003</v>
-      </c>
-      <c r="H113" s="7">
-        <v>7.3396679999999996</v>
+        <v>2023</v>
+      </c>
+      <c r="G113">
+        <v>41.649692999999999</v>
+      </c>
+      <c r="H113">
+        <v>-0.88771199999999995</v>
       </c>
       <c r="I113" s="9">
-        <v>45310</v>
-      </c>
-      <c r="J113" s="11" t="s">
-        <v>335</v>
+        <v>45281</v>
+      </c>
+      <c r="J113" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>367</v>
-      </c>
+      <c r="C114" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D114" s="1"/>
       <c r="E114" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F114" s="1">
         <v>2024</v>
       </c>
       <c r="G114" s="11">
-        <v>46.106596000000003</v>
+        <v>46.779941000000001</v>
       </c>
       <c r="H114" s="7">
-        <v>7.2518390000000004</v>
+        <v>8.4215420000000005</v>
       </c>
       <c r="I114" s="9">
-        <v>45311</v>
+        <v>45304</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A115" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.5" customHeight="1">
+      <c r="A115" t="s">
+        <v>324</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>330</v>
+        <v>7</v>
       </c>
       <c r="C115" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="E115" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F115" s="1">
         <v>2024</v>
       </c>
-      <c r="G115" s="1">
-        <v>34.68486</v>
+      <c r="G115" s="11">
+        <v>46.189376000000003</v>
       </c>
       <c r="H115" s="7">
-        <v>33.032418999999997</v>
+        <v>7.3396679999999996</v>
       </c>
       <c r="I115" s="9">
-        <v>45331</v>
+        <v>45310</v>
       </c>
       <c r="J115" s="11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="15.5" customHeight="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>330</v>
+        <v>7</v>
       </c>
       <c r="C116" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="E116" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F116" s="1">
         <v>2024</v>
       </c>
-      <c r="G116" s="1">
-        <v>34.847676999999997</v>
+      <c r="G116" s="11">
+        <v>46.106596000000003</v>
       </c>
       <c r="H116" s="7">
-        <v>32.809111000000001</v>
+        <v>7.2518390000000004</v>
       </c>
       <c r="I116" s="9">
-        <v>45333</v>
+        <v>45311</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1" t="s">
-        <v>349</v>
+        <v>326</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E117" t="s">
+        <v>328</v>
       </c>
       <c r="F117" s="1">
         <v>2024</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="1">
+        <v>34.68486</v>
+      </c>
+      <c r="H117" s="7">
+        <v>33.032418999999997</v>
+      </c>
+      <c r="I117" s="9">
+        <v>45331</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.5" customHeight="1">
+      <c r="A118" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E118" t="s">
+        <v>328</v>
+      </c>
+      <c r="F118" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G118" s="1">
+        <v>34.847676999999997</v>
+      </c>
+      <c r="H118" s="7">
+        <v>32.809111000000001</v>
+      </c>
+      <c r="I118" s="9">
+        <v>45333</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A119" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G119">
         <v>46.560913999999997</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H119" s="5">
         <v>7.8888470000000002</v>
       </c>
-      <c r="I117" s="9">
+      <c r="I119" s="9">
         <v>45340</v>
       </c>
-      <c r="J117" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A118" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="F118" s="8">
-        <v>2024</v>
-      </c>
-      <c r="G118" s="11">
-        <v>46.7789</v>
-      </c>
-      <c r="H118" s="7">
-        <v>8.3865999999999996</v>
-      </c>
-      <c r="I118" s="9">
-        <v>45353</v>
-      </c>
-      <c r="J118" s="11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F119" s="8">
-        <v>2024</v>
-      </c>
-      <c r="G119" s="11">
-        <v>27.785305999999999</v>
-      </c>
-      <c r="H119">
-        <v>-15.635121</v>
-      </c>
-      <c r="I119" s="9">
-        <v>45366</v>
-      </c>
-      <c r="J119" s="11" t="s">
-        <v>356</v>
+      <c r="J119" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1">
       <c r="A120" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>364</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D120" s="1"/>
       <c r="E120" s="8" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="F120" s="8">
         <v>2024</v>
       </c>
       <c r="G120" s="11">
-        <v>27.964023999999998</v>
+        <v>46.7789</v>
       </c>
       <c r="H120" s="7">
-        <v>-15.566144</v>
+        <v>8.3865999999999996</v>
       </c>
       <c r="I120" s="9">
-        <v>45368</v>
+        <v>45353</v>
       </c>
       <c r="J120" s="11" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1">
       <c r="A121" s="8" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F121" s="8">
         <v>2024</v>
       </c>
       <c r="G121" s="11">
-        <v>28.100311999999999</v>
-      </c>
-      <c r="H121" s="7">
-        <v>-15.415868</v>
+        <v>27.785305999999999</v>
+      </c>
+      <c r="H121">
+        <v>-15.635121</v>
       </c>
       <c r="I121" s="9">
-        <v>45370</v>
+        <v>45366</v>
       </c>
       <c r="J121" s="11" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1">
       <c r="A122" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>68</v>
+        <v>355</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>391</v>
+        <v>360</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="F122" s="8">
         <v>2024</v>
       </c>
-      <c r="G122" s="14">
-        <v>44.335496999999997</v>
-      </c>
-      <c r="H122" s="15">
-        <v>9.214518</v>
-      </c>
-      <c r="I122" s="10">
-        <v>45378</v>
-      </c>
-      <c r="J122" s="8"/>
+      <c r="G122" s="11">
+        <v>27.964023999999998</v>
+      </c>
+      <c r="H122" s="7">
+        <v>-15.566144</v>
+      </c>
+      <c r="I122" s="9">
+        <v>45368</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1">
       <c r="A123" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>68</v>
+        <v>353</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>391</v>
+        <v>360</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="F123" s="8">
         <v>2024</v>
       </c>
-      <c r="G123" s="14">
-        <v>44.312080000000002</v>
-      </c>
-      <c r="H123" s="15">
-        <v>9.2130949999999991</v>
-      </c>
-      <c r="I123" s="10">
-        <v>45378</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>429</v>
+      <c r="G123" s="11">
+        <v>28.100311999999999</v>
+      </c>
+      <c r="H123" s="7">
+        <v>-15.415868</v>
+      </c>
+      <c r="I123" s="9">
+        <v>45370</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1">
       <c r="A124" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F124" s="8">
         <v>2024</v>
       </c>
       <c r="G124" s="14">
-        <v>44.170135999999999</v>
+        <v>44.335496999999997</v>
       </c>
       <c r="H124" s="15">
-        <v>9.6095229999999994</v>
+        <v>9.214518</v>
       </c>
       <c r="I124" s="10">
-        <v>45379</v>
-      </c>
-      <c r="J124" s="8" t="s">
-        <v>401</v>
-      </c>
+        <v>45378</v>
+      </c>
+      <c r="J124" s="8"/>
     </row>
     <row r="125" spans="1:10" ht="15.75" customHeight="1">
       <c r="A125" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F125" s="8">
         <v>2024</v>
       </c>
       <c r="G125" s="14">
-        <v>44.098649000000002</v>
+        <v>44.312080000000002</v>
       </c>
       <c r="H125" s="15">
-        <v>9.7377629999999993</v>
+        <v>9.2130949999999991</v>
       </c>
       <c r="I125" s="10">
-        <v>45380</v>
+        <v>45378</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1">
       <c r="A126" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F126" s="8">
         <v>2024</v>
       </c>
       <c r="G126" s="14">
-        <v>44.106419000000002</v>
+        <v>44.170135999999999</v>
       </c>
       <c r="H126" s="15">
-        <v>9.727309</v>
+        <v>9.6095229999999994</v>
       </c>
       <c r="I126" s="10">
-        <v>45380</v>
+        <v>45379</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="15.75" customHeight="1">
@@ -5586,606 +5635,638 @@
         <v>68</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>392</v>
+        <v>359</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F127" s="8">
         <v>2024</v>
       </c>
       <c r="G127" s="14">
-        <v>44.146866000000003</v>
+        <v>44.098649000000002</v>
       </c>
       <c r="H127" s="15">
-        <v>9.6549130000000005</v>
+        <v>9.7377629999999993</v>
       </c>
       <c r="I127" s="10">
         <v>45380</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
       <c r="A128" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F128" s="8">
         <v>2024</v>
       </c>
       <c r="G128" s="14">
-        <v>44.134793000000002</v>
+        <v>44.106419000000002</v>
       </c>
       <c r="H128" s="15">
-        <v>9.6824940000000002</v>
+        <v>9.727309</v>
       </c>
       <c r="I128" s="10">
         <v>45380</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15.75" customHeight="1">
       <c r="A129" s="8" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>392</v>
+        <v>359</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F129" s="8">
         <v>2024</v>
       </c>
       <c r="G129" s="14">
-        <v>44.12</v>
+        <v>44.146866000000003</v>
       </c>
       <c r="H129" s="15">
-        <v>9.7128979999999991</v>
+        <v>9.6549130000000005</v>
       </c>
       <c r="I129" s="10">
         <v>45380</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A130" s="1" t="s">
-        <v>405</v>
+      <c r="A130" s="8" t="s">
+        <v>390</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F130" s="8">
         <v>2024</v>
       </c>
       <c r="G130" s="14">
-        <v>43.468131</v>
+        <v>44.134793000000002</v>
       </c>
       <c r="H130" s="15">
-        <v>11.043355</v>
+        <v>9.6824940000000002</v>
       </c>
       <c r="I130" s="10">
-        <v>45381</v>
+        <v>45380</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15.75" customHeight="1">
       <c r="A131" s="8" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F131" s="8">
         <v>2024</v>
       </c>
       <c r="G131" s="14">
-        <v>43.478161</v>
+        <v>44.12</v>
       </c>
       <c r="H131" s="15">
-        <v>11.296054</v>
+        <v>9.7128979999999991</v>
       </c>
       <c r="I131" s="10">
-        <v>45381</v>
+        <v>45380</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A132" s="8" t="s">
-        <v>403</v>
+      <c r="A132" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F132" s="8">
         <v>2024</v>
       </c>
       <c r="G132" s="14">
-        <v>43.470078000000001</v>
+        <v>43.468131</v>
       </c>
       <c r="H132" s="15">
-        <v>11.286981000000001</v>
+        <v>11.043355</v>
       </c>
       <c r="I132" s="10">
         <v>45381</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A133" s="1" t="s">
-        <v>407</v>
+      <c r="A133" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F133" s="8">
         <v>2024</v>
       </c>
-      <c r="G133" s="16">
-        <v>43.771662999999997</v>
-      </c>
-      <c r="H133" s="17">
-        <v>11.255608000000001</v>
+      <c r="G133" s="14">
+        <v>43.478161</v>
+      </c>
+      <c r="H133" s="15">
+        <v>11.296054</v>
       </c>
       <c r="I133" s="10">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A134" s="1" t="s">
-        <v>406</v>
+      <c r="A134" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F134" s="8">
         <v>2024</v>
       </c>
-      <c r="G134" s="16">
-        <v>43.319713</v>
-      </c>
-      <c r="H134" s="17">
-        <v>11.329611</v>
+      <c r="G134" s="14">
+        <v>43.470078000000001</v>
+      </c>
+      <c r="H134" s="15">
+        <v>11.286981000000001</v>
       </c>
       <c r="I134" s="10">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A135" s="8" t="s">
-        <v>413</v>
+      <c r="A135" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F135" s="8">
         <v>2024</v>
       </c>
-      <c r="G135" s="11">
-        <v>45.542431999999998</v>
-      </c>
-      <c r="H135">
-        <v>10.224761000000001</v>
+      <c r="G135" s="16">
+        <v>43.771662999999997</v>
+      </c>
+      <c r="H135" s="17">
+        <v>11.255608000000001</v>
       </c>
       <c r="I135" s="10">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A136" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>72</v>
+      <c r="A136" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G136" s="7">
-        <v>42.697510000000001</v>
-      </c>
-      <c r="H136" s="7">
-        <v>23.324149999999999</v>
-      </c>
-      <c r="J136" t="s">
-        <v>231</v>
+        <v>359</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F136" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G136" s="16">
+        <v>43.319713</v>
+      </c>
+      <c r="H136" s="17">
+        <v>11.329611</v>
+      </c>
+      <c r="I136" s="10">
+        <v>45382</v>
+      </c>
+      <c r="J136" s="8" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.75" customHeight="1">
       <c r="A137" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>79</v>
+        <v>409</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D137" s="8"/>
-      <c r="E137" t="s">
-        <v>338</v>
-      </c>
-      <c r="G137" s="7">
-        <v>39.669618999999997</v>
-      </c>
-      <c r="H137" s="7">
-        <v>20.857987000000001</v>
+        <v>359</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F137" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G137" s="11">
+        <v>45.542431999999998</v>
+      </c>
+      <c r="H137">
+        <v>10.224761000000001</v>
+      </c>
+      <c r="I137" s="10">
+        <v>45383</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.75" customHeight="1">
       <c r="A138" s="8" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D138" s="8"/>
-      <c r="E138" t="s">
-        <v>224</v>
+      <c r="E138" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="G138" s="7">
-        <v>40.504716999999999</v>
+        <v>42.697510000000001</v>
       </c>
       <c r="H138" s="7">
-        <v>22.923787000000001</v>
+        <v>23.324149999999999</v>
+      </c>
+      <c r="J138" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.75" customHeight="1">
       <c r="A139" s="8" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" t="s">
-        <v>224</v>
+        <v>334</v>
       </c>
       <c r="G139" s="7">
-        <v>39.769033</v>
+        <v>39.669618999999997</v>
       </c>
       <c r="H139" s="7">
-        <v>21.181526999999999</v>
+        <v>20.857987000000001</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.75" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="G140" s="7">
-        <v>38.827415999999999</v>
+        <v>40.504716999999999</v>
       </c>
       <c r="H140" s="7">
-        <v>20.700458999999999</v>
+        <v>22.923787000000001</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15.75" customHeight="1">
       <c r="A141" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G141" s="7">
-        <v>39.165528999999999</v>
+        <v>39.769033</v>
       </c>
       <c r="H141" s="7">
-        <v>23.489733999999999</v>
+        <v>21.181526999999999</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.75" customHeight="1">
       <c r="A142" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" t="s">
-        <v>339</v>
+        <v>13</v>
       </c>
       <c r="G142" s="7">
-        <v>40.626631000000003</v>
+        <v>38.827415999999999</v>
       </c>
       <c r="H142" s="7">
-        <v>22.950029000000001</v>
+        <v>20.700458999999999</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.75" customHeight="1">
       <c r="A143" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G143" s="7">
-        <v>39.106766</v>
+        <v>39.165528999999999</v>
       </c>
       <c r="H143" s="7">
-        <v>26.549226000000001</v>
+        <v>23.489733999999999</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A144" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B144" s="1" t="s">
+      <c r="A144" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D144" s="1"/>
+        <v>361</v>
+      </c>
+      <c r="D144" s="8"/>
       <c r="E144" t="s">
-        <v>280</v>
-      </c>
-      <c r="G144">
-        <v>39.990836999999999</v>
-      </c>
-      <c r="H144">
-        <v>23.990808000000001</v>
-      </c>
-      <c r="J144" t="s">
-        <v>276</v>
+        <v>335</v>
+      </c>
+      <c r="G144" s="7">
+        <v>40.626631000000003</v>
+      </c>
+      <c r="H144" s="7">
+        <v>22.950029000000001</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="15.75" customHeight="1">
       <c r="A145" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="G145" s="7">
-        <v>37.118786999999998</v>
+        <v>39.106766</v>
       </c>
       <c r="H145" s="7">
-        <v>25.240739000000001</v>
+        <v>26.549226000000001</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A146" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B146" s="8" t="s">
+      <c r="A146" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D146" s="8"/>
+        <v>361</v>
+      </c>
+      <c r="D146" s="1"/>
       <c r="E146" t="s">
-        <v>228</v>
-      </c>
-      <c r="G146" s="7">
-        <v>38.244990999999999</v>
-      </c>
-      <c r="H146" s="7">
-        <v>21.734522999999999</v>
+        <v>276</v>
+      </c>
+      <c r="G146">
+        <v>39.990836999999999</v>
+      </c>
+      <c r="H146">
+        <v>23.990808000000001</v>
       </c>
       <c r="J146" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15.75" customHeight="1">
       <c r="A147" s="8" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="G147" s="7">
-        <v>40.154102000000002</v>
+        <v>37.118786999999998</v>
       </c>
       <c r="H147" s="7">
-        <v>23.915412</v>
+        <v>25.240739000000001</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A148" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="A148" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D148" s="1"/>
+        <v>361</v>
+      </c>
+      <c r="D148" s="8"/>
       <c r="E148" t="s">
         <v>227</v>
       </c>
-      <c r="F148" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G148">
-        <v>40.675697</v>
-      </c>
-      <c r="H148">
-        <v>23.687878999999999</v>
+      <c r="G148" s="7">
+        <v>38.244990999999999</v>
+      </c>
+      <c r="H148" s="7">
+        <v>21.734522999999999</v>
+      </c>
+      <c r="J148" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="15.75" customHeight="1">
       <c r="A149" s="8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C149" s="8"/>
+      <c r="C149" s="8" t="s">
+        <v>361</v>
+      </c>
       <c r="D149" s="8"/>
+      <c r="E149" t="s">
+        <v>226</v>
+      </c>
       <c r="G149" s="7">
-        <v>40.521648999999996</v>
+        <v>40.154102000000002</v>
       </c>
       <c r="H149" s="7">
-        <v>21.263010999999999</v>
+        <v>23.915412</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A150" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B150" s="8" t="s">
+      <c r="A150" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="G150" s="7">
-        <v>39.198498999999998</v>
-      </c>
-      <c r="H150" s="7">
-        <v>20.184436000000002</v>
+      <c r="C150" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" t="s">
+        <v>226</v>
+      </c>
+      <c r="F150" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G150">
+        <v>40.675697</v>
+      </c>
+      <c r="H150">
+        <v>23.687878999999999</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15.75" customHeight="1">
       <c r="A151" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>79</v>
@@ -6193,15 +6274,15 @@
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="G151" s="7">
-        <v>38.955786000000003</v>
+        <v>40.521648999999996</v>
       </c>
       <c r="H151" s="7">
-        <v>20.75263</v>
+        <v>21.263010999999999</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="15.75" customHeight="1">
       <c r="A152" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>79</v>
@@ -6209,15 +6290,15 @@
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="G152" s="7">
-        <v>37.983759999999997</v>
+        <v>39.198498999999998</v>
       </c>
       <c r="H152" s="7">
-        <v>23.72784</v>
+        <v>20.184436000000002</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="15.75" customHeight="1">
       <c r="A153" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>79</v>
@@ -6225,15 +6306,15 @@
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="G153" s="7">
-        <v>39.359924999999997</v>
+        <v>38.955786000000003</v>
       </c>
       <c r="H153" s="7">
-        <v>22.947213000000001</v>
+        <v>20.75263</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="15.75" customHeight="1">
       <c r="A154" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>79</v>
@@ -6241,15 +6322,15 @@
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="G154" s="7">
-        <v>39.388793999999997</v>
+        <v>37.983759999999997</v>
       </c>
       <c r="H154" s="7">
-        <v>23.173162999999999</v>
+        <v>23.72784</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="15.75" customHeight="1">
       <c r="A155" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>79</v>
@@ -6257,15 +6338,15 @@
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="G155" s="7">
-        <v>41.149323000000003</v>
+        <v>39.359924999999997</v>
       </c>
       <c r="H155" s="7">
-        <v>24.147006000000001</v>
+        <v>22.947213000000001</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="15.75" customHeight="1">
       <c r="A156" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>79</v>
@@ -6273,15 +6354,15 @@
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="G156" s="7">
-        <v>41.109025000000003</v>
+        <v>39.388793999999997</v>
       </c>
       <c r="H156" s="7">
-        <v>24.029107</v>
+        <v>23.173162999999999</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="15.75" customHeight="1">
       <c r="A157" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>79</v>
@@ -6289,15 +6370,15 @@
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="G157" s="7">
-        <v>40.935738000000001</v>
+        <v>41.149323000000003</v>
       </c>
       <c r="H157" s="7">
-        <v>24.412331999999999</v>
+        <v>24.147006000000001</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="15.75" customHeight="1">
       <c r="A158" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>79</v>
@@ -6305,15 +6386,15 @@
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="G158" s="7">
-        <v>41.138108000000003</v>
+        <v>41.109025000000003</v>
       </c>
       <c r="H158" s="7">
-        <v>24.88841</v>
+        <v>24.029107</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15.75" customHeight="1">
       <c r="A159" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>79</v>
@@ -6321,15 +6402,15 @@
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="G159" s="7">
-        <v>40.630231999999999</v>
+        <v>40.935738000000001</v>
       </c>
       <c r="H159" s="7">
-        <v>24.575970999999999</v>
+        <v>24.412331999999999</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15.75" customHeight="1">
       <c r="A160" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>79</v>
@@ -6337,15 +6418,15 @@
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="G160" s="7">
-        <v>40.451402000000002</v>
+        <v>41.138108000000003</v>
       </c>
       <c r="H160" s="7">
-        <v>25.588498999999999</v>
+        <v>24.88841</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="15.75" customHeight="1">
       <c r="A161" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>79</v>
@@ -6353,15 +6434,15 @@
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="G161" s="7">
-        <v>39.877859999999998</v>
+        <v>40.630231999999999</v>
       </c>
       <c r="H161" s="7">
-        <v>25.065902000000001</v>
+        <v>24.575970999999999</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="15.75" customHeight="1">
       <c r="A162" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>79</v>
@@ -6369,15 +6450,15 @@
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="G162" s="7">
-        <v>38.371211000000002</v>
+        <v>40.451402000000002</v>
       </c>
       <c r="H162" s="7">
-        <v>26.130711999999999</v>
+        <v>25.588498999999999</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="15.75" customHeight="1">
       <c r="A163" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>79</v>
@@ -6385,15 +6466,15 @@
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="G163" s="7">
-        <v>36.427728000000002</v>
+        <v>39.877859999999998</v>
       </c>
       <c r="H163" s="7">
-        <v>28.216380999999998</v>
+        <v>25.065902000000001</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="15.75" customHeight="1">
       <c r="A164" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>79</v>
@@ -6401,15 +6482,15 @@
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="G164" s="7">
-        <v>37.068413999999997</v>
+        <v>38.371211000000002</v>
       </c>
       <c r="H164" s="7">
-        <v>25.449898000000001</v>
+        <v>26.130711999999999</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="15.75" customHeight="1">
       <c r="A165" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>79</v>
@@ -6417,15 +6498,15 @@
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="G165" s="7">
-        <v>39.121442999999999</v>
+        <v>36.427728000000002</v>
       </c>
       <c r="H165" s="7">
-        <v>23.726915999999999</v>
+        <v>28.216380999999998</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="15.75" customHeight="1">
       <c r="A166" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>79</v>
@@ -6433,69 +6514,53 @@
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="G166" s="7">
-        <v>40.808191000000001</v>
+        <v>37.068413999999997</v>
       </c>
       <c r="H166" s="7">
-        <v>21.128466</v>
+        <v>25.449898000000001</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="15.75" customHeight="1">
       <c r="A167" s="8" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>363</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C167" s="8"/>
       <c r="D167" s="8"/>
-      <c r="E167" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F167">
-        <v>2013</v>
-      </c>
       <c r="G167" s="7">
-        <v>40.354810000000001</v>
+        <v>39.121442999999999</v>
       </c>
       <c r="H167" s="7">
-        <v>18.172440000000002</v>
+        <v>23.726915999999999</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="15.75" customHeight="1">
       <c r="A168" s="8" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>363</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C168" s="8"/>
       <c r="D168" s="8"/>
-      <c r="E168" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F168">
-        <v>2013</v>
-      </c>
       <c r="G168" s="7">
-        <v>37.075420000000001</v>
+        <v>40.808191000000001</v>
       </c>
       <c r="H168" s="7">
-        <v>15.28664</v>
+        <v>21.128466</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="15.75" customHeight="1">
       <c r="A169" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D169" s="8"/>
       <c r="E169" s="8" t="s">
@@ -6505,21 +6570,21 @@
         <v>2013</v>
       </c>
       <c r="G169" s="7">
-        <v>37.310650000000003</v>
+        <v>40.354810000000001</v>
       </c>
       <c r="H169" s="7">
-        <v>13.576610000000001</v>
+        <v>18.172440000000002</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="15.75" customHeight="1">
       <c r="A170" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D170" s="8"/>
       <c r="E170" s="8" t="s">
@@ -6529,21 +6594,21 @@
         <v>2013</v>
       </c>
       <c r="G170" s="7">
-        <v>37.853580000000001</v>
+        <v>37.075420000000001</v>
       </c>
       <c r="H170" s="7">
-        <v>15.28851</v>
+        <v>15.28664</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="15.75" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D171" s="8"/>
       <c r="E171" s="8" t="s">
@@ -6553,244 +6618,292 @@
         <v>2013</v>
       </c>
       <c r="G171" s="7">
-        <v>37.750267999999998</v>
+        <v>37.310650000000003</v>
       </c>
       <c r="H171" s="7">
-        <v>14.990641999999999</v>
-      </c>
-      <c r="J171" t="s">
-        <v>249</v>
+        <v>13.576610000000001</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="15.75" customHeight="1">
       <c r="A172" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D172" s="8"/>
       <c r="E172" s="8" t="s">
-        <v>13</v>
+        <v>78</v>
+      </c>
+      <c r="F172">
+        <v>2013</v>
       </c>
       <c r="G172" s="7">
-        <v>43.779249999999998</v>
+        <v>37.853580000000001</v>
       </c>
       <c r="H172" s="7">
-        <v>11.246259999999999</v>
+        <v>15.28851</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="15.75" customHeight="1">
       <c r="A173" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D173" s="8"/>
       <c r="E173" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F173">
+        <v>2013</v>
+      </c>
+      <c r="G173" s="7">
+        <v>37.750267999999998</v>
+      </c>
+      <c r="H173" s="7">
+        <v>14.990641999999999</v>
+      </c>
+      <c r="J173" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A174" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G173" s="7">
-        <v>40.745739999999998</v>
-      </c>
-      <c r="H173" s="7">
-        <v>14.496980000000001</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A174" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E174" t="s">
-        <v>232</v>
-      </c>
-      <c r="G174" s="5">
-        <v>42.672719999999998</v>
-      </c>
-      <c r="H174" s="5">
-        <v>21.166879999999999</v>
-      </c>
-      <c r="J174" t="s">
-        <v>250</v>
+      <c r="G174" s="7">
+        <v>43.779249999999998</v>
+      </c>
+      <c r="H174" s="7">
+        <v>11.246259999999999</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="15.75" customHeight="1">
       <c r="A175" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" s="7">
+        <v>40.745739999999998</v>
+      </c>
+      <c r="H175" s="7">
+        <v>14.496980000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A176" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E176" t="s">
+        <v>231</v>
+      </c>
+      <c r="G176" s="5">
+        <v>42.672719999999998</v>
+      </c>
+      <c r="H176" s="5">
+        <v>21.166879999999999</v>
+      </c>
+      <c r="J176" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A177" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B177" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F175" s="8">
+      <c r="C177" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F177" s="8">
         <v>2019</v>
       </c>
-      <c r="G175" s="7">
+      <c r="G177" s="7">
         <v>42.698345000000003</v>
       </c>
-      <c r="H175" s="7">
+      <c r="H177" s="7">
         <v>20.1663</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A176" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F176" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G176" s="5">
-        <v>56.415349999999997</v>
-      </c>
-      <c r="H176" s="5">
-        <v>-5.4718400000000003</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A177" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F177" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G177" s="5">
-        <v>56.819800000000001</v>
-      </c>
-      <c r="H177" s="5">
-        <v>-5.1052</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F178" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G178" s="5">
-        <v>46.785780000000003</v>
+        <v>56.415349999999997</v>
       </c>
       <c r="H178" s="5">
-        <v>8.1598400000000009</v>
-      </c>
-      <c r="J178" t="s">
-        <v>211</v>
+        <v>-5.4718400000000003</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F179" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G179" s="5">
-        <v>46.751179999999998</v>
+        <v>56.819800000000001</v>
       </c>
       <c r="H179" s="5">
-        <v>7.6216600000000003</v>
-      </c>
-      <c r="J179" t="s">
-        <v>210</v>
+        <v>-5.1052</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
+      <c r="E180" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F180" s="1">
         <v>2021</v>
       </c>
       <c r="G180" s="5">
-        <v>47.225569999999998</v>
+        <v>46.785780000000003</v>
       </c>
       <c r="H180" s="5">
-        <v>8.8222799999999992</v>
+        <v>8.1598400000000009</v>
+      </c>
+      <c r="J180" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
+      <c r="E181" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F181" s="1">
         <v>2021</v>
       </c>
       <c r="G181" s="5">
-        <v>47.697319999999998</v>
+        <v>46.751179999999998</v>
       </c>
       <c r="H181" s="5">
-        <v>8.6349300000000007</v>
+        <v>7.6216600000000003</v>
       </c>
       <c r="J181" t="s">
         <v>209</v>
       </c>
     </row>
+    <row r="182" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="F182" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G182" s="5">
+        <v>47.225569999999998</v>
+      </c>
+      <c r="H182" s="5">
+        <v>8.8222799999999992</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="F183" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G183" s="5">
+        <v>47.697319999999998</v>
+      </c>
+      <c r="H183" s="5">
+        <v>8.6349300000000007</v>
+      </c>
+      <c r="J183" t="s">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J181">
-    <sortCondition ref="I1:I181"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J183">
+    <sortCondition ref="I1:I183"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Places_V2.xlsx
+++ b/Places_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD67BC9-46A6-4DB7-AFCE-3BD05622C62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC16C27D-7E3F-45C9-97C8-0A122DF75602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="449">
   <si>
     <t>Place</t>
   </si>
@@ -626,9 +626,6 @@
   </si>
   <si>
     <t>Petros visited me in Glasgow and we went for a trip to Stirling.</t>
-  </si>
-  <si>
-    <t>Trip to Rome from 15 of Julu 2017 to maybe 19 of july. Just me and Despoina. We did the Classical touristic stuff but we did not have any Italian friend to guide us around.</t>
   </si>
   <si>
     <t>Liestal</t>
@@ -736,9 +733,6 @@
     <t>Kongsvinger</t>
   </si>
   <si>
-    <t xml:space="preserve">First time to Bordeaux (27-30 of April) for my PhD. Met the Lab team, small walks into the city and a couble of drinks with Manel and the other PhD students. Second time 26 - 29 of April 2023. Horrible 3 days. Already tired from Oslo, too much work, very bad hostel and I got sick. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sofia, Nina, Jule </t>
   </si>
   <si>
@@ -1346,6 +1340,36 @@
   </si>
   <si>
     <t>Trip with boat from Thun to Bern through the river Aar.</t>
+  </si>
+  <si>
+    <t>Trip to Rome from 15 of July 2017 to maybe 19 of july. Just me and Despoina. We did the Classical touristic stuff but we did not have any Italian friend to guide us around.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time to Bordeaux (27-30 of April) for my PhD. Met the Lab team, small walks into the city and a couble of drinks with Manel and the other PhD students. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second time 26 - 29 of April 2023. Horrible 3 days. Already tired from Oslo, too much work, very bad hostel and I got sick. </t>
+  </si>
+  <si>
+    <t>Kimon_in_UK</t>
+  </si>
+  <si>
+    <t>That night in the weird hostel with that guy that came in our room after 2am super wet and crying.</t>
+  </si>
+  <si>
+    <t>That night were I was moaning like a dying person because of the nightmares I had because of Ilias.</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Roche Biostats conference April 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th to 28th of April 2024. First time crossing the Atlandic. First time business class. </t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1471,6 +1495,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1690,10 +1717,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J183"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1715,10 +1742,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1740,98 +1767,98 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="18">
+        <v>45.497813000000001</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-73.567688000000004</v>
+      </c>
+      <c r="I2" s="10">
+        <v>45405</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="C3" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>2017</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G3" s="7">
         <v>41.891930000000002</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H3" s="7">
         <v>12.511329999999999</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I3" s="9">
         <v>42933</v>
       </c>
-      <c r="J2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G3" s="5">
-        <v>55.86515</v>
-      </c>
-      <c r="H3" s="5">
-        <v>-4.2576299999999998</v>
-      </c>
-      <c r="I3" s="9">
-        <v>43435</v>
-      </c>
       <c r="J3" t="s">
-        <v>340</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="F4" s="1">
         <v>2019</v>
       </c>
       <c r="G4" s="5">
-        <v>56.70514</v>
+        <v>55.86515</v>
       </c>
       <c r="H4" s="5">
-        <v>-3.7343199999999999</v>
+        <v>-4.2576299999999998</v>
       </c>
       <c r="I4" s="9">
-        <v>43469</v>
+        <v>43435</v>
       </c>
       <c r="J4" t="s">
-        <v>137</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
@@ -1839,191 +1866,191 @@
       <c r="C5" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>431</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1">
         <v>2019</v>
       </c>
       <c r="G5" s="5">
-        <v>57.479080000000003</v>
+        <v>56.70514</v>
       </c>
       <c r="H5" s="5">
-        <v>-4.2239800000000001</v>
+        <v>-3.7343199999999999</v>
       </c>
       <c r="I5" s="9">
-        <v>43507</v>
+        <v>43469</v>
       </c>
       <c r="J5" t="s">
-        <v>341</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>133</v>
+      <c r="A6" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E6" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>2019</v>
       </c>
-      <c r="G6">
-        <v>57.274028000000001</v>
-      </c>
-      <c r="H6">
-        <v>-5.5161110000000004</v>
+      <c r="G6" s="5">
+        <v>57.479080000000003</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-4.2239800000000001</v>
       </c>
       <c r="I6" s="9">
-        <v>43508</v>
+        <v>43507</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>63</v>
+      <c r="A7" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E7" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>2019</v>
       </c>
-      <c r="G7" s="5">
-        <v>57.412880000000001</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-6.1941800000000002</v>
+      <c r="G7">
+        <v>57.274028000000001</v>
+      </c>
+      <c r="H7">
+        <v>-5.5161110000000004</v>
       </c>
       <c r="I7" s="9">
         <v>43508</v>
       </c>
       <c r="J7" t="s">
-        <v>342</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>357</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
         <v>2019</v>
       </c>
       <c r="G8" s="5">
-        <v>55.952060000000003</v>
+        <v>57.412880000000001</v>
       </c>
       <c r="H8" s="5">
-        <v>-3.1964800000000002</v>
+        <v>-6.1941800000000002</v>
       </c>
       <c r="I8" s="9">
-        <v>43530</v>
+        <v>43508</v>
       </c>
       <c r="J8" t="s">
-        <v>212</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1">
         <v>2019</v>
       </c>
       <c r="G9" s="5">
-        <v>56.119030000000002</v>
+        <v>55.952060000000003</v>
       </c>
       <c r="H9" s="5">
-        <v>-3.93682</v>
+        <v>-3.1964800000000002</v>
       </c>
       <c r="I9" s="9">
-        <v>43542</v>
+        <v>43530</v>
       </c>
       <c r="J9" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1">
         <v>2019</v>
       </c>
       <c r="G10" s="5">
-        <v>56.68282</v>
+        <v>56.119030000000002</v>
       </c>
       <c r="H10" s="5">
-        <v>-5.1059799999999997</v>
+        <v>-3.93682</v>
       </c>
       <c r="I10" s="9">
-        <v>43551</v>
+        <v>43542</v>
       </c>
       <c r="J10" t="s">
-        <v>419</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -2033,92 +2060,90 @@
         <v>2019</v>
       </c>
       <c r="G11" s="5">
+        <v>56.68282</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-5.1059799999999997</v>
+      </c>
+      <c r="I11" s="9">
+        <v>43551</v>
+      </c>
+      <c r="J11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G12" s="5">
         <v>56.230519999999999</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="5">
         <v>-5.0747400000000003</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I12" s="9">
         <v>43552</v>
       </c>
-      <c r="J11" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="J12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12">
-        <v>2019</v>
-      </c>
-      <c r="G12" s="7">
-        <v>36.972248</v>
-      </c>
-      <c r="H12" s="7">
-        <v>24.723973999999998</v>
-      </c>
-      <c r="I12" s="9">
-        <v>43683</v>
-      </c>
-      <c r="J12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G13" s="5">
-        <v>46.515999999999998</v>
-      </c>
-      <c r="H13" s="5">
-        <v>6.6328199999999997</v>
+      <c r="D13" s="8"/>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>2019</v>
+      </c>
+      <c r="G13" s="7">
+        <v>36.972248</v>
+      </c>
+      <c r="H13" s="7">
+        <v>24.723973999999998</v>
       </c>
       <c r="I13" s="9">
-        <v>43775</v>
+        <v>43683</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>22</v>
@@ -2127,223 +2152,223 @@
         <v>2021</v>
       </c>
       <c r="G14" s="5">
-        <v>46.204391000000001</v>
+        <v>46.515999999999998</v>
       </c>
       <c r="H14" s="5">
-        <v>6.1431579999999997</v>
+        <v>6.6328199999999997</v>
       </c>
       <c r="I14" s="9">
         <v>43775</v>
       </c>
       <c r="J14" t="s">
-        <v>339</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>357</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1">
         <v>2021</v>
       </c>
       <c r="G15" s="5">
-        <v>47.366669999999999</v>
+        <v>46.204391000000001</v>
       </c>
       <c r="H15" s="5">
-        <v>8.5500000000000007</v>
+        <v>6.1431579999999997</v>
       </c>
       <c r="I15" s="9">
-        <v>44068</v>
+        <v>43775</v>
+      </c>
+      <c r="J15" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>263</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="F16" s="1">
         <v>2021</v>
       </c>
       <c r="G16" s="5">
-        <v>47.292544999999997</v>
+        <v>47.366669999999999</v>
       </c>
       <c r="H16" s="5">
-        <v>8.6105529999999995</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="I16" s="9">
-        <v>44099</v>
-      </c>
-      <c r="J16" t="s">
-        <v>200</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="F17" s="1">
         <v>2021</v>
       </c>
       <c r="G17" s="5">
-        <v>46.533990000000003</v>
+        <v>47.292544999999997</v>
       </c>
       <c r="H17" s="5">
-        <v>9.8727599999999995</v>
+        <v>8.6105529999999995</v>
       </c>
       <c r="I17" s="9">
-        <v>44198</v>
+        <v>44099</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>361</v>
+      <c r="C18" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1">
         <v>2021</v>
       </c>
       <c r="G18" s="5">
-        <v>47.172420000000002</v>
+        <v>46.533990000000003</v>
       </c>
       <c r="H18" s="5">
-        <v>8.5174500000000002</v>
+        <v>9.8727599999999995</v>
       </c>
       <c r="I18" s="9">
-        <v>44290</v>
+        <v>44198</v>
       </c>
       <c r="J18" t="s">
-        <v>250</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>384</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1">
         <v>2021</v>
       </c>
       <c r="G19" s="5">
-        <v>46.170859999999998</v>
+        <v>47.172420000000002</v>
       </c>
       <c r="H19" s="5">
-        <v>8.7995300000000007</v>
+        <v>8.5174500000000002</v>
       </c>
       <c r="I19" s="9">
-        <v>45108</v>
+        <v>44290</v>
+      </c>
+      <c r="J19" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F20" s="1">
         <v>2021</v>
       </c>
       <c r="G20" s="5">
-        <v>46.192779999999999</v>
+        <v>46.170859999999998</v>
       </c>
       <c r="H20" s="5">
-        <v>9.0170300000000001</v>
+        <v>8.7995300000000007</v>
       </c>
       <c r="I20" s="9">
-        <v>45109</v>
-      </c>
-      <c r="J20" t="s">
-        <v>413</v>
+        <v>45108</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F21" s="1">
         <v>2021</v>
       </c>
       <c r="G21" s="5">
-        <v>46.010080000000002</v>
+        <v>46.192779999999999</v>
       </c>
       <c r="H21" s="5">
-        <v>8.9600399999999993</v>
+        <v>9.0170300000000001</v>
       </c>
       <c r="I21" s="9">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="J21" t="s">
         <v>411</v>
@@ -2351,43 +2376,45 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>357</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>382</v>
       </c>
       <c r="F22" s="1">
         <v>2021</v>
       </c>
       <c r="G22" s="5">
-        <v>46.170859999999998</v>
+        <v>46.010080000000002</v>
       </c>
       <c r="H22" s="5">
-        <v>8.7995300000000007</v>
+        <v>8.9600399999999993</v>
       </c>
       <c r="I22" s="9">
-        <v>44290</v>
+        <v>45108</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -2397,10 +2424,10 @@
         <v>2021</v>
       </c>
       <c r="G23" s="5">
-        <v>46.192779999999999</v>
+        <v>46.170859999999998</v>
       </c>
       <c r="H23" s="5">
-        <v>9.0170300000000001</v>
+        <v>8.7995300000000007</v>
       </c>
       <c r="I23" s="9">
         <v>44290</v>
@@ -2411,13 +2438,13 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -2427,16 +2454,16 @@
         <v>2021</v>
       </c>
       <c r="G24" s="5">
-        <v>46.010080000000002</v>
+        <v>46.192779999999999</v>
       </c>
       <c r="H24" s="5">
-        <v>8.9600399999999993</v>
+        <v>9.0170300000000001</v>
       </c>
       <c r="I24" s="9">
         <v>44290</v>
       </c>
       <c r="J24" t="s">
-        <v>412</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
@@ -2447,11 +2474,11 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>332</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1">
         <v>2021</v>
@@ -2463,7 +2490,7 @@
         <v>8.9600399999999993</v>
       </c>
       <c r="I25" s="9">
-        <v>44640</v>
+        <v>44290</v>
       </c>
       <c r="J25" t="s">
         <v>410</v>
@@ -2471,92 +2498,92 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>361</v>
+      <c r="C26" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="F26" s="1">
         <v>2021</v>
       </c>
       <c r="G26" s="5">
-        <v>46.948090000000001</v>
+        <v>46.010080000000002</v>
       </c>
       <c r="H26" s="5">
-        <v>7.4474400000000003</v>
+        <v>8.9600399999999993</v>
       </c>
       <c r="I26" s="9">
-        <v>44329</v>
+        <v>44640</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="F27" s="1">
         <v>2021</v>
       </c>
       <c r="G27" s="5">
-        <v>46.802370000000003</v>
+        <v>46.948090000000001</v>
       </c>
       <c r="H27" s="5">
-        <v>7.1512799999999999</v>
+        <v>7.4474400000000003</v>
       </c>
       <c r="I27" s="9">
-        <v>44363</v>
+        <v>44329</v>
       </c>
       <c r="J27" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>435</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G28" s="5">
-        <v>46.433010000000003</v>
+        <v>46.802370000000003</v>
       </c>
       <c r="H28" s="5">
-        <v>6.9114300000000002</v>
+        <v>7.1512799999999999</v>
       </c>
       <c r="I28" s="9">
-        <v>44758</v>
+        <v>44363</v>
       </c>
       <c r="J28" t="s">
-        <v>434</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
@@ -2567,14 +2594,14 @@
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>433</v>
       </c>
       <c r="F29" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G29" s="5">
         <v>46.433010000000003</v>
@@ -2583,246 +2610,244 @@
         <v>6.9114300000000002</v>
       </c>
       <c r="I29" s="9">
-        <v>44363</v>
+        <v>44758</v>
       </c>
       <c r="J29" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1">
         <v>2021</v>
       </c>
       <c r="G30" s="5">
-        <v>46.991790000000002</v>
+        <v>46.433010000000003</v>
       </c>
       <c r="H30" s="5">
-        <v>6.931</v>
+        <v>6.9114300000000002</v>
       </c>
       <c r="I30" s="9">
-        <v>44366</v>
+        <v>44363</v>
       </c>
       <c r="J30" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F31" s="1">
         <v>2021</v>
       </c>
       <c r="G31" s="5">
-        <v>51.586559999999999</v>
+        <v>46.991790000000002</v>
       </c>
       <c r="H31" s="5">
-        <v>4.7759600000000004</v>
+        <v>6.931</v>
       </c>
       <c r="I31" s="9">
-        <v>44381</v>
+        <v>44366</v>
       </c>
       <c r="J31" t="s">
-        <v>135</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F32" s="1">
         <v>2021</v>
       </c>
       <c r="G32" s="5">
-        <v>52.377955999999998</v>
+        <v>51.586559999999999</v>
       </c>
       <c r="H32" s="5">
-        <v>4.8970700000000003</v>
+        <v>4.7759600000000004</v>
       </c>
       <c r="I32" s="9">
         <v>44381</v>
       </c>
       <c r="J32" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33" s="1">
         <v>2021</v>
       </c>
       <c r="G33" s="5">
-        <v>52.07667</v>
+        <v>52.377955999999998</v>
       </c>
       <c r="H33" s="5">
-        <v>4.29861</v>
+        <v>4.8970700000000003</v>
       </c>
       <c r="I33" s="9">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="J33" t="s">
-        <v>343</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F34" s="1">
         <v>2021</v>
       </c>
       <c r="G34" s="5">
-        <v>52.63167</v>
-      </c>
-      <c r="H34" s="6">
-        <v>4.7486100000000002</v>
+        <v>52.07667</v>
+      </c>
+      <c r="H34" s="5">
+        <v>4.29861</v>
       </c>
       <c r="I34" s="9">
         <v>44382</v>
       </c>
       <c r="J34" t="s">
-        <v>135</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F35" s="1">
         <v>2021</v>
       </c>
       <c r="G35" s="5">
-        <v>51.922499999999999</v>
-      </c>
-      <c r="H35" s="5">
-        <v>4.4791699999999999</v>
+        <v>52.63167</v>
+      </c>
+      <c r="H35" s="6">
+        <v>4.7486100000000002</v>
       </c>
       <c r="I35" s="9">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="J35" t="s">
-        <v>418</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F36" s="1">
         <v>2021</v>
       </c>
       <c r="G36" s="5">
-        <v>52.642499999999998</v>
+        <v>51.922499999999999</v>
       </c>
       <c r="H36" s="5">
-        <v>5.0597200000000004</v>
+        <v>4.4791699999999999</v>
       </c>
       <c r="I36" s="9">
         <v>44383</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>359</v>
+      <c r="C37" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>41</v>
@@ -2831,168 +2856,168 @@
         <v>2021</v>
       </c>
       <c r="G37" s="5">
-        <v>52.380839999999999</v>
+        <v>52.642499999999998</v>
       </c>
       <c r="H37" s="5">
-        <v>4.6368299999999998</v>
+        <v>5.0597200000000004</v>
       </c>
       <c r="I37" s="9">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="J37" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="12.5">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>357</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="F38" s="1">
         <v>2021</v>
       </c>
       <c r="G38" s="5">
-        <v>47.50564</v>
+        <v>52.380839999999999</v>
       </c>
       <c r="H38" s="5">
-        <v>8.7241300000000006</v>
+        <v>4.6368299999999998</v>
       </c>
       <c r="I38" s="9">
-        <v>44440</v>
+        <v>44384</v>
       </c>
       <c r="J38" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="12.5">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="F39" s="1">
         <v>2021</v>
       </c>
       <c r="G39" s="5">
-        <v>47.558390000000003</v>
+        <v>47.50564</v>
       </c>
       <c r="H39" s="5">
-        <v>7.5732699999999999</v>
+        <v>8.7241300000000006</v>
       </c>
       <c r="I39" s="9">
-        <v>44525</v>
+        <v>44440</v>
       </c>
       <c r="J39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.5">
       <c r="A40" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
       <c r="F40" s="1">
         <v>2021</v>
       </c>
       <c r="G40" s="5">
-        <v>47.0505</v>
+        <v>47.558390000000003</v>
       </c>
       <c r="H40" s="5">
-        <v>8.3064</v>
+        <v>7.5732699999999999</v>
       </c>
       <c r="I40" s="9">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="J40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="12.5">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="F41" s="1">
         <v>2021</v>
       </c>
       <c r="G41" s="5">
-        <v>46.683869999999999</v>
+        <v>47.0505</v>
       </c>
       <c r="H41" s="5">
-        <v>7.8663800000000004</v>
+        <v>8.3064</v>
       </c>
       <c r="I41" s="9">
-        <v>44548</v>
+        <v>44527</v>
       </c>
       <c r="J41" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="12.5">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>432</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="F42" s="1">
         <v>2021</v>
       </c>
       <c r="G42" s="5">
-        <v>52.00667</v>
+        <v>46.683869999999999</v>
       </c>
       <c r="H42" s="5">
-        <v>4.3555599999999997</v>
+        <v>7.8663800000000004</v>
       </c>
       <c r="I42" s="9">
-        <v>44557</v>
+        <v>44548</v>
       </c>
       <c r="J42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="12.5">
@@ -3003,16 +3028,16 @@
         <v>34</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
       <c r="F43" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G43" s="5">
         <v>52.00667</v>
@@ -3021,88 +3046,88 @@
         <v>4.3555599999999997</v>
       </c>
       <c r="I43" s="9">
-        <v>45227</v>
+        <v>44557</v>
       </c>
       <c r="J43" t="s">
-        <v>428</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="12.5">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>49</v>
+        <v>331</v>
       </c>
       <c r="F44" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G44" s="5">
-        <v>51.220469999999999</v>
+        <v>52.00667</v>
       </c>
       <c r="H44" s="5">
-        <v>4.4002600000000003</v>
+        <v>4.3555599999999997</v>
       </c>
       <c r="I44" s="9">
-        <v>44560</v>
+        <v>45227</v>
       </c>
       <c r="J44" t="s">
-        <v>175</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.5">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F45" s="1">
         <v>2021</v>
       </c>
       <c r="G45" s="5">
-        <v>51.81</v>
+        <v>51.220469999999999</v>
       </c>
       <c r="H45" s="5">
-        <v>4.67361</v>
+        <v>4.4002600000000003</v>
       </c>
       <c r="I45" s="9">
         <v>44560</v>
       </c>
       <c r="J45" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="12.5">
-      <c r="A46" s="2" t="s">
-        <v>46</v>
+      <c r="A46" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>37</v>
@@ -3111,10 +3136,10 @@
         <v>2021</v>
       </c>
       <c r="G46" s="5">
-        <v>51.975830000000002</v>
+        <v>51.81</v>
       </c>
       <c r="H46" s="5">
-        <v>4.3138899999999998</v>
+        <v>4.67361</v>
       </c>
       <c r="I46" s="9">
         <v>44560</v>
@@ -3124,297 +3149,299 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="12.5">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G47" s="5">
+        <v>51.975830000000002</v>
+      </c>
+      <c r="H47" s="5">
+        <v>4.3138899999999998</v>
+      </c>
+      <c r="I47" s="9">
+        <v>44560</v>
+      </c>
+      <c r="J47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="12.5">
+      <c r="A48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F47" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G47" s="5">
-        <v>47.636623999999998</v>
-      </c>
-      <c r="H47" s="5">
-        <v>8.7891720000000007</v>
-      </c>
-      <c r="I47" s="9">
-        <v>44591</v>
-      </c>
-      <c r="J47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="12.5">
-      <c r="A48" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E48" t="s">
-        <v>116</v>
-      </c>
-      <c r="F48">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="1">
         <v>2022</v>
       </c>
-      <c r="G48">
-        <v>48.853409999999997</v>
-      </c>
-      <c r="H48">
-        <v>2.3488000000000002</v>
+      <c r="G48" s="5">
+        <v>47.636623999999998</v>
+      </c>
+      <c r="H48" s="5">
+        <v>8.7891720000000007</v>
       </c>
       <c r="I48" s="9">
-        <v>44625</v>
+        <v>44591</v>
       </c>
       <c r="J48" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="12.5">
       <c r="A49" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D49" s="8"/>
+        <v>357</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>431</v>
+      </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="F49">
         <v>2022</v>
       </c>
       <c r="G49">
-        <v>48.080779999999997</v>
+        <v>48.853409999999997</v>
       </c>
       <c r="H49">
-        <v>7.3558399999999997</v>
+        <v>2.3488000000000002</v>
       </c>
       <c r="I49" s="9">
-        <v>44666</v>
+        <v>44625</v>
       </c>
       <c r="J49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="12.5">
       <c r="A50" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="F50">
         <v>2022</v>
       </c>
       <c r="G50">
-        <v>53.333060000000003</v>
+        <v>48.080779999999997</v>
       </c>
       <c r="H50">
-        <v>-6.2488900000000003</v>
+        <v>7.3558399999999997</v>
       </c>
       <c r="I50" s="9">
-        <v>44690</v>
+        <v>44666</v>
       </c>
       <c r="J50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.5">
-      <c r="A51" s="11" t="s">
-        <v>128</v>
+      <c r="A51" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>127</v>
+      <c r="D51" s="8"/>
+      <c r="E51" t="s">
+        <v>115</v>
       </c>
       <c r="F51">
         <v>2022</v>
       </c>
-      <c r="G51" s="11">
-        <v>47.423560000000002</v>
-      </c>
-      <c r="H51" s="11">
-        <v>9.3774899999999999</v>
+      <c r="G51">
+        <v>53.333060000000003</v>
+      </c>
+      <c r="H51">
+        <v>-6.2488900000000003</v>
       </c>
       <c r="I51" s="9">
-        <v>44706</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>130</v>
+        <v>44690</v>
+      </c>
+      <c r="J51" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="12.5">
-      <c r="A52" s="8" t="s">
-        <v>117</v>
+      <c r="A52" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E52" t="s">
+        <v>381</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F52">
         <v>2022</v>
       </c>
-      <c r="G52">
-        <v>47.268889000000001</v>
-      </c>
-      <c r="H52">
-        <v>9.4</v>
+      <c r="G52" s="11">
+        <v>47.423560000000002</v>
+      </c>
+      <c r="H52" s="11">
+        <v>9.3774899999999999</v>
       </c>
       <c r="I52" s="9">
-        <v>44707</v>
-      </c>
-      <c r="J52" t="s">
-        <v>141</v>
+        <v>44706</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="12.5">
       <c r="A53" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D53" s="8"/>
+      <c r="C53" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>381</v>
+      </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F53">
         <v>2022</v>
       </c>
       <c r="G53">
-        <v>46.793889</v>
+        <v>47.268889000000001</v>
       </c>
       <c r="H53">
-        <v>8.3908330000000007</v>
+        <v>9.4</v>
       </c>
       <c r="I53" s="9">
-        <v>44716</v>
+        <v>44707</v>
       </c>
       <c r="J53" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="12.5">
-      <c r="A54" t="s">
-        <v>119</v>
+      <c r="A54" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D54" s="8"/>
-      <c r="E54" s="11" t="s">
-        <v>132</v>
+      <c r="E54" t="s">
+        <v>120</v>
       </c>
       <c r="F54">
         <v>2022</v>
       </c>
       <c r="G54">
-        <v>46.498333000000002</v>
+        <v>46.793889</v>
       </c>
       <c r="H54">
-        <v>7.7269439999999996</v>
+        <v>8.3908330000000007</v>
       </c>
       <c r="I54" s="9">
-        <v>44723</v>
+        <v>44716</v>
       </c>
       <c r="J54" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="12.5">
-      <c r="A55" s="8" t="s">
-        <v>244</v>
+      <c r="A55" t="s">
+        <v>119</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="11" t="s">
-        <v>438</v>
+        <v>132</v>
       </c>
       <c r="F55">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G55">
-        <v>46.821510000000004</v>
-      </c>
-      <c r="H55" s="7">
-        <v>7.5713210000000002</v>
+        <v>46.498333000000002</v>
+      </c>
+      <c r="H55">
+        <v>7.7269439999999996</v>
       </c>
       <c r="I55" s="9">
-        <v>45115</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>437</v>
+        <v>44723</v>
+      </c>
+      <c r="J55" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="12.5">
       <c r="A56" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F56">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G56">
         <v>46.821510000000004</v>
@@ -3423,56 +3450,54 @@
         <v>7.5713210000000002</v>
       </c>
       <c r="I56" s="9">
-        <v>44730</v>
+        <v>45115</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="12.5">
       <c r="A57" s="8" t="s">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="D57" s="8"/>
       <c r="E57" s="11" t="s">
-        <v>122</v>
+        <v>437</v>
       </c>
       <c r="F57">
         <v>2022</v>
       </c>
-      <c r="G57" s="11">
-        <v>46.599991000000003</v>
-      </c>
-      <c r="H57" s="11">
-        <v>7.908887</v>
+      <c r="G57">
+        <v>46.821510000000004</v>
+      </c>
+      <c r="H57" s="7">
+        <v>7.5713210000000002</v>
       </c>
       <c r="I57" s="9">
-        <v>44764</v>
+        <v>44730</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>131</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="12.5">
       <c r="A58" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>122</v>
@@ -3481,154 +3506,154 @@
         <v>2022</v>
       </c>
       <c r="G58" s="11">
-        <v>46.316136</v>
+        <v>46.599991000000003</v>
       </c>
       <c r="H58" s="11">
-        <v>7.9872899999999998</v>
+        <v>7.908887</v>
       </c>
       <c r="I58" s="9">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="12.5">
       <c r="A59" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="E59" t="s">
+        <v>380</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>122</v>
       </c>
       <c r="F59">
         <v>2022</v>
       </c>
-      <c r="G59">
-        <v>46.023603999999999</v>
-      </c>
-      <c r="H59">
-        <v>7.7486069999999998</v>
+      <c r="G59" s="11">
+        <v>46.316136</v>
+      </c>
+      <c r="H59" s="11">
+        <v>7.9872899999999998</v>
       </c>
       <c r="I59" s="9">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="12.5">
-      <c r="A60" t="s">
-        <v>123</v>
+      <c r="A60" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D60" s="8"/>
+      <c r="C60" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="E60" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="F60">
         <v>2022</v>
       </c>
       <c r="G60">
-        <v>46.616110999999997</v>
+        <v>46.023603999999999</v>
       </c>
       <c r="H60">
-        <v>8.3322219999999998</v>
+        <v>7.7486069999999998</v>
       </c>
       <c r="I60" s="9">
-        <v>44772</v>
-      </c>
-      <c r="J60" t="s">
-        <v>141</v>
+        <v>44766</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="12.5">
       <c r="A61" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="8" t="s">
-        <v>219</v>
+        <v>359</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" t="s">
+        <v>217</v>
       </c>
       <c r="F61">
         <v>2022</v>
       </c>
       <c r="G61">
-        <v>46.25</v>
+        <v>46.616110999999997</v>
       </c>
       <c r="H61">
-        <v>8.8333329999999997</v>
+        <v>8.3322219999999998</v>
       </c>
       <c r="I61" s="9">
-        <v>44795</v>
+        <v>44772</v>
       </c>
       <c r="J61" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="12.5">
-      <c r="A62" s="8" t="s">
-        <v>154</v>
+      <c r="A62" t="s">
+        <v>150</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="D62" s="1"/>
       <c r="E62" s="8" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="F62">
         <v>2022</v>
       </c>
       <c r="G62">
-        <v>45.465421900000003</v>
+        <v>46.25</v>
       </c>
       <c r="H62">
-        <v>9.1859242999999999</v>
+        <v>8.8333329999999997</v>
       </c>
       <c r="I62" s="9">
-        <v>44800</v>
+        <v>44795</v>
       </c>
       <c r="J62" t="s">
-        <v>379</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="12.5">
       <c r="A63" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>153</v>
@@ -3637,30 +3662,30 @@
         <v>2022</v>
       </c>
       <c r="G63">
-        <v>44.414164999999997</v>
+        <v>45.465421900000003</v>
       </c>
       <c r="H63">
-        <v>8.9421839999999992</v>
+        <v>9.1859242999999999</v>
       </c>
       <c r="I63" s="9">
-        <v>44801</v>
+        <v>44800</v>
       </c>
       <c r="J63" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="12.5">
       <c r="A64" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>153</v>
@@ -3669,30 +3694,30 @@
         <v>2022</v>
       </c>
       <c r="G64">
-        <v>43.551299999999998</v>
+        <v>44.414164999999997</v>
       </c>
       <c r="H64">
-        <v>7.0128000000000004</v>
+        <v>8.9421839999999992</v>
       </c>
       <c r="I64" s="9">
-        <v>44802</v>
+        <v>44801</v>
       </c>
       <c r="J64" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>153</v>
@@ -3701,190 +3726,190 @@
         <v>2022</v>
       </c>
       <c r="G65">
-        <v>43.611899999999999</v>
+        <v>43.551299999999998</v>
       </c>
       <c r="H65">
-        <v>3.8772000000000002</v>
+        <v>7.0128000000000004</v>
       </c>
       <c r="I65" s="9">
         <v>44802</v>
       </c>
       <c r="J65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="F66">
         <v>2022</v>
       </c>
       <c r="G66">
-        <v>43.296398000000003</v>
+        <v>43.611899999999999</v>
       </c>
       <c r="H66">
-        <v>5.37</v>
+        <v>3.8772000000000002</v>
       </c>
       <c r="I66" s="9">
         <v>44802</v>
       </c>
       <c r="J66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F67">
         <v>2022</v>
       </c>
       <c r="G67">
-        <v>41.390205000000002</v>
+        <v>43.296398000000003</v>
       </c>
       <c r="H67">
-        <v>2.154007</v>
+        <v>5.37</v>
       </c>
       <c r="I67" s="9">
-        <v>44805</v>
+        <v>44802</v>
       </c>
       <c r="J67" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="F68">
         <v>2022</v>
       </c>
       <c r="G68">
-        <v>45.763420000000004</v>
+        <v>41.390205000000002</v>
       </c>
       <c r="H68">
-        <v>4.8342770000000002</v>
+        <v>2.154007</v>
       </c>
       <c r="I68" s="9">
-        <v>44807</v>
+        <v>44805</v>
       </c>
       <c r="J68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F69">
         <v>2022</v>
       </c>
       <c r="G69">
-        <v>41.125278000000002</v>
+        <v>45.763420000000004</v>
       </c>
       <c r="H69">
-        <v>16.866667</v>
+        <v>4.8342770000000002</v>
       </c>
       <c r="I69" s="9">
-        <v>44822</v>
+        <v>44807</v>
       </c>
       <c r="J69" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A70" t="s">
-        <v>164</v>
+      <c r="A70" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F70">
         <v>2022</v>
       </c>
       <c r="G70">
-        <v>40.055850999999997</v>
+        <v>41.125278000000002</v>
       </c>
       <c r="H70">
-        <v>17.992615000000001</v>
+        <v>16.866667</v>
       </c>
       <c r="I70" s="9">
-        <v>44823</v>
+        <v>44822</v>
       </c>
       <c r="J70" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>162</v>
@@ -3893,782 +3918,780 @@
         <v>2022</v>
       </c>
       <c r="G71">
-        <v>39.800596797600001</v>
+        <v>40.055850999999997</v>
       </c>
       <c r="H71">
-        <v>18.354165250000001</v>
+        <v>17.992615000000001</v>
       </c>
       <c r="I71" s="9">
-        <v>44824</v>
+        <v>44823</v>
       </c>
       <c r="J71" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F72">
         <v>2022</v>
       </c>
       <c r="G72">
-        <v>40.99221</v>
+        <v>39.800596797600001</v>
       </c>
       <c r="H72">
-        <v>17.221489999999999</v>
+        <v>18.354165250000001</v>
       </c>
       <c r="I72" s="9">
         <v>44824</v>
       </c>
       <c r="J72" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="E73" s="8" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F73">
         <v>2022</v>
       </c>
       <c r="G73">
-        <v>47.630859999999998</v>
+        <v>40.99221</v>
       </c>
       <c r="H73">
-        <v>7.665832</v>
+        <v>17.221489999999999</v>
       </c>
       <c r="I73" s="9">
-        <v>44920</v>
+        <v>44824</v>
       </c>
       <c r="J73" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F74">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G74">
-        <v>46.938800999999998</v>
+        <v>47.630859999999998</v>
       </c>
       <c r="H74">
-        <v>8.4761690000000005</v>
+        <v>7.665832</v>
       </c>
       <c r="I74" s="9">
-        <v>44940</v>
+        <v>44920</v>
       </c>
       <c r="J74" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>375</v>
-      </c>
+      <c r="D75" s="1"/>
       <c r="E75" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F75">
         <v>2023</v>
       </c>
       <c r="G75">
-        <v>46.635497458000003</v>
+        <v>46.938800999999998</v>
       </c>
       <c r="H75">
-        <v>8.5894976419999995</v>
+        <v>8.4761690000000005</v>
       </c>
       <c r="I75" s="9">
-        <v>44948</v>
+        <v>44940</v>
       </c>
       <c r="J75" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F76">
         <v>2023</v>
       </c>
       <c r="G76">
-        <v>46.734780000000001</v>
+        <v>46.635497458000003</v>
       </c>
       <c r="H76">
-        <v>8.5217100000000006</v>
+        <v>8.5894976419999995</v>
       </c>
       <c r="I76" s="9">
         <v>44948</v>
       </c>
       <c r="J76" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="F77">
         <v>2023</v>
       </c>
       <c r="G77">
-        <v>45.681187999999999</v>
+        <v>46.734780000000001</v>
       </c>
       <c r="H77">
-        <v>10.017573000000001</v>
+        <v>8.5217100000000006</v>
       </c>
       <c r="I77" s="9">
-        <v>44973</v>
+        <v>44948</v>
       </c>
       <c r="J77" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F78">
         <v>2023</v>
       </c>
       <c r="G78">
-        <v>46.259526000000001</v>
+        <v>45.681187999999999</v>
       </c>
       <c r="H78">
-        <v>10.508959000000001</v>
+        <v>10.017573000000001</v>
       </c>
       <c r="I78" s="9">
-        <v>44974</v>
+        <v>44973</v>
       </c>
       <c r="J78" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F79">
         <v>2023</v>
       </c>
       <c r="G79">
-        <v>45.465421900000003</v>
+        <v>46.259526000000001</v>
       </c>
       <c r="H79">
-        <v>9.1859242999999999</v>
+        <v>10.508959000000001</v>
       </c>
       <c r="I79" s="9">
         <v>44974</v>
       </c>
       <c r="J79" t="s">
-        <v>380</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F80">
         <v>2023</v>
       </c>
       <c r="G80">
-        <v>46.361384999999999</v>
+        <v>45.465421900000003</v>
       </c>
       <c r="H80">
-        <v>11.032558999999999</v>
+        <v>9.1859242999999999</v>
       </c>
       <c r="I80" s="9">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="J80" t="s">
-        <v>188</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>203</v>
+      <c r="A81" t="s">
+        <v>187</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" t="s">
-        <v>204</v>
+        <v>68</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="F81">
         <v>2023</v>
       </c>
       <c r="G81">
-        <v>47.484813000000003</v>
+        <v>46.361384999999999</v>
       </c>
       <c r="H81">
-        <v>7.7341870000000004</v>
+        <v>11.032558999999999</v>
       </c>
       <c r="I81" s="9">
-        <v>44983</v>
+        <v>44975</v>
       </c>
       <c r="J81" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A82" t="s">
-        <v>215</v>
+      <c r="A82" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F82">
         <v>2023</v>
       </c>
       <c r="G82">
-        <v>46.583629000000002</v>
-      </c>
-      <c r="H82" s="5">
-        <v>7.0815279999999996</v>
+        <v>47.484813000000003</v>
+      </c>
+      <c r="H82">
+        <v>7.7341870000000004</v>
       </c>
       <c r="I82" s="9">
-        <v>45004</v>
-      </c>
-      <c r="J82" s="12" t="s">
-        <v>213</v>
+        <v>44983</v>
+      </c>
+      <c r="J82" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A83" s="8" t="s">
-        <v>221</v>
+      <c r="A83" t="s">
+        <v>214</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="F83">
         <v>2023</v>
       </c>
       <c r="G83">
-        <v>44.838689000000002</v>
+        <v>46.583629000000002</v>
       </c>
       <c r="H83" s="5">
-        <v>-0.57411000000000001</v>
+        <v>7.0815279999999996</v>
       </c>
       <c r="I83" s="9">
-        <v>45012</v>
-      </c>
-      <c r="J83" t="s">
-        <v>237</v>
+        <v>45004</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C84" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E84" s="1" t="s">
+      <c r="D84" s="1"/>
+      <c r="E84" t="s">
         <v>178</v>
       </c>
       <c r="F84">
         <v>2023</v>
       </c>
       <c r="G84">
-        <v>59.916871999999998</v>
+        <v>44.838689000000002</v>
       </c>
       <c r="H84" s="5">
-        <v>10.728199</v>
+        <v>-0.57411000000000001</v>
       </c>
       <c r="I84" s="9">
-        <v>45033</v>
+        <v>45012</v>
       </c>
       <c r="J84" t="s">
-        <v>235</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C85" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="D85" s="1"/>
+      <c r="E85" t="s">
         <v>178</v>
       </c>
       <c r="F85">
         <v>2023</v>
       </c>
       <c r="G85">
-        <v>60.199133000000003</v>
+        <v>44.838689000000002</v>
       </c>
       <c r="H85" s="5">
-        <v>12.010057</v>
+        <v>-0.57411000000000001</v>
       </c>
       <c r="I85" s="9">
-        <v>45037</v>
+        <v>45042</v>
       </c>
       <c r="J85" t="s">
-        <v>234</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E86" t="s">
-        <v>238</v>
+        <v>372</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F86">
         <v>2023</v>
       </c>
       <c r="G86">
-        <v>39.984146000000003</v>
+        <v>59.916871999999998</v>
       </c>
       <c r="H86" s="5">
-        <v>2.205E-2</v>
+        <v>10.728199</v>
       </c>
       <c r="I86" s="9">
-        <v>45052</v>
+        <v>45033</v>
       </c>
       <c r="J86" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E87" t="s">
-        <v>238</v>
+        <v>372</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="F87">
         <v>2023</v>
       </c>
       <c r="G87">
-        <v>39.475171000000003</v>
+        <v>60.199133000000003</v>
       </c>
       <c r="H87" s="5">
-        <v>-0.37599399999999999</v>
+        <v>12.010057</v>
       </c>
       <c r="I87" s="9">
-        <v>45052</v>
+        <v>45037</v>
       </c>
       <c r="J87" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="11" t="s">
-        <v>241</v>
+        <v>271</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E88" t="s">
+        <v>236</v>
       </c>
       <c r="F88">
         <v>2023</v>
       </c>
       <c r="G88">
-        <v>47.055830999999998</v>
-      </c>
-      <c r="H88" s="7">
-        <v>8.4851500000000009</v>
-      </c>
-      <c r="I88" s="13">
-        <v>45066</v>
-      </c>
-      <c r="J88" s="11" t="s">
-        <v>243</v>
+        <v>39.984146000000003</v>
+      </c>
+      <c r="H88" s="5">
+        <v>2.205E-2</v>
+      </c>
+      <c r="I88" s="9">
+        <v>45052</v>
+      </c>
+      <c r="J88" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="11" t="s">
-        <v>245</v>
+        <v>237</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E89" t="s">
+        <v>236</v>
       </c>
       <c r="F89">
         <v>2023</v>
       </c>
       <c r="G89">
-        <v>47.253703999999999</v>
-      </c>
-      <c r="H89" s="7">
-        <v>9.4245389999999993</v>
+        <v>39.475171000000003</v>
+      </c>
+      <c r="H89" s="5">
+        <v>-0.37599399999999999</v>
       </c>
       <c r="I89" s="9">
-        <v>45095</v>
-      </c>
-      <c r="J89" s="11" t="s">
-        <v>247</v>
+        <v>45052</v>
+      </c>
+      <c r="J89" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A90" t="s">
-        <v>255</v>
+      <c r="A90" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="E90" t="s">
-        <v>253</v>
+      <c r="D90" s="8"/>
+      <c r="E90" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="F90">
         <v>2023</v>
       </c>
       <c r="G90">
-        <v>54.296000999999997</v>
+        <v>47.055830999999998</v>
       </c>
       <c r="H90" s="7">
-        <v>-8.1386520000000004</v>
-      </c>
-      <c r="I90" s="9">
-        <v>45107</v>
-      </c>
-      <c r="J90" t="s">
-        <v>256</v>
+        <v>8.4851500000000009</v>
+      </c>
+      <c r="I90" s="13">
+        <v>45066</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C91" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="E91" t="s">
-        <v>253</v>
+      <c r="D91" s="8"/>
+      <c r="E91" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="F91">
         <v>2023</v>
       </c>
       <c r="G91">
-        <v>54.548098000000003</v>
-      </c>
-      <c r="H91">
-        <v>-8.2106480000000008</v>
+        <v>47.253703999999999</v>
+      </c>
+      <c r="H91" s="7">
+        <v>9.4245389999999993</v>
       </c>
       <c r="I91" s="9">
-        <v>45108</v>
-      </c>
-      <c r="J91" t="s">
-        <v>254</v>
+        <v>45095</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A92" s="8" t="s">
-        <v>371</v>
+      <c r="A92" t="s">
+        <v>253</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F92">
         <v>2023</v>
       </c>
       <c r="G92">
+        <v>54.296000999999997</v>
+      </c>
+      <c r="H92" s="7">
+        <v>-8.1386520000000004</v>
+      </c>
+      <c r="I92" s="9">
+        <v>45107</v>
+      </c>
+      <c r="J92" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A93" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E93" t="s">
+        <v>251</v>
+      </c>
+      <c r="F93">
+        <v>2023</v>
+      </c>
+      <c r="G93">
+        <v>54.548098000000003</v>
+      </c>
+      <c r="H93">
+        <v>-8.2106480000000008</v>
+      </c>
+      <c r="I93" s="9">
+        <v>45108</v>
+      </c>
+      <c r="J93" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A94" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E94" t="s">
+        <v>251</v>
+      </c>
+      <c r="F94">
+        <v>2023</v>
+      </c>
+      <c r="G94">
         <v>53.333060000000003</v>
       </c>
-      <c r="H92">
+      <c r="H94">
         <v>-6.2488900000000003</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I94" s="9">
         <v>45108</v>
       </c>
-      <c r="J92" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A93" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D93" s="1"/>
-      <c r="E93" t="s">
-        <v>257</v>
-      </c>
-      <c r="F93" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G93">
-        <v>55.693223000000003</v>
-      </c>
-      <c r="H93" s="5">
-        <v>12.590375999999999</v>
-      </c>
-      <c r="I93" s="9">
-        <v>45129</v>
-      </c>
-      <c r="J93" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A94" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G94">
-        <v>40.229362000000002</v>
-      </c>
-      <c r="H94" s="5">
-        <v>23.606514000000001</v>
-      </c>
-      <c r="I94" s="9">
-        <v>45143</v>
-      </c>
       <c r="J94" t="s">
-        <v>265</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C95" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>370</v>
-      </c>
+      <c r="D95" s="1"/>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="F95" s="1">
         <v>2023</v>
       </c>
       <c r="G95">
-        <v>40.243563000000002</v>
-      </c>
-      <c r="H95">
-        <v>23.724177999999998</v>
+        <v>55.693223000000003</v>
+      </c>
+      <c r="H95" s="5">
+        <v>12.590375999999999</v>
       </c>
       <c r="I95" s="9">
-        <v>45143</v>
+        <v>45129</v>
       </c>
       <c r="J95" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
@@ -4677,922 +4700,924 @@
         <v>2023</v>
       </c>
       <c r="G96">
-        <v>39.996034999999999</v>
-      </c>
-      <c r="H96">
-        <v>23.875952000000002</v>
+        <v>40.229362000000002</v>
+      </c>
+      <c r="H96" s="5">
+        <v>23.606514000000001</v>
       </c>
       <c r="I96" s="9">
-        <v>45144</v>
+        <v>45143</v>
       </c>
       <c r="J96" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E97" t="s">
-        <v>277</v>
+        <v>13</v>
       </c>
       <c r="F97" s="1">
         <v>2023</v>
       </c>
       <c r="G97">
-        <v>37.447319</v>
+        <v>40.243563000000002</v>
       </c>
       <c r="H97">
-        <v>25.331893000000001</v>
+        <v>23.724177999999998</v>
       </c>
       <c r="I97" s="9">
-        <v>45153</v>
+        <v>45143</v>
       </c>
       <c r="J97" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E98" t="s">
-        <v>277</v>
+        <v>13</v>
       </c>
       <c r="F98" s="1">
         <v>2023</v>
       </c>
       <c r="G98">
-        <v>37.403429000000003</v>
+        <v>39.996034999999999</v>
       </c>
       <c r="H98">
-        <v>25.225902000000001</v>
+        <v>23.875952000000002</v>
       </c>
       <c r="I98" s="9">
-        <v>45154</v>
+        <v>45144</v>
       </c>
       <c r="J98" t="s">
-        <v>415</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E99" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F99" s="1">
         <v>2023</v>
       </c>
       <c r="G99">
-        <v>37.442714000000002</v>
+        <v>37.447319</v>
       </c>
       <c r="H99">
-        <v>24.944464</v>
+        <v>25.331893000000001</v>
       </c>
       <c r="I99" s="9">
-        <v>45155</v>
+        <v>45153</v>
       </c>
       <c r="J99" t="s">
-        <v>416</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E100" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F100" s="1">
         <v>2023</v>
       </c>
       <c r="G100">
-        <v>37.146124</v>
+        <v>37.403429000000003</v>
       </c>
       <c r="H100">
-        <v>25.225349999999999</v>
+        <v>25.225902000000001</v>
       </c>
       <c r="I100" s="9">
-        <v>45156</v>
+        <v>45154</v>
       </c>
       <c r="J100" t="s">
-        <v>296</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A101" s="8" t="s">
-        <v>283</v>
+      <c r="A101" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="11" t="s">
-        <v>282</v>
+      <c r="C101" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E101" t="s">
+        <v>275</v>
       </c>
       <c r="F101" s="1">
         <v>2023</v>
       </c>
       <c r="G101">
-        <v>41.260348999999998</v>
+        <v>37.442714000000002</v>
       </c>
       <c r="H101">
-        <v>24.661873</v>
+        <v>24.944464</v>
       </c>
       <c r="I101" s="9">
-        <v>45161</v>
+        <v>45155</v>
       </c>
       <c r="J101" t="s">
-        <v>284</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>286</v>
+      <c r="A102" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D102" s="1"/>
-      <c r="E102" s="11" t="s">
-        <v>285</v>
+        <v>79</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E102" t="s">
+        <v>275</v>
       </c>
       <c r="F102" s="1">
         <v>2023</v>
       </c>
       <c r="G102">
-        <v>46.668177</v>
+        <v>37.146124</v>
       </c>
       <c r="H102">
-        <v>8.0234740000000002</v>
+        <v>25.225349999999999</v>
       </c>
       <c r="I102" s="9">
-        <v>45172</v>
+        <v>45156</v>
       </c>
       <c r="J102" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C103" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="D103" s="1"/>
       <c r="E103" s="11" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F103" s="1">
         <v>2023</v>
       </c>
       <c r="G103">
-        <v>43.576137000000003</v>
+        <v>41.260348999999998</v>
       </c>
       <c r="H103">
-        <v>7.1053680000000004</v>
+        <v>24.661873</v>
       </c>
       <c r="I103" s="9">
-        <v>45177</v>
+        <v>45161</v>
       </c>
       <c r="J103" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="D104" s="1"/>
       <c r="E104" s="11" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F104" s="1">
         <v>2023</v>
       </c>
       <c r="G104">
-        <v>43.728296</v>
+        <v>46.668177</v>
       </c>
       <c r="H104">
-        <v>7.3617720000000002</v>
+        <v>8.0234740000000002</v>
       </c>
       <c r="I104" s="9">
-        <v>45178</v>
+        <v>45172</v>
       </c>
       <c r="J104" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1">
       <c r="A105" s="8" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D105" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="E105" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F105" s="1">
         <v>2023</v>
       </c>
       <c r="G105">
-        <v>46.971915000000003</v>
+        <v>43.576137000000003</v>
       </c>
       <c r="H105">
-        <v>8.67347</v>
+        <v>7.1053680000000004</v>
       </c>
       <c r="I105" s="9">
-        <v>45186</v>
+        <v>45177</v>
       </c>
       <c r="J105" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D106" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="E106" s="11" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F106" s="1">
         <v>2023</v>
       </c>
       <c r="G106">
-        <v>46.488424000000002</v>
+        <v>43.728296</v>
       </c>
       <c r="H106">
-        <v>6.7528680000000003</v>
+        <v>7.3617720000000002</v>
       </c>
       <c r="I106" s="9">
-        <v>45192</v>
+        <v>45178</v>
       </c>
       <c r="J106" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.75" customHeight="1">
       <c r="A107" s="8" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="11" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F107" s="1">
         <v>2023</v>
       </c>
       <c r="G107">
-        <v>47.249125999999997</v>
+        <v>46.971915000000003</v>
       </c>
       <c r="H107">
-        <v>9.3436690000000002</v>
+        <v>8.67347</v>
       </c>
       <c r="I107" s="9">
-        <v>45207</v>
+        <v>45186</v>
       </c>
       <c r="J107" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="11" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F108" s="1">
         <v>2023</v>
       </c>
       <c r="G108">
+        <v>46.488424000000002</v>
+      </c>
+      <c r="H108">
+        <v>6.7528680000000003</v>
+      </c>
+      <c r="I108" s="9">
+        <v>45192</v>
+      </c>
+      <c r="J108" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A109" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G109">
+        <v>47.249125999999997</v>
+      </c>
+      <c r="H109">
+        <v>9.3436690000000002</v>
+      </c>
+      <c r="I109" s="9">
+        <v>45207</v>
+      </c>
+      <c r="J109" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A110" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G110">
         <v>46.575812999999997</v>
       </c>
-      <c r="H108">
+      <c r="H110">
         <v>7.2527039999999996</v>
       </c>
-      <c r="I108" s="9">
+      <c r="I110" s="9">
         <v>45214</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J110" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A111" t="s">
+        <v>305</v>
+      </c>
+      <c r="B111" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E111" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A109" t="s">
+      <c r="F111">
+        <v>2023</v>
+      </c>
+      <c r="G111">
+        <v>52.091363999999999</v>
+      </c>
+      <c r="H111">
+        <v>5.1140600000000003</v>
+      </c>
+      <c r="I111" s="9">
+        <v>45224</v>
+      </c>
+      <c r="J111" t="s">
         <v>307</v>
       </c>
-      <c r="B109" t="s">
+    </row>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A112" t="s">
+        <v>308</v>
+      </c>
+      <c r="B112" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E109" t="s">
-        <v>308</v>
-      </c>
-      <c r="F109">
+      <c r="C112" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E112" t="s">
+        <v>309</v>
+      </c>
+      <c r="F112">
         <v>2023</v>
       </c>
-      <c r="G109">
-        <v>52.091363999999999</v>
-      </c>
-      <c r="H109">
-        <v>5.1140600000000003</v>
-      </c>
-      <c r="I109" s="9">
-        <v>45224</v>
-      </c>
-      <c r="J109" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A110" t="s">
+      <c r="G112">
+        <v>52.158278000000003</v>
+      </c>
+      <c r="H112">
+        <v>4.4934250000000002</v>
+      </c>
+      <c r="I112" s="9">
+        <v>45227</v>
+      </c>
+      <c r="J112" t="s">
         <v>310</v>
-      </c>
-      <c r="B110" t="s">
-        <v>34</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E110" t="s">
-        <v>311</v>
-      </c>
-      <c r="F110">
-        <v>2023</v>
-      </c>
-      <c r="G110">
-        <v>52.158278000000003</v>
-      </c>
-      <c r="H110">
-        <v>4.4934250000000002</v>
-      </c>
-      <c r="I110" s="9">
-        <v>45227</v>
-      </c>
-      <c r="J110" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D111" s="1"/>
-      <c r="E111" t="s">
-        <v>316</v>
-      </c>
-      <c r="F111" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G111" s="11">
-        <v>47.857779999999998</v>
-      </c>
-      <c r="H111">
-        <v>8.0450409999999994</v>
-      </c>
-      <c r="I111" s="9">
-        <v>45276</v>
-      </c>
-      <c r="J111" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A112" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E112" t="s">
-        <v>365</v>
-      </c>
-      <c r="F112" s="1">
-        <v>2023</v>
-      </c>
-      <c r="G112">
-        <v>41.649692999999999</v>
-      </c>
-      <c r="H112">
-        <v>-0.88771199999999995</v>
-      </c>
-      <c r="I112" s="9">
-        <v>45281</v>
-      </c>
-      <c r="J112" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1">
       <c r="A113" s="8" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C113" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>364</v>
-      </c>
+      <c r="D113" s="1"/>
       <c r="E113" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F113" s="1">
         <v>2023</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="11">
+        <v>47.857779999999998</v>
+      </c>
+      <c r="H113">
+        <v>8.0450409999999994</v>
+      </c>
+      <c r="I113" s="9">
+        <v>45276</v>
+      </c>
+      <c r="J113" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A114" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E114" t="s">
+        <v>363</v>
+      </c>
+      <c r="F114" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G114">
         <v>41.649692999999999</v>
       </c>
-      <c r="H113">
+      <c r="H114">
         <v>-0.88771199999999995</v>
       </c>
-      <c r="I113" s="9">
+      <c r="I114" s="9">
         <v>45281</v>
       </c>
-      <c r="J113" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A114" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D114" s="1"/>
-      <c r="E114" t="s">
-        <v>320</v>
-      </c>
-      <c r="F114" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G114" s="11">
-        <v>46.779941000000001</v>
-      </c>
-      <c r="H114" s="7">
-        <v>8.4215420000000005</v>
-      </c>
-      <c r="I114" s="9">
-        <v>45304</v>
-      </c>
-      <c r="J114" s="11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="15.5" customHeight="1">
-      <c r="A115" t="s">
-        <v>324</v>
+      <c r="J114" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A115" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E115" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F115" s="1">
-        <v>2024</v>
-      </c>
-      <c r="G115" s="11">
-        <v>46.189376000000003</v>
-      </c>
-      <c r="H115" s="7">
-        <v>7.3396679999999996</v>
+        <v>2023</v>
+      </c>
+      <c r="G115">
+        <v>41.649692999999999</v>
+      </c>
+      <c r="H115">
+        <v>-0.88771199999999995</v>
       </c>
       <c r="I115" s="9">
-        <v>45310</v>
-      </c>
-      <c r="J115" s="11" t="s">
-        <v>331</v>
+        <v>45281</v>
+      </c>
+      <c r="J115" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>363</v>
-      </c>
+      <c r="D116" s="1"/>
       <c r="E116" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F116" s="1">
         <v>2024</v>
       </c>
       <c r="G116" s="11">
-        <v>46.106596000000003</v>
+        <v>46.779941000000001</v>
       </c>
       <c r="H116" s="7">
-        <v>7.2518390000000004</v>
+        <v>8.4215420000000005</v>
       </c>
       <c r="I116" s="9">
-        <v>45311</v>
+        <v>45304</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A117" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.5" customHeight="1">
+      <c r="A117" t="s">
+        <v>322</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E117" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F117" s="1">
         <v>2024</v>
       </c>
-      <c r="G117" s="1">
-        <v>34.68486</v>
+      <c r="G117" s="11">
+        <v>46.189376000000003</v>
       </c>
       <c r="H117" s="7">
-        <v>33.032418999999997</v>
+        <v>7.3396679999999996</v>
       </c>
       <c r="I117" s="9">
-        <v>45331</v>
+        <v>45310</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="15.5" customHeight="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E118" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F118" s="1">
         <v>2024</v>
       </c>
-      <c r="G118" s="1">
-        <v>34.847676999999997</v>
+      <c r="G118" s="11">
+        <v>46.106596000000003</v>
       </c>
       <c r="H118" s="7">
-        <v>32.809111000000001</v>
+        <v>7.2518390000000004</v>
       </c>
       <c r="I118" s="9">
-        <v>45333</v>
+        <v>45311</v>
       </c>
       <c r="J118" s="11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1" t="s">
-        <v>345</v>
+        <v>324</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E119" t="s">
+        <v>326</v>
       </c>
       <c r="F119" s="1">
         <v>2024</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="1">
+        <v>34.68486</v>
+      </c>
+      <c r="H119" s="7">
+        <v>33.032418999999997</v>
+      </c>
+      <c r="I119" s="9">
+        <v>45331</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.5" customHeight="1">
+      <c r="A120" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E120" t="s">
+        <v>326</v>
+      </c>
+      <c r="F120" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G120" s="1">
+        <v>34.847676999999997</v>
+      </c>
+      <c r="H120" s="7">
+        <v>32.809111000000001</v>
+      </c>
+      <c r="I120" s="9">
+        <v>45333</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A121" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F121" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G121">
         <v>46.560913999999997</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H121" s="5">
         <v>7.8888470000000002</v>
       </c>
-      <c r="I119" s="9">
+      <c r="I121" s="9">
         <v>45340</v>
       </c>
-      <c r="J119" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F120" s="8">
-        <v>2024</v>
-      </c>
-      <c r="G120" s="11">
-        <v>46.7789</v>
-      </c>
-      <c r="H120" s="7">
-        <v>8.3865999999999996</v>
-      </c>
-      <c r="I120" s="9">
-        <v>45353</v>
-      </c>
-      <c r="J120" s="11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A121" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F121" s="8">
-        <v>2024</v>
-      </c>
-      <c r="G121" s="11">
-        <v>27.785305999999999</v>
-      </c>
-      <c r="H121">
-        <v>-15.635121</v>
-      </c>
-      <c r="I121" s="9">
-        <v>45366</v>
-      </c>
-      <c r="J121" s="11" t="s">
-        <v>352</v>
+      <c r="J121" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1">
       <c r="A122" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C122" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D122" s="8" t="s">
-        <v>360</v>
-      </c>
+      <c r="D122" s="1"/>
       <c r="E122" s="8" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="F122" s="8">
         <v>2024</v>
       </c>
       <c r="G122" s="11">
-        <v>27.964023999999998</v>
+        <v>46.7789</v>
       </c>
       <c r="H122" s="7">
-        <v>-15.566144</v>
+        <v>8.3865999999999996</v>
       </c>
       <c r="I122" s="9">
-        <v>45368</v>
+        <v>45353</v>
       </c>
       <c r="J122" s="11" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1">
       <c r="A123" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F123" s="8">
         <v>2024</v>
       </c>
       <c r="G123" s="11">
-        <v>28.100311999999999</v>
-      </c>
-      <c r="H123" s="7">
-        <v>-15.415868</v>
+        <v>27.785305999999999</v>
+      </c>
+      <c r="H123">
+        <v>-15.635121</v>
       </c>
       <c r="I123" s="9">
-        <v>45370</v>
+        <v>45366</v>
       </c>
       <c r="J123" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1">
       <c r="A124" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>68</v>
+        <v>353</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>387</v>
+        <v>358</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="F124" s="8">
         <v>2024</v>
       </c>
-      <c r="G124" s="14">
-        <v>44.335496999999997</v>
-      </c>
-      <c r="H124" s="15">
-        <v>9.214518</v>
-      </c>
-      <c r="I124" s="10">
-        <v>45378</v>
-      </c>
-      <c r="J124" s="8"/>
+      <c r="G124" s="11">
+        <v>27.964023999999998</v>
+      </c>
+      <c r="H124" s="7">
+        <v>-15.566144</v>
+      </c>
+      <c r="I124" s="9">
+        <v>45368</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="125" spans="1:10" ht="15.75" customHeight="1">
       <c r="A125" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>68</v>
+        <v>351</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>387</v>
+        <v>358</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="F125" s="8">
         <v>2024</v>
       </c>
-      <c r="G125" s="14">
-        <v>44.312080000000002</v>
-      </c>
-      <c r="H125" s="15">
-        <v>9.2130949999999991</v>
-      </c>
-      <c r="I125" s="10">
-        <v>45378</v>
-      </c>
-      <c r="J125" s="8" t="s">
-        <v>425</v>
+      <c r="G125" s="11">
+        <v>28.100311999999999</v>
+      </c>
+      <c r="H125" s="7">
+        <v>-15.415868</v>
+      </c>
+      <c r="I125" s="9">
+        <v>45370</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1">
@@ -5603,29 +5628,27 @@
         <v>68</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F126" s="8">
         <v>2024</v>
       </c>
       <c r="G126" s="14">
-        <v>44.170135999999999</v>
+        <v>44.335496999999997</v>
       </c>
       <c r="H126" s="15">
-        <v>9.6095229999999994</v>
+        <v>9.214518</v>
       </c>
       <c r="I126" s="10">
-        <v>45379</v>
-      </c>
-      <c r="J126" s="8" t="s">
-        <v>397</v>
-      </c>
+        <v>45378</v>
+      </c>
+      <c r="J126" s="8"/>
     </row>
     <row r="127" spans="1:10" ht="15.75" customHeight="1">
       <c r="A127" s="8" t="s">
@@ -5635,25 +5658,25 @@
         <v>68</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F127" s="8">
         <v>2024</v>
       </c>
       <c r="G127" s="14">
-        <v>44.098649000000002</v>
+        <v>44.312080000000002</v>
       </c>
       <c r="H127" s="15">
-        <v>9.7377629999999993</v>
+        <v>9.2130949999999991</v>
       </c>
       <c r="I127" s="10">
-        <v>45380</v>
+        <v>45378</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>423</v>
@@ -5667,60 +5690,60 @@
         <v>68</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F128" s="8">
         <v>2024</v>
       </c>
       <c r="G128" s="14">
-        <v>44.106419000000002</v>
+        <v>44.170135999999999</v>
       </c>
       <c r="H128" s="15">
-        <v>9.727309</v>
+        <v>9.6095229999999994</v>
       </c>
       <c r="I128" s="10">
-        <v>45380</v>
+        <v>45379</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15.75" customHeight="1">
       <c r="A129" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>388</v>
+        <v>357</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F129" s="8">
         <v>2024</v>
       </c>
       <c r="G129" s="14">
-        <v>44.146866000000003</v>
+        <v>44.098649000000002</v>
       </c>
       <c r="H129" s="15">
-        <v>9.6549130000000005</v>
+        <v>9.7377629999999993</v>
       </c>
       <c r="I129" s="10">
         <v>45380</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.75" customHeight="1">
@@ -5731,574 +5754,606 @@
         <v>68</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F130" s="8">
         <v>2024</v>
       </c>
       <c r="G130" s="14">
-        <v>44.134793000000002</v>
+        <v>44.106419000000002</v>
       </c>
       <c r="H130" s="15">
-        <v>9.6824940000000002</v>
+        <v>9.727309</v>
       </c>
       <c r="I130" s="10">
         <v>45380</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15.75" customHeight="1">
       <c r="A131" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>388</v>
+        <v>357</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F131" s="8">
         <v>2024</v>
       </c>
       <c r="G131" s="14">
-        <v>44.12</v>
+        <v>44.146866000000003</v>
       </c>
       <c r="H131" s="15">
-        <v>9.7128979999999991</v>
+        <v>9.6549130000000005</v>
       </c>
       <c r="I131" s="10">
         <v>45380</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A132" s="1" t="s">
-        <v>401</v>
+      <c r="A132" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F132" s="8">
         <v>2024</v>
       </c>
       <c r="G132" s="14">
-        <v>43.468131</v>
+        <v>44.134793000000002</v>
       </c>
       <c r="H132" s="15">
-        <v>11.043355</v>
+        <v>9.6824940000000002</v>
       </c>
       <c r="I132" s="10">
-        <v>45381</v>
+        <v>45380</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="15.75" customHeight="1">
       <c r="A133" s="8" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F133" s="8">
         <v>2024</v>
       </c>
       <c r="G133" s="14">
-        <v>43.478161</v>
+        <v>44.12</v>
       </c>
       <c r="H133" s="15">
-        <v>11.296054</v>
+        <v>9.7128979999999991</v>
       </c>
       <c r="I133" s="10">
-        <v>45381</v>
+        <v>45380</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F134" s="8">
         <v>2024</v>
       </c>
       <c r="G134" s="14">
-        <v>43.470078000000001</v>
+        <v>43.468131</v>
       </c>
       <c r="H134" s="15">
-        <v>11.286981000000001</v>
+        <v>11.043355</v>
       </c>
       <c r="I134" s="10">
         <v>45381</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A135" s="1" t="s">
-        <v>403</v>
+      <c r="A135" s="8" t="s">
+        <v>398</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F135" s="8">
         <v>2024</v>
       </c>
-      <c r="G135" s="16">
-        <v>43.771662999999997</v>
-      </c>
-      <c r="H135" s="17">
-        <v>11.255608000000001</v>
+      <c r="G135" s="14">
+        <v>43.478161</v>
+      </c>
+      <c r="H135" s="15">
+        <v>11.296054</v>
       </c>
       <c r="I135" s="10">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A136" s="1" t="s">
-        <v>402</v>
+      <c r="A136" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F136" s="8">
         <v>2024</v>
       </c>
-      <c r="G136" s="16">
-        <v>43.319713</v>
-      </c>
-      <c r="H136" s="17">
-        <v>11.329611</v>
+      <c r="G136" s="14">
+        <v>43.470078000000001</v>
+      </c>
+      <c r="H136" s="15">
+        <v>11.286981000000001</v>
       </c>
       <c r="I136" s="10">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>409</v>
+      <c r="A137" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F137" s="8">
         <v>2024</v>
       </c>
-      <c r="G137" s="11">
-        <v>45.542431999999998</v>
-      </c>
-      <c r="H137">
-        <v>10.224761000000001</v>
+      <c r="G137" s="16">
+        <v>43.771662999999997</v>
+      </c>
+      <c r="H137" s="17">
+        <v>11.255608000000001</v>
       </c>
       <c r="I137" s="10">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A138" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>72</v>
+      <c r="A138" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G138" s="7">
-        <v>42.697510000000001</v>
-      </c>
-      <c r="H138" s="7">
-        <v>23.324149999999999</v>
-      </c>
-      <c r="J138" t="s">
-        <v>230</v>
+        <v>357</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F138" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G138" s="16">
+        <v>43.319713</v>
+      </c>
+      <c r="H138" s="17">
+        <v>11.329611</v>
+      </c>
+      <c r="I138" s="10">
+        <v>45382</v>
+      </c>
+      <c r="J138" s="8" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.75" customHeight="1">
       <c r="A139" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>79</v>
+        <v>407</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D139" s="8"/>
-      <c r="E139" t="s">
-        <v>334</v>
-      </c>
-      <c r="G139" s="7">
-        <v>39.669618999999997</v>
-      </c>
-      <c r="H139" s="7">
-        <v>20.857987000000001</v>
+        <v>357</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F139" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G139" s="11">
+        <v>45.542431999999998</v>
+      </c>
+      <c r="H139">
+        <v>10.224761000000001</v>
+      </c>
+      <c r="I139" s="10">
+        <v>45383</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.75" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D140" s="8"/>
-      <c r="E140" t="s">
-        <v>223</v>
+      <c r="E140" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="G140" s="7">
-        <v>40.504716999999999</v>
+        <v>42.697510000000001</v>
       </c>
       <c r="H140" s="7">
-        <v>22.923787000000001</v>
+        <v>23.324149999999999</v>
+      </c>
+      <c r="J140" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15.75" customHeight="1">
       <c r="A141" s="8" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" t="s">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="G141" s="7">
-        <v>39.769033</v>
+        <v>39.669618999999997</v>
       </c>
       <c r="H141" s="7">
-        <v>21.181526999999999</v>
+        <v>20.857987000000001</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.75" customHeight="1">
       <c r="A142" s="8" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="G142" s="7">
-        <v>38.827415999999999</v>
+        <v>40.504716999999999</v>
       </c>
       <c r="H142" s="7">
-        <v>20.700458999999999</v>
+        <v>22.923787000000001</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.75" customHeight="1">
       <c r="A143" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G143" s="7">
-        <v>39.165528999999999</v>
+        <v>39.769033</v>
       </c>
       <c r="H143" s="7">
-        <v>23.489733999999999</v>
+        <v>21.181526999999999</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="15.75" customHeight="1">
       <c r="A144" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" t="s">
-        <v>335</v>
+        <v>13</v>
       </c>
       <c r="G144" s="7">
-        <v>40.626631000000003</v>
+        <v>38.827415999999999</v>
       </c>
       <c r="H144" s="7">
-        <v>22.950029000000001</v>
+        <v>20.700458999999999</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="15.75" customHeight="1">
       <c r="A145" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G145" s="7">
-        <v>39.106766</v>
+        <v>39.165528999999999</v>
       </c>
       <c r="H145" s="7">
-        <v>26.549226000000001</v>
+        <v>23.489733999999999</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A146" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="A146" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B146" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D146" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D146" s="8"/>
       <c r="E146" t="s">
-        <v>276</v>
-      </c>
-      <c r="G146">
-        <v>39.990836999999999</v>
-      </c>
-      <c r="H146">
-        <v>23.990808000000001</v>
-      </c>
-      <c r="J146" t="s">
-        <v>272</v>
+        <v>333</v>
+      </c>
+      <c r="G146" s="7">
+        <v>40.626631000000003</v>
+      </c>
+      <c r="H146" s="7">
+        <v>22.950029000000001</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15.75" customHeight="1">
       <c r="A147" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="G147" s="7">
-        <v>37.118786999999998</v>
+        <v>39.106766</v>
       </c>
       <c r="H147" s="7">
-        <v>25.240739000000001</v>
+        <v>26.549226000000001</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A148" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B148" s="8" t="s">
+      <c r="A148" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D148" s="8"/>
+        <v>359</v>
+      </c>
+      <c r="D148" s="1"/>
       <c r="E148" t="s">
-        <v>227</v>
-      </c>
-      <c r="G148" s="7">
-        <v>38.244990999999999</v>
-      </c>
-      <c r="H148" s="7">
-        <v>21.734522999999999</v>
+        <v>274</v>
+      </c>
+      <c r="G148">
+        <v>39.990836999999999</v>
+      </c>
+      <c r="H148">
+        <v>23.990808000000001</v>
       </c>
       <c r="J148" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="15.75" customHeight="1">
       <c r="A149" s="8" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D149" s="8"/>
       <c r="E149" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="G149" s="7">
-        <v>40.154102000000002</v>
+        <v>37.118786999999998</v>
       </c>
       <c r="H149" s="7">
-        <v>23.915412</v>
+        <v>25.240739000000001</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A150" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="A150" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D150" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D150" s="8"/>
       <c r="E150" t="s">
         <v>226</v>
       </c>
-      <c r="F150" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G150">
-        <v>40.675697</v>
-      </c>
-      <c r="H150">
-        <v>23.687878999999999</v>
+      <c r="G150" s="7">
+        <v>38.244990999999999</v>
+      </c>
+      <c r="H150" s="7">
+        <v>21.734522999999999</v>
+      </c>
+      <c r="J150" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15.75" customHeight="1">
       <c r="A151" s="8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C151" s="8"/>
+      <c r="C151" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="D151" s="8"/>
+      <c r="E151" t="s">
+        <v>225</v>
+      </c>
       <c r="G151" s="7">
-        <v>40.521648999999996</v>
+        <v>40.154102000000002</v>
       </c>
       <c r="H151" s="7">
-        <v>21.263010999999999</v>
+        <v>23.915412</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A152" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B152" s="8" t="s">
+      <c r="A152" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="G152" s="7">
-        <v>39.198498999999998</v>
-      </c>
-      <c r="H152" s="7">
-        <v>20.184436000000002</v>
+      <c r="C152" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" t="s">
+        <v>225</v>
+      </c>
+      <c r="F152" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G152">
+        <v>40.675697</v>
+      </c>
+      <c r="H152">
+        <v>23.687878999999999</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="15.75" customHeight="1">
       <c r="A153" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>79</v>
@@ -6306,15 +6361,15 @@
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="G153" s="7">
-        <v>38.955786000000003</v>
+        <v>40.521648999999996</v>
       </c>
       <c r="H153" s="7">
-        <v>20.75263</v>
+        <v>21.263010999999999</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="15.75" customHeight="1">
       <c r="A154" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>79</v>
@@ -6322,15 +6377,15 @@
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="G154" s="7">
-        <v>37.983759999999997</v>
+        <v>39.198498999999998</v>
       </c>
       <c r="H154" s="7">
-        <v>23.72784</v>
+        <v>20.184436000000002</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="15.75" customHeight="1">
       <c r="A155" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>79</v>
@@ -6338,15 +6393,15 @@
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="G155" s="7">
-        <v>39.359924999999997</v>
+        <v>38.955786000000003</v>
       </c>
       <c r="H155" s="7">
-        <v>22.947213000000001</v>
+        <v>20.75263</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="15.75" customHeight="1">
       <c r="A156" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>79</v>
@@ -6354,15 +6409,15 @@
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="G156" s="7">
-        <v>39.388793999999997</v>
+        <v>37.983759999999997</v>
       </c>
       <c r="H156" s="7">
-        <v>23.173162999999999</v>
+        <v>23.72784</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="15.75" customHeight="1">
       <c r="A157" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>79</v>
@@ -6370,15 +6425,15 @@
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="G157" s="7">
-        <v>41.149323000000003</v>
+        <v>39.359924999999997</v>
       </c>
       <c r="H157" s="7">
-        <v>24.147006000000001</v>
+        <v>22.947213000000001</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="15.75" customHeight="1">
       <c r="A158" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>79</v>
@@ -6386,15 +6441,15 @@
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="G158" s="7">
-        <v>41.109025000000003</v>
+        <v>39.388793999999997</v>
       </c>
       <c r="H158" s="7">
-        <v>24.029107</v>
+        <v>23.173162999999999</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15.75" customHeight="1">
       <c r="A159" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>79</v>
@@ -6402,15 +6457,15 @@
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="G159" s="7">
-        <v>40.935738000000001</v>
+        <v>41.149323000000003</v>
       </c>
       <c r="H159" s="7">
-        <v>24.412331999999999</v>
+        <v>24.147006000000001</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15.75" customHeight="1">
       <c r="A160" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>79</v>
@@ -6418,15 +6473,15 @@
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="G160" s="7">
-        <v>41.138108000000003</v>
+        <v>41.109025000000003</v>
       </c>
       <c r="H160" s="7">
-        <v>24.88841</v>
+        <v>24.029107</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="15.75" customHeight="1">
       <c r="A161" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>79</v>
@@ -6434,15 +6489,15 @@
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="G161" s="7">
-        <v>40.630231999999999</v>
+        <v>40.935738000000001</v>
       </c>
       <c r="H161" s="7">
-        <v>24.575970999999999</v>
+        <v>24.412331999999999</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="15.75" customHeight="1">
       <c r="A162" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>79</v>
@@ -6450,15 +6505,15 @@
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="G162" s="7">
-        <v>40.451402000000002</v>
+        <v>41.138108000000003</v>
       </c>
       <c r="H162" s="7">
-        <v>25.588498999999999</v>
+        <v>24.88841</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="15.75" customHeight="1">
       <c r="A163" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>79</v>
@@ -6466,15 +6521,15 @@
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="G163" s="7">
-        <v>39.877859999999998</v>
+        <v>40.630231999999999</v>
       </c>
       <c r="H163" s="7">
-        <v>25.065902000000001</v>
+        <v>24.575970999999999</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="15.75" customHeight="1">
       <c r="A164" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>79</v>
@@ -6482,15 +6537,15 @@
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="G164" s="7">
-        <v>38.371211000000002</v>
+        <v>40.451402000000002</v>
       </c>
       <c r="H164" s="7">
-        <v>26.130711999999999</v>
+        <v>25.588498999999999</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="15.75" customHeight="1">
       <c r="A165" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>79</v>
@@ -6498,15 +6553,15 @@
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="G165" s="7">
-        <v>36.427728000000002</v>
+        <v>39.877859999999998</v>
       </c>
       <c r="H165" s="7">
-        <v>28.216380999999998</v>
+        <v>25.065902000000001</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="15.75" customHeight="1">
       <c r="A166" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>79</v>
@@ -6514,15 +6569,15 @@
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="G166" s="7">
-        <v>37.068413999999997</v>
+        <v>38.371211000000002</v>
       </c>
       <c r="H166" s="7">
-        <v>25.449898000000001</v>
+        <v>26.130711999999999</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="15.75" customHeight="1">
       <c r="A167" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>79</v>
@@ -6530,15 +6585,15 @@
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="G167" s="7">
-        <v>39.121442999999999</v>
+        <v>36.427728000000002</v>
       </c>
       <c r="H167" s="7">
-        <v>23.726915999999999</v>
+        <v>28.216380999999998</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="15.75" customHeight="1">
       <c r="A168" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>79</v>
@@ -6546,69 +6601,53 @@
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
       <c r="G168" s="7">
-        <v>40.808191000000001</v>
+        <v>37.068413999999997</v>
       </c>
       <c r="H168" s="7">
-        <v>21.128466</v>
+        <v>25.449898000000001</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="15.75" customHeight="1">
       <c r="A169" s="8" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>359</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C169" s="8"/>
       <c r="D169" s="8"/>
-      <c r="E169" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F169">
-        <v>2013</v>
-      </c>
       <c r="G169" s="7">
-        <v>40.354810000000001</v>
+        <v>39.121442999999999</v>
       </c>
       <c r="H169" s="7">
-        <v>18.172440000000002</v>
+        <v>23.726915999999999</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="15.75" customHeight="1">
       <c r="A170" s="8" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>359</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C170" s="8"/>
       <c r="D170" s="8"/>
-      <c r="E170" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F170">
-        <v>2013</v>
-      </c>
       <c r="G170" s="7">
-        <v>37.075420000000001</v>
+        <v>40.808191000000001</v>
       </c>
       <c r="H170" s="7">
-        <v>15.28664</v>
+        <v>21.128466</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="15.75" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D171" s="8"/>
       <c r="E171" s="8" t="s">
@@ -6618,21 +6657,21 @@
         <v>2013</v>
       </c>
       <c r="G171" s="7">
-        <v>37.310650000000003</v>
+        <v>40.354810000000001</v>
       </c>
       <c r="H171" s="7">
-        <v>13.576610000000001</v>
+        <v>18.172440000000002</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="15.75" customHeight="1">
       <c r="A172" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D172" s="8"/>
       <c r="E172" s="8" t="s">
@@ -6642,21 +6681,21 @@
         <v>2013</v>
       </c>
       <c r="G172" s="7">
-        <v>37.853580000000001</v>
+        <v>37.075420000000001</v>
       </c>
       <c r="H172" s="7">
-        <v>15.28851</v>
+        <v>15.28664</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="15.75" customHeight="1">
       <c r="A173" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D173" s="8"/>
       <c r="E173" s="8" t="s">
@@ -6666,244 +6705,312 @@
         <v>2013</v>
       </c>
       <c r="G173" s="7">
-        <v>37.750267999999998</v>
+        <v>37.310650000000003</v>
       </c>
       <c r="H173" s="7">
-        <v>14.990641999999999</v>
-      </c>
-      <c r="J173" t="s">
-        <v>248</v>
+        <v>13.576610000000001</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="15.75" customHeight="1">
       <c r="A174" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D174" s="8"/>
       <c r="E174" s="8" t="s">
-        <v>13</v>
+        <v>78</v>
+      </c>
+      <c r="F174">
+        <v>2013</v>
       </c>
       <c r="G174" s="7">
-        <v>43.779249999999998</v>
+        <v>37.853580000000001</v>
       </c>
       <c r="H174" s="7">
-        <v>11.246259999999999</v>
+        <v>15.28851</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="15.75" customHeight="1">
       <c r="A175" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D175" s="8"/>
       <c r="E175" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F175">
+        <v>2013</v>
+      </c>
+      <c r="G175" s="7">
+        <v>37.750267999999998</v>
+      </c>
+      <c r="H175" s="7">
+        <v>14.990641999999999</v>
+      </c>
+      <c r="J175" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A176" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G175" s="7">
-        <v>40.745739999999998</v>
-      </c>
-      <c r="H175" s="7">
-        <v>14.496980000000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A176" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E176" t="s">
-        <v>231</v>
-      </c>
-      <c r="G176" s="5">
-        <v>42.672719999999998</v>
-      </c>
-      <c r="H176" s="5">
-        <v>21.166879999999999</v>
-      </c>
-      <c r="J176" t="s">
-        <v>249</v>
+      <c r="G176" s="7">
+        <v>43.779249999999998</v>
+      </c>
+      <c r="H176" s="7">
+        <v>11.246259999999999</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="15.75" customHeight="1">
       <c r="A177" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" s="7">
+        <v>40.745739999999998</v>
+      </c>
+      <c r="H177" s="7">
+        <v>14.496980000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A178" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E178" t="s">
+        <v>230</v>
+      </c>
+      <c r="G178" s="5">
+        <v>42.672719999999998</v>
+      </c>
+      <c r="H178" s="5">
+        <v>21.166879999999999</v>
+      </c>
+      <c r="J178" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A179" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B179" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C177" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F177" s="8">
+      <c r="C179" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F179" s="8">
         <v>2019</v>
       </c>
-      <c r="G177" s="7">
+      <c r="G179" s="7">
         <v>42.698345000000003</v>
       </c>
-      <c r="H177" s="7">
+      <c r="H179" s="7">
         <v>20.1663</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A178" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F178" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G178" s="5">
-        <v>56.415349999999997</v>
-      </c>
-      <c r="H178" s="5">
-        <v>-5.4718400000000003</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A179" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F179" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G179" s="5">
-        <v>56.819800000000001</v>
-      </c>
-      <c r="H179" s="5">
-        <v>-5.1052</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="E180" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F180" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G180" s="5">
-        <v>46.785780000000003</v>
+        <v>56.415349999999997</v>
       </c>
       <c r="H180" s="5">
-        <v>8.1598400000000009</v>
+        <v>-5.4718400000000003</v>
+      </c>
+      <c r="I180" s="9">
+        <v>43531</v>
       </c>
       <c r="J180" t="s">
-        <v>210</v>
+        <v>443</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="E181" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F181" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G181" s="5">
-        <v>46.751179999999998</v>
+        <v>56.819800000000001</v>
       </c>
       <c r="H181" s="5">
-        <v>7.6216600000000003</v>
+        <v>-5.1052</v>
+      </c>
+      <c r="I181" s="9">
+        <v>47183</v>
       </c>
       <c r="J181" t="s">
-        <v>209</v>
+        <v>444</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
+      <c r="E182" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F182" s="1">
         <v>2021</v>
       </c>
       <c r="G182" s="5">
-        <v>47.225569999999998</v>
+        <v>46.785780000000003</v>
       </c>
       <c r="H182" s="5">
-        <v>8.8222799999999992</v>
+        <v>8.1598400000000009</v>
+      </c>
+      <c r="J182" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
+      <c r="E183" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F183" s="1">
         <v>2021</v>
       </c>
       <c r="G183" s="5">
-        <v>47.697319999999998</v>
+        <v>46.751179999999998</v>
       </c>
       <c r="H183" s="5">
-        <v>8.6349300000000007</v>
+        <v>7.6216600000000003</v>
       </c>
       <c r="J183" t="s">
         <v>208</v>
       </c>
     </row>
+    <row r="184" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="F184" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G184" s="5">
+        <v>47.225569999999998</v>
+      </c>
+      <c r="H184" s="5">
+        <v>8.8222799999999992</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="F185" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G185" s="5">
+        <v>47.697319999999998</v>
+      </c>
+      <c r="H185" s="5">
+        <v>8.6349300000000007</v>
+      </c>
+      <c r="J185" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J183">
-    <sortCondition ref="I1:I183"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J185">
+    <sortCondition ref="I1:I185"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Places_V2.xlsx
+++ b/Places_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC16C27D-7E3F-45C9-97C8-0A122DF75602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB6F474-E3D2-43D1-B3BD-33BD1DFE841D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="457">
   <si>
     <t>Place</t>
   </si>
@@ -1370,6 +1370,30 @@
   </si>
   <si>
     <t xml:space="preserve">20th to 28th of April 2024. First time crossing the Atlandic. First time business class. </t>
+  </si>
+  <si>
+    <t>David, Uli, HaJo, Francesca, Muriel, Youyou, Patrick, Paloma, Lisa, Teressa</t>
+  </si>
+  <si>
+    <t>La Neuveville</t>
+  </si>
+  <si>
+    <t>Last_st_Johanns_day</t>
+  </si>
+  <si>
+    <t>Sofia, Nina, Philipp, Ruth, Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last day at the St Johanns flat. Quick, easy hike at the morning at goodbay appartment party at the evening. </t>
+  </si>
+  <si>
+    <t>Le Noirmont</t>
+  </si>
+  <si>
+    <t>Nina_Jura</t>
+  </si>
+  <si>
+    <t>Day trip with Nina in the Jura mountains. It was kinda weird that we only went to this place because the weather in the rest of the country was supposed to be horrible. Turned out to be insanely good hike with great views and super satisfying trail. We took super cute photos together in amazing spots. I still remember her laughing when I accidentally stepped in the middle of the mad pond. In the way there we scheduled out trip to Creta for later on that summer. In our way back we posted our photos in Instagram. Note worth remembering: Nina did cut a strawberry from the path and the lost it. It was sad... But on the bright side, she learned how to hear birds when in a forest and how to say saint in Greek.</t>
   </si>
 </sst>
 </file>
@@ -1717,10 +1741,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J185"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J194" sqref="J194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1779,7 +1803,9 @@
       <c r="D2" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="8" t="s">
+        <v>449</v>
+      </c>
       <c r="F2" s="1">
         <v>2024</v>
       </c>
@@ -7006,6 +7032,70 @@
       </c>
       <c r="J185" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A186" t="s">
+        <v>450</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="F186" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G186" s="11">
+        <v>47.065882000000002</v>
+      </c>
+      <c r="H186">
+        <v>7.0943709999999998</v>
+      </c>
+      <c r="I186" s="9">
+        <v>45437</v>
+      </c>
+      <c r="J186" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A187" t="s">
+        <v>454</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
+        <v>359</v>
+      </c>
+      <c r="D187" t="s">
+        <v>455</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F187" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G187" s="11">
+        <v>47.235700000000001</v>
+      </c>
+      <c r="H187" s="7">
+        <v>6.9455999999999998</v>
+      </c>
+      <c r="I187" s="9">
+        <v>45458</v>
+      </c>
+      <c r="J187" s="11" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/Places_V2.xlsx
+++ b/Places_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB6F474-E3D2-43D1-B3BD-33BD1DFE841D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8648CE0-928B-4104-9A8B-D92351B99F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="492">
   <si>
     <t>Place</t>
   </si>
@@ -1246,9 +1246,6 @@
     <t xml:space="preserve">The best lunch with the best waiter Marco. </t>
   </si>
   <si>
-    <t>Brescia</t>
-  </si>
-  <si>
     <t>With Maria I was there on the 20th of March 2022.</t>
   </si>
   <si>
@@ -1394,6 +1391,114 @@
   </si>
   <si>
     <t>Day trip with Nina in the Jura mountains. It was kinda weird that we only went to this place because the weather in the rest of the country was supposed to be horrible. Turned out to be insanely good hike with great views and super satisfying trail. We took super cute photos together in amazing spots. I still remember her laughing when I accidentally stepped in the middle of the mad pond. In the way there we scheduled out trip to Creta for later on that summer. In our way back we posted our photos in Instagram. Note worth remembering: Nina did cut a strawberry from the path and the lost it. It was sad... But on the bright side, she learned how to hear birds when in a forest and how to say saint in Greek.</t>
+  </si>
+  <si>
+    <t>Almost_dead_Pilatus</t>
+  </si>
+  <si>
+    <t>Pilatus</t>
+  </si>
+  <si>
+    <t>Philipp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day hike with Philipp in Pilatus. General discription of the day. Awsome. Probably the most enjoyable hike I ever had. Now the details. The day begins as hectic as it can begin. First of all its rain. A LOT. Secondly, me, like a classical greek, losing the bus to the SBB. I have to catch the next tram to SBB and run lke a dog from the tram station to platform 8 in less than 2 mins. Somehow, I made it. One hour later when I had finally catch my breath, we have to repeat the running to catch the bus connection. Philipp, being Philipp, almost dies from jumping extremely quickly and unexpectidly in front of a Car. No worries, it was a relatively average car. Just a SUV. The hike is tough. 1700 meters vertical elevation. But the fun really begun with Philipp saying "There must be a shortcut road here. Technically if we just go up we will end up in our initial root". From one percpective, he is correct. From another percective, he should have knonw that I ussually blindly follow the people I trust. Anyway, hald an hour later there is no way back and we all know that the two of us are the most accident prone combo in this earth. We still do not know how we managed to end up in our destination 3 hours earlier than planned and with all the parts of our body still withing proximity from our heads. Although it was the most difficult hike I have done so far and by far the most horrible foggy view one could get, I would repeat it every time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intern Reunion </t>
+  </si>
+  <si>
+    <t>Sofia, Sabri, Gemma, Marina, Joelle, Nina, Katie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion from the intern team. </t>
+  </si>
+  <si>
+    <t>Ruti b Riggisberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big_sound </t>
+  </si>
+  <si>
+    <t>Sofia, Joelle, Fer, Philipp</t>
+  </si>
+  <si>
+    <t>Bariano</t>
+  </si>
+  <si>
+    <t>Sofia, Nina, Philipp, Sabri</t>
+  </si>
+  <si>
+    <t>Diaporos</t>
+  </si>
+  <si>
+    <t>ISCB2024</t>
+  </si>
+  <si>
+    <t>David, Lea</t>
+  </si>
+  <si>
+    <t>Desios, Vou</t>
+  </si>
+  <si>
+    <t>Two day trip to armenistis after the ISCB.</t>
+  </si>
+  <si>
+    <t>Day trip with a boat during the ISCB conference .</t>
+  </si>
+  <si>
+    <t>Francois</t>
+  </si>
+  <si>
+    <t>Evian_FM</t>
+  </si>
+  <si>
+    <t>Evian</t>
+  </si>
+  <si>
+    <t>Day trip to Francois home in Evian.</t>
+  </si>
+  <si>
+    <t>Ninas_birthday</t>
+  </si>
+  <si>
+    <t>Nina, Sofia, Valentina, Sebastian</t>
+  </si>
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Lago di Sfii</t>
+  </si>
+  <si>
+    <t>Hike before Ninas birthday.</t>
+  </si>
+  <si>
+    <t>Lunch place on our way back.</t>
+  </si>
+  <si>
+    <t>Sisikon</t>
+  </si>
+  <si>
+    <t>Ninas birthday airb&amp;b.</t>
+  </si>
+  <si>
+    <t>Vou_2024</t>
+  </si>
+  <si>
+    <t>Vou, Victor</t>
+  </si>
+  <si>
+    <t>Patrichini</t>
+  </si>
+  <si>
+    <t>Ag. Dimitrios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peristera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day with the boat that we fucked up the ancor and we almost lost the boat. </t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1522,6 +1627,9 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1741,10 +1849,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J194" sqref="J194"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J200" sqref="J200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1792,19 +1900,19 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F2" s="1">
         <v>2024</v>
@@ -1819,7 +1927,7 @@
         <v>45405</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
@@ -1849,7 +1957,7 @@
         <v>42933</v>
       </c>
       <c r="J3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
@@ -1923,7 +2031,7 @@
         <v>357</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -1955,7 +2063,7 @@
         <v>357</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>13</v>
@@ -1987,7 +2095,7 @@
         <v>357</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -2095,7 +2203,7 @@
         <v>43551</v>
       </c>
       <c r="J11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
@@ -2125,7 +2233,7 @@
         <v>43552</v>
       </c>
       <c r="J12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -2169,7 +2277,7 @@
         <v>357</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>22</v>
@@ -2201,7 +2309,7 @@
         <v>357</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>22</v>
@@ -2350,7 +2458,7 @@
         <v>357</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>382</v>
@@ -2379,7 +2487,7 @@
         <v>357</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>382</v>
@@ -2397,7 +2505,7 @@
         <v>45109</v>
       </c>
       <c r="J21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
@@ -2411,7 +2519,7 @@
         <v>357</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>382</v>
@@ -2429,7 +2537,7 @@
         <v>45108</v>
       </c>
       <c r="J22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
@@ -2519,7 +2627,7 @@
         <v>44290</v>
       </c>
       <c r="J25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -2549,7 +2657,7 @@
         <v>44640</v>
       </c>
       <c r="J26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
@@ -2624,7 +2732,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F29" s="1">
         <v>2022</v>
@@ -2639,7 +2747,7 @@
         <v>44758</v>
       </c>
       <c r="J29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
@@ -2669,7 +2777,7 @@
         <v>44363</v>
       </c>
       <c r="J30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
@@ -2713,7 +2821,7 @@
         <v>357</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>41</v>
@@ -2745,7 +2853,7 @@
         <v>357</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>35</v>
@@ -2777,7 +2885,7 @@
         <v>357</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>37</v>
@@ -2809,7 +2917,7 @@
         <v>357</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>41</v>
@@ -2841,7 +2949,7 @@
         <v>357</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>37</v>
@@ -2859,7 +2967,7 @@
         <v>44383</v>
       </c>
       <c r="J36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
@@ -2873,7 +2981,7 @@
         <v>357</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>41</v>
@@ -2905,7 +3013,7 @@
         <v>357</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>41</v>
@@ -3057,10 +3165,10 @@
         <v>357</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F43" s="1">
         <v>2021</v>
@@ -3107,7 +3215,7 @@
         <v>45227</v>
       </c>
       <c r="J44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.5">
@@ -3121,7 +3229,7 @@
         <v>357</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>49</v>
@@ -3153,7 +3261,7 @@
         <v>357</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>37</v>
@@ -3185,7 +3293,7 @@
         <v>357</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>37</v>
@@ -3247,7 +3355,7 @@
         <v>357</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E49" t="s">
         <v>116</v>
@@ -3464,7 +3572,7 @@
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F56">
         <v>2023</v>
@@ -3479,7 +3587,7 @@
         <v>45115</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="12.5">
@@ -3494,7 +3602,7 @@
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F57">
         <v>2022</v>
@@ -3509,7 +3617,7 @@
         <v>44730</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="12.5">
@@ -4359,7 +4467,7 @@
         <v>45012</v>
       </c>
       <c r="J84" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
@@ -4389,7 +4497,7 @@
         <v>45042</v>
       </c>
       <c r="J85" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
@@ -4673,7 +4781,7 @@
         <v>45108</v>
       </c>
       <c r="J94" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
@@ -4863,7 +4971,7 @@
         <v>45154</v>
       </c>
       <c r="J100" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1">
@@ -4895,7 +5003,7 @@
         <v>45155</v>
       </c>
       <c r="J101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1">
@@ -5705,7 +5813,7 @@
         <v>45378</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1">
@@ -5769,7 +5877,7 @@
         <v>45380</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.75" customHeight="1">
@@ -5801,7 +5909,7 @@
         <v>45380</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15.75" customHeight="1">
@@ -5865,7 +5973,7 @@
         <v>45380</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="15.75" customHeight="1">
@@ -5897,7 +6005,7 @@
         <v>45380</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15.75" customHeight="1">
@@ -6062,7 +6170,7 @@
     </row>
     <row r="139" spans="1:10" ht="15.75" customHeight="1">
       <c r="A139" s="8" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>68</v>
@@ -6074,7 +6182,7 @@
         <v>386</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>385</v>
+        <v>467</v>
       </c>
       <c r="F139" s="8">
         <v>2024</v>
@@ -6089,7 +6197,7 @@
         <v>45383</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.75" customHeight="1">
@@ -6890,7 +6998,7 @@
         <v>357</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>37</v>
@@ -6908,7 +7016,7 @@
         <v>43531</v>
       </c>
       <c r="J180" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="15.75" customHeight="1">
@@ -6922,7 +7030,7 @@
         <v>357</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>37</v>
@@ -6940,7 +7048,7 @@
         <v>47183</v>
       </c>
       <c r="J181" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="15.75" customHeight="1">
@@ -7036,7 +7144,7 @@
     </row>
     <row r="186" spans="1:10" ht="15.75" customHeight="1">
       <c r="A186" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>7</v>
@@ -7045,10 +7153,10 @@
         <v>359</v>
       </c>
       <c r="D186" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E186" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="E186" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="F186" s="8">
         <v>2024</v>
@@ -7063,12 +7171,12 @@
         <v>45437</v>
       </c>
       <c r="J186" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="15.75" customHeight="1">
       <c r="A187" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>7</v>
@@ -7077,7 +7185,7 @@
         <v>359</v>
       </c>
       <c r="D187" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>299</v>
@@ -7095,7 +7203,411 @@
         <v>45458</v>
       </c>
       <c r="J187" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" t="s">
+        <v>359</v>
+      </c>
+      <c r="D188" t="s">
         <v>456</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F188" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G188" s="11">
+        <v>47.007810999999997</v>
+      </c>
+      <c r="H188">
+        <v>8.2724100000000007</v>
+      </c>
+      <c r="I188" s="9">
+        <v>45466</v>
+      </c>
+      <c r="J188" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A189" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D189" t="s">
+        <v>460</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="F189" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G189" s="11">
+        <v>46.704721999999997</v>
+      </c>
+      <c r="H189" s="7">
+        <v>7.4584169999999999</v>
+      </c>
+      <c r="I189" s="9">
+        <v>45479</v>
+      </c>
+      <c r="J189" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A190" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D190" t="s">
+        <v>464</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F190" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G190">
+        <v>39.984146000000003</v>
+      </c>
+      <c r="H190" s="5">
+        <v>2.205E-2</v>
+      </c>
+      <c r="I190" s="9">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A191" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D191" t="s">
+        <v>464</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F191" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G191">
+        <v>39.475171000000003</v>
+      </c>
+      <c r="H191" s="5">
+        <v>-0.37599399999999999</v>
+      </c>
+      <c r="I191" s="9">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A192" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="F192" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G192" s="19">
+        <v>40.222149000000002</v>
+      </c>
+      <c r="H192">
+        <v>23.782398000000001</v>
+      </c>
+      <c r="I192" s="9">
+        <v>45496</v>
+      </c>
+      <c r="J192" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A193" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F193" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G193" s="11">
+        <v>40.153115999999997</v>
+      </c>
+      <c r="H193" s="11">
+        <v>23.916045</v>
+      </c>
+      <c r="I193" s="9">
+        <v>45499</v>
+      </c>
+      <c r="J193" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A194" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C194" t="s">
+        <v>359</v>
+      </c>
+      <c r="D194" t="s">
+        <v>475</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="F194" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G194">
+        <v>46.391500000000001</v>
+      </c>
+      <c r="H194">
+        <v>6.5914999999999999</v>
+      </c>
+      <c r="I194" s="9">
+        <v>45514</v>
+      </c>
+      <c r="J194" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A195" t="s">
+        <v>480</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D195" t="s">
+        <v>478</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F195" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G195" s="11">
+        <v>46.289299999999997</v>
+      </c>
+      <c r="H195">
+        <v>8.5154999999999994</v>
+      </c>
+      <c r="I195" s="9">
+        <v>45520</v>
+      </c>
+      <c r="J195" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A196" t="s">
+        <v>481</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D196" t="s">
+        <v>478</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F196" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G196" s="11">
+        <v>46.265300000000003</v>
+      </c>
+      <c r="H196">
+        <v>8.4949999999999992</v>
+      </c>
+      <c r="I196" s="9">
+        <v>45521</v>
+      </c>
+      <c r="J196" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A197" t="s">
+        <v>484</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D197" t="s">
+        <v>478</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F197" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G197" s="11">
+        <v>46.932499999999997</v>
+      </c>
+      <c r="H197">
+        <v>8.6135999999999999</v>
+      </c>
+      <c r="I197" s="9">
+        <v>45522</v>
+      </c>
+      <c r="J197" s="11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A198" t="s">
+        <v>488</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D198" t="s">
+        <v>486</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="F198" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G198" s="11">
+        <v>39.148513000000001</v>
+      </c>
+      <c r="H198">
+        <v>23.870239999999999</v>
+      </c>
+      <c r="I198" s="9">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A199" t="s">
+        <v>489</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="F199" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G199" s="11">
+        <v>39.219318000000001</v>
+      </c>
+      <c r="H199">
+        <v>23.944915999999999</v>
+      </c>
+      <c r="I199" s="9">
+        <v>45528</v>
+      </c>
+      <c r="J199" s="11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A200" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="F200" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G200" s="11">
+        <v>39.205263000000002</v>
+      </c>
+      <c r="H200">
+        <v>23.971489999999999</v>
+      </c>
+      <c r="I200" s="9">
+        <v>45529</v>
       </c>
     </row>
   </sheetData>

--- a/Places_V2.xlsx
+++ b/Places_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8648CE0-928B-4104-9A8B-D92351B99F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C64F25-C5CD-41D1-B3DF-C4E9ED96B3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="527">
   <si>
     <t>Place</t>
   </si>
@@ -1499,6 +1499,111 @@
   </si>
   <si>
     <t xml:space="preserve">Day with the boat that we fucked up the ancor and we almost lost the boat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alonnisos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First day in the island realising that there are no beach bars and no young people. Aparently because the island is prodected by nature because of the seal population that lives around the area. </t>
+  </si>
+  <si>
+    <t>Greece_state_of_mind</t>
+  </si>
+  <si>
+    <t>Nina, Tamas</t>
+  </si>
+  <si>
+    <t>Nina, Tamas, Kimon</t>
+  </si>
+  <si>
+    <t>Herakleion</t>
+  </si>
+  <si>
+    <t>Chania</t>
+  </si>
+  <si>
+    <t>Balos</t>
+  </si>
+  <si>
+    <t>Samaria</t>
+  </si>
+  <si>
+    <t>Kalami beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The one where George asks Nina about her sweat. The first time that we had to go up a steep road. </t>
+  </si>
+  <si>
+    <t>Agia Roumeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grambousa </t>
+  </si>
+  <si>
+    <t>"Lady, Can you drive?"</t>
+  </si>
+  <si>
+    <t>Nina, Tamas, Kimon, Maria, Sofia, Noe</t>
+  </si>
+  <si>
+    <t>Naousa</t>
+  </si>
+  <si>
+    <t>Kalandos</t>
+  </si>
+  <si>
+    <t>Rhina Cave</t>
+  </si>
+  <si>
+    <t>Kato Koufonisi</t>
+  </si>
+  <si>
+    <t>Ano Koufonisi</t>
+  </si>
+  <si>
+    <t>Didimes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ornos </t>
+  </si>
+  <si>
+    <t>Kapari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last swim of the holidays. When we saw a Greek and a Brazilian Guy doing this run and surf with the wave thingy on that beach. We have rented a quad and Nina was privetly giving me a tour around the island. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last light lunch by the beach. That day we had lunch by the beach in Mykonos with the sun and the view of the private sailboats and the same evening we were sleeping in rainy Basel. All that after an eventful fly back with a delayed layover in Budapest. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Islland stop of our trip. We had a cocktail in the nice cute beach the last night. Next day we walked from the top church down the city with amazing views. We all agreed that this was the most livable city of all we have seen so far. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the long 10 hour trip from Ano Koufonisi to Syros we stoped for a quick swim at this beach. Alex's favorite. </t>
+  </si>
+  <si>
+    <t>One of my favorite stops. The one were Sofia took my phone in the water to take a video of Nina with the googles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Cave where Alex claimed that there is drinking water inside. Also where I bumbed into a rock and hit my head. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The drama when Alex was orderin food to us. </t>
+  </si>
+  <si>
+    <t>Kimon: Hey George, can you get me some food when you return with the taxi ?</t>
+  </si>
+  <si>
+    <t>Tamas: I don't know how to describe it but the "hilarious" story noelia and sofia told us and constantly changing the story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where do the eyeballs go when we go to sleep? </t>
+  </si>
+  <si>
+    <t>The most horrible marina of Naxos. However, that day the owner of the Marina, who also had one of the two taverns of the bay, took all 7 of us to his trunk to take us to his tavern. Sofia, who was unfortunately the first to enter the trunk, realized the half still bloody skull of a pig's head. After she informed the guy, he proundly took it with his bear hands, threw it away and braged that he had just slaughered it that day and that we can eat it already. Sofia: How can I choose one favorite memory of this trip? It's like choosing only 10 pictures to post on Insta. Luckily Insta did a release and now you can upload up to 20!!! Back to the topic, I'll await your update, so I can add 20 great memories from our trips. If I do have to choose a special one for myself, it would be that night in this "magical" marina when I was having a breakdown and (very tired of it) I literally said, "I don't know what to do with so much anger" (something you wouldn't expect to hear in a vacation that took so much effort and excitement to organize). Not a lot, or any, of my friends, would've known what to do with me there, but you proved once again to have a master's in Sofia. That walk, being able to open up and express myself, and finally seeing a SUPER shooting star felt like doing a reboot of the trip and my mindset. Thank you because it made ALL the difference to my experience. </t>
   </si>
 </sst>
 </file>
@@ -1849,10 +1954,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J200"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J200" sqref="J200"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7058,7 +7163,9 @@
       <c r="B182" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C182" s="1"/>
+      <c r="C182" t="s">
+        <v>359</v>
+      </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
         <v>30</v>
@@ -7083,7 +7190,9 @@
       <c r="B183" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C183" s="1"/>
+      <c r="C183" t="s">
+        <v>359</v>
+      </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
         <v>30</v>
@@ -7108,7 +7217,9 @@
       <c r="B184" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C184" s="1"/>
+      <c r="C184" t="s">
+        <v>359</v>
+      </c>
       <c r="D184" s="1"/>
       <c r="F184" s="1">
         <v>2021</v>
@@ -7127,7 +7238,9 @@
       <c r="B185" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C185" s="1"/>
+      <c r="C185" t="s">
+        <v>359</v>
+      </c>
       <c r="D185" s="1"/>
       <c r="F185" s="1">
         <v>2021</v>
@@ -7578,7 +7691,7 @@
         <v>45528</v>
       </c>
       <c r="J199" s="11" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1">
@@ -7608,6 +7721,628 @@
       </c>
       <c r="I200" s="9">
         <v>45529</v>
+      </c>
+      <c r="J200" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A201" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="F201" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G201" s="11">
+        <v>39.149439999999998</v>
+      </c>
+      <c r="H201">
+        <v>23.843779999999999</v>
+      </c>
+      <c r="I201" s="9">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A202" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F202" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G202" s="11">
+        <v>35.340027999999997</v>
+      </c>
+      <c r="H202">
+        <v>25.132135000000002</v>
+      </c>
+      <c r="I202" s="9">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A203" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F203" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G203" s="11">
+        <v>35.515472000000003</v>
+      </c>
+      <c r="H203">
+        <v>24.018719999999998</v>
+      </c>
+      <c r="I203" s="9">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A204" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F204" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G204" s="11">
+        <v>35.580041000000001</v>
+      </c>
+      <c r="H204">
+        <v>23.589213999999998</v>
+      </c>
+      <c r="I204" s="9">
+        <v>45536</v>
+      </c>
+      <c r="J204" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A205" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F205" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G205" s="11">
+        <v>35.305880999999999</v>
+      </c>
+      <c r="H205">
+        <v>23.916789999999999</v>
+      </c>
+      <c r="I205" s="9">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A206" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F206" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G206" s="11">
+        <v>35.469534000000003</v>
+      </c>
+      <c r="H206">
+        <v>24.141268</v>
+      </c>
+      <c r="I206" s="9">
+        <v>45535</v>
+      </c>
+      <c r="J206" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A207" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F207" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G207" s="11">
+        <v>35.229173000000003</v>
+      </c>
+      <c r="H207">
+        <v>23.960138000000001</v>
+      </c>
+      <c r="I207" s="9">
+        <v>45537</v>
+      </c>
+      <c r="J207" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A208" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F208" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G208" s="11">
+        <v>35.513418000000001</v>
+      </c>
+      <c r="H208">
+        <v>23.608065</v>
+      </c>
+      <c r="I208" s="9">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A209" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F209" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G209" s="11">
+        <v>37.464424000000001</v>
+      </c>
+      <c r="H209">
+        <v>25.327356000000002</v>
+      </c>
+      <c r="I209" s="9">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A210" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F210" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G210">
+        <v>37.146124</v>
+      </c>
+      <c r="H210">
+        <v>25.225349999999999</v>
+      </c>
+      <c r="I210" s="9">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A211" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F211" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G211" s="11">
+        <v>37.123545</v>
+      </c>
+      <c r="H211">
+        <v>25.237947999999999</v>
+      </c>
+      <c r="I211" s="9">
+        <v>45539</v>
+      </c>
+      <c r="J211" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A212" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F212" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G212" s="11">
+        <v>37.103462999999998</v>
+      </c>
+      <c r="H212">
+        <v>25.376033</v>
+      </c>
+      <c r="I212" s="9">
+        <v>45540</v>
+      </c>
+      <c r="J212" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A213" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F213" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G213" s="11">
+        <v>36.936444999999999</v>
+      </c>
+      <c r="H213">
+        <v>25.468686999999999</v>
+      </c>
+      <c r="I213" s="9">
+        <v>45540</v>
+      </c>
+      <c r="J213" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A214" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F214" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G214" s="11">
+        <v>36.947384999999997</v>
+      </c>
+      <c r="H214">
+        <v>25.490722999999999</v>
+      </c>
+      <c r="I214" s="9">
+        <v>45541</v>
+      </c>
+      <c r="J214" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A215" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D215" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F215" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G215" s="11">
+        <v>36.900215000000003</v>
+      </c>
+      <c r="H215">
+        <v>25.567316999999999</v>
+      </c>
+      <c r="I215" s="9">
+        <v>45541</v>
+      </c>
+      <c r="J215" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A216" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F216" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G216" s="11">
+        <v>36.945439999999998</v>
+      </c>
+      <c r="H216">
+        <v>25.622852000000002</v>
+      </c>
+      <c r="I216" s="9">
+        <v>45541</v>
+      </c>
+      <c r="J216" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A217" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D217" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F217" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G217" s="11">
+        <v>37.426236000000003</v>
+      </c>
+      <c r="H217">
+        <v>24.979096999999999</v>
+      </c>
+      <c r="I217" s="9">
+        <v>45542</v>
+      </c>
+      <c r="J217" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A218" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F218" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G218" s="11">
+        <v>37.444156999999997</v>
+      </c>
+      <c r="H218">
+        <v>24.943947000000001</v>
+      </c>
+      <c r="I218" s="9">
+        <v>45542</v>
+      </c>
+      <c r="J218" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A219" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F219" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G219" s="11">
+        <v>37.422544000000002</v>
+      </c>
+      <c r="H219">
+        <v>25.323034</v>
+      </c>
+      <c r="I219" s="9">
+        <v>45544</v>
+      </c>
+      <c r="J219" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A220" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F220" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G220" s="11">
+        <v>37.425511</v>
+      </c>
+      <c r="H220">
+        <v>25.304774999999999</v>
+      </c>
+      <c r="I220" s="9">
+        <v>45544</v>
+      </c>
+      <c r="J220" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/Places_V2.xlsx
+++ b/Places_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C64F25-C5CD-41D1-B3DF-C4E9ED96B3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE14D75-7AC5-4D44-A8CF-900087C9A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="535">
   <si>
     <t>Place</t>
   </si>
@@ -1480,9 +1480,6 @@
     <t>Sisikon</t>
   </si>
   <si>
-    <t>Ninas birthday airb&amp;b.</t>
-  </si>
-  <si>
     <t>Vou_2024</t>
   </si>
   <si>
@@ -1531,18 +1528,12 @@
     <t>Kalami beach</t>
   </si>
   <si>
-    <t xml:space="preserve">The one where George asks Nina about her sweat. The first time that we had to go up a steep road. </t>
-  </si>
-  <si>
     <t>Agia Roumeli</t>
   </si>
   <si>
     <t xml:space="preserve">Grambousa </t>
   </si>
   <si>
-    <t>"Lady, Can you drive?"</t>
-  </si>
-  <si>
     <t>Nina, Tamas, Kimon, Maria, Sofia, Noe</t>
   </si>
   <si>
@@ -1600,10 +1591,43 @@
     <t>Tamas: I don't know how to describe it but the "hilarious" story noelia and sofia told us and constantly changing the story</t>
   </si>
   <si>
-    <t xml:space="preserve">Where do the eyeballs go when we go to sleep? </t>
-  </si>
-  <si>
     <t>The most horrible marina of Naxos. However, that day the owner of the Marina, who also had one of the two taverns of the bay, took all 7 of us to his trunk to take us to his tavern. Sofia, who was unfortunately the first to enter the trunk, realized the half still bloody skull of a pig's head. After she informed the guy, he proundly took it with his bear hands, threw it away and braged that he had just slaughered it that day and that we can eat it already. Sofia: How can I choose one favorite memory of this trip? It's like choosing only 10 pictures to post on Insta. Luckily Insta did a release and now you can upload up to 20!!! Back to the topic, I'll await your update, so I can add 20 great memories from our trips. If I do have to choose a special one for myself, it would be that night in this "magical" marina when I was having a breakdown and (very tired of it) I literally said, "I don't know what to do with so much anger" (something you wouldn't expect to hear in a vacation that took so much effort and excitement to organize). Not a lot, or any, of my friends, would've known what to do with me there, but you proved once again to have a master's in Sofia. That walk, being able to open up and express myself, and finally seeing a SUPER shooting star felt like doing a reboot of the trip and my mindset. Thank you because it made ALL the difference to my experience. </t>
+  </si>
+  <si>
+    <t>Omalos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay In Omalos before the hike. On the way up Nina had to drive around the goats sleeping on the street. That night we had a beer just outside the village the 3 of us. Talking about how it reminded of our own villages. That day Nina also had a cold shower. </t>
+  </si>
+  <si>
+    <t>Papigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we climbed up and stayed to Drakolimni in Papigo with petros </t>
+  </si>
+  <si>
+    <t>Drakolimini_by_night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first day of our trip arriving to Herakleion late at night. The first welcome in Greece was our adventure trying to find the car rental company. Looking like a garage with stolen cars. The Creta people, knowing the ups and downs of the island couldn’t care less about how not cabable their car fleet was. That night we just got the car, found the hotel. Notably the hotel had a 2 page instruction manual on how to get in. Yet, the 3 of us with our combined master degree knowledge needed more than hald an hour to figure out the message. This is when science bends the knee in front of the Greek logic. We managed to have a wonderful dinner where Tamas and Nina were for the first time exposed to the best food Greece can offer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The second day we had to wake up early and leave for Chania. The plan was to stop to a couple of beaches on the way. Unfortunatelly, the weather decided that this would be the one and only day of the year that it would rain. So we ended up going more or less straight to Chania. The trip was somehow difficult because the car was not able to give enough power especially on the steep roads. When arrived in Chania, we first checked in to our room, which was of course wrong because they were expecting only one guest but the lady that had it was super helpful and figured out a solution very quickly. Then we had late light lunch at a tavern in the center of the city where it was the first time we tried sfakia pie. The most amazing pie there exists in the world. Later that day we went to the beach of nea Chania for the first swim of the trip. It was when, as expecetd, a fish targeted Nina and bit her causing a terror reaction from her side. At the night we met Kimon and we had dinner and cocktails at the center. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the third day of the trip the plan was simple. Go to Balos. Well.. Not as simple as it sounds after all. We began early in the morning to Balos. When arrived at the last part of the road we realized how wise our idea to take insurance was. The road was so badly maintained and the car we had so not capable of driving there. After managing to reach at the parking with the first gear we fucked up on turning on the car on flat earth next to the guy taking care of the parking. After four failed attempts and a lot of  "Do not worry, it can happen to anyone" words of affirmation to our beloved driver, we heard the parking guy wispering to his collueges "The lady is problematic. She cant event start the car. You will have a problem wherever you put her". The view was stunnig. We continued our Video where we are hiking on the Swiss Alps and then ending up in Balos beach. We communicated with the goats of the beach and we took so many pictures in the insanefully beautiful waters. On the way back the driving was equally stressfull. A guy how was trying to drive very close to us, as expected was stuck because of the limited space. His spontaneous reaction was to look at Nina and say "Lady, Can you drive?" which ended up being the moto of the trip. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninas birthday airb&amp;b. It was a two day trip to an abandoned village in Ticino with Nina, Sofia and Valentina. Sofias and mine gifts were amazing. We played cards were I won against Sofia in dots. We also played "Nina against humanity" where Nina won against all of us. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After sleeping in Omalos, we had to go down the Samaria Goerge. One of the best hikes I have ever done. It took us approximately 4.5 hours. Because the road is only down, my legs were killing me at the end of the hike. One of the highlights was Ninas epic fall. When it seem like she decided to fall down. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The one where George asks Nina about her sweat. It was the first stop on our trip from Herakleion to Chania. On our way up the beach it was the first time Ninas ability to drive on a steep road had been tested. </t>
+  </si>
+  <si>
+    <t>During our lunch at the village we had an interesting conversation about where do the eyeballs go when we go to sleep.</t>
   </si>
 </sst>
 </file>
@@ -1954,10 +1978,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J209" sqref="J209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7566,7 +7590,7 @@
         <v>45520</v>
       </c>
       <c r="J195" s="11" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="15.75" customHeight="1">
@@ -7635,7 +7659,7 @@
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1">
       <c r="A198" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>79</v>
@@ -7644,10 +7668,10 @@
         <v>357</v>
       </c>
       <c r="D198" t="s">
+        <v>485</v>
+      </c>
+      <c r="E198" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>487</v>
       </c>
       <c r="F198" s="8">
         <v>2024</v>
@@ -7664,7 +7688,7 @@
     </row>
     <row r="199" spans="1:10" ht="15.75" customHeight="1">
       <c r="A199" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>79</v>
@@ -7673,10 +7697,10 @@
         <v>357</v>
       </c>
       <c r="D199" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="E199" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>487</v>
       </c>
       <c r="F199" s="8">
         <v>2024</v>
@@ -7691,12 +7715,12 @@
         <v>45528</v>
       </c>
       <c r="J199" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1">
       <c r="A200" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>79</v>
@@ -7705,10 +7729,10 @@
         <v>357</v>
       </c>
       <c r="D200" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="E200" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>487</v>
       </c>
       <c r="F200" s="8">
         <v>2024</v>
@@ -7723,12 +7747,12 @@
         <v>45529</v>
       </c>
       <c r="J200" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="15.75" customHeight="1">
       <c r="A201" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>79</v>
@@ -7737,10 +7761,10 @@
         <v>357</v>
       </c>
       <c r="D201" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="E201" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>487</v>
       </c>
       <c r="F201" s="8">
         <v>2024</v>
@@ -7757,7 +7781,7 @@
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1">
       <c r="A202" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>79</v>
@@ -7766,10 +7790,10 @@
         <v>357</v>
       </c>
       <c r="D202" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E202" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>495</v>
       </c>
       <c r="F202" s="8">
         <v>2024</v>
@@ -7783,10 +7807,13 @@
       <c r="I202" s="9">
         <v>45534</v>
       </c>
+      <c r="J202" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1">
       <c r="A203" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>79</v>
@@ -7795,10 +7822,10 @@
         <v>357</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F203" s="8">
         <v>2024</v>
@@ -7812,10 +7839,13 @@
       <c r="I203" s="9">
         <v>45535</v>
       </c>
+      <c r="J203" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1">
       <c r="A204" s="11" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>79</v>
@@ -7824,30 +7854,30 @@
         <v>357</v>
       </c>
       <c r="D204" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E204" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>496</v>
       </c>
       <c r="F204" s="8">
         <v>2024</v>
       </c>
       <c r="G204" s="11">
-        <v>35.580041000000001</v>
+        <v>35.344250000000002</v>
       </c>
       <c r="H204">
-        <v>23.589213999999998</v>
+        <v>23.904928000000002</v>
       </c>
       <c r="I204" s="9">
         <v>45536</v>
       </c>
-      <c r="J204" s="11" t="s">
-        <v>505</v>
+      <c r="J204" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1">
       <c r="A205" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>79</v>
@@ -7856,27 +7886,30 @@
         <v>357</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F205" s="8">
         <v>2024</v>
       </c>
       <c r="G205" s="11">
-        <v>35.305880999999999</v>
+        <v>35.580041000000001</v>
       </c>
       <c r="H205">
-        <v>23.916789999999999</v>
+        <v>23.589213999999998</v>
       </c>
       <c r="I205" s="9">
-        <v>45537</v>
+        <v>45536</v>
+      </c>
+      <c r="J205" s="11" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1">
       <c r="A206" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>79</v>
@@ -7885,30 +7918,30 @@
         <v>357</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F206" s="8">
         <v>2024</v>
       </c>
       <c r="G206" s="11">
-        <v>35.469534000000003</v>
+        <v>35.305880999999999</v>
       </c>
       <c r="H206">
-        <v>24.141268</v>
+        <v>23.916789999999999</v>
       </c>
       <c r="I206" s="9">
-        <v>45535</v>
+        <v>45537</v>
       </c>
       <c r="J206" s="11" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="15.75" customHeight="1">
       <c r="A207" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>79</v>
@@ -7917,30 +7950,30 @@
         <v>357</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F207" s="8">
         <v>2024</v>
       </c>
       <c r="G207" s="11">
-        <v>35.229173000000003</v>
+        <v>35.469534000000003</v>
       </c>
       <c r="H207">
-        <v>23.960138000000001</v>
+        <v>24.141268</v>
       </c>
       <c r="I207" s="9">
-        <v>45537</v>
-      </c>
-      <c r="J207" t="s">
-        <v>525</v>
+        <v>45535</v>
+      </c>
+      <c r="J207" s="11" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="15.75" customHeight="1">
       <c r="A208" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>79</v>
@@ -7949,27 +7982,30 @@
         <v>357</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F208" s="8">
         <v>2024</v>
       </c>
       <c r="G208" s="11">
-        <v>35.513418000000001</v>
+        <v>35.229173000000003</v>
       </c>
       <c r="H208">
-        <v>23.608065</v>
+        <v>23.960138000000001</v>
       </c>
       <c r="I208" s="9">
-        <v>45536</v>
+        <v>45537</v>
+      </c>
+      <c r="J208" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="15.75" customHeight="1">
       <c r="A209" s="11" t="s">
-        <v>273</v>
+        <v>502</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>79</v>
@@ -7978,27 +8014,27 @@
         <v>357</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F209" s="8">
         <v>2024</v>
       </c>
       <c r="G209" s="11">
-        <v>37.464424000000001</v>
+        <v>35.513418000000001</v>
       </c>
       <c r="H209">
-        <v>25.327356000000002</v>
+        <v>23.608065</v>
       </c>
       <c r="I209" s="9">
-        <v>45538</v>
+        <v>45536</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="15.75" customHeight="1">
       <c r="A210" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>79</v>
@@ -8007,27 +8043,27 @@
         <v>357</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F210" s="8">
         <v>2024</v>
       </c>
-      <c r="G210">
-        <v>37.146124</v>
+      <c r="G210" s="11">
+        <v>37.464424000000001</v>
       </c>
       <c r="H210">
-        <v>25.225349999999999</v>
+        <v>25.327356000000002</v>
       </c>
       <c r="I210" s="9">
-        <v>45539</v>
+        <v>45538</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="15.75" customHeight="1">
       <c r="A211" s="11" t="s">
-        <v>507</v>
+        <v>279</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>79</v>
@@ -8036,30 +8072,27 @@
         <v>357</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F211" s="8">
         <v>2024</v>
       </c>
-      <c r="G211" s="11">
-        <v>37.123545</v>
+      <c r="G211">
+        <v>37.146124</v>
       </c>
       <c r="H211">
-        <v>25.237947999999999</v>
+        <v>25.225349999999999</v>
       </c>
       <c r="I211" s="9">
         <v>45539</v>
       </c>
-      <c r="J211" t="s">
-        <v>523</v>
-      </c>
     </row>
     <row r="212" spans="1:10" ht="15.75" customHeight="1">
       <c r="A212" s="11" t="s">
-        <v>101</v>
+        <v>504</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>79</v>
@@ -8068,30 +8101,30 @@
         <v>357</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F212" s="8">
         <v>2024</v>
       </c>
       <c r="G212" s="11">
-        <v>37.103462999999998</v>
+        <v>37.123545</v>
       </c>
       <c r="H212">
-        <v>25.376033</v>
+        <v>25.237947999999999</v>
       </c>
       <c r="I212" s="9">
-        <v>45540</v>
+        <v>45539</v>
       </c>
       <c r="J212" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1">
       <c r="A213" s="11" t="s">
-        <v>508</v>
+        <v>101</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>79</v>
@@ -8100,30 +8133,30 @@
         <v>357</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F213" s="8">
         <v>2024</v>
       </c>
       <c r="G213" s="11">
-        <v>36.936444999999999</v>
+        <v>37.103462999999998</v>
       </c>
       <c r="H213">
-        <v>25.468686999999999</v>
+        <v>25.376033</v>
       </c>
       <c r="I213" s="9">
         <v>45540</v>
       </c>
       <c r="J213" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="15.75" customHeight="1">
       <c r="A214" s="11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>79</v>
@@ -8132,30 +8165,30 @@
         <v>357</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F214" s="8">
         <v>2024</v>
       </c>
       <c r="G214" s="11">
-        <v>36.947384999999997</v>
+        <v>36.936444999999999</v>
       </c>
       <c r="H214">
-        <v>25.490722999999999</v>
+        <v>25.468686999999999</v>
       </c>
       <c r="I214" s="9">
-        <v>45541</v>
+        <v>45540</v>
       </c>
       <c r="J214" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="15.75" customHeight="1">
       <c r="A215" s="11" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>79</v>
@@ -8164,30 +8197,30 @@
         <v>357</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F215" s="8">
         <v>2024</v>
       </c>
       <c r="G215" s="11">
-        <v>36.900215000000003</v>
+        <v>36.947384999999997</v>
       </c>
       <c r="H215">
-        <v>25.567316999999999</v>
+        <v>25.490722999999999</v>
       </c>
       <c r="I215" s="9">
         <v>45541</v>
       </c>
       <c r="J215" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="15.75" customHeight="1">
       <c r="A216" s="11" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>79</v>
@@ -8196,30 +8229,30 @@
         <v>357</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F216" s="8">
         <v>2024</v>
       </c>
       <c r="G216" s="11">
-        <v>36.945439999999998</v>
+        <v>36.900215000000003</v>
       </c>
       <c r="H216">
-        <v>25.622852000000002</v>
+        <v>25.567316999999999</v>
       </c>
       <c r="I216" s="9">
         <v>45541</v>
       </c>
       <c r="J216" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="15.75" customHeight="1">
       <c r="A217" s="11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>79</v>
@@ -8228,30 +8261,30 @@
         <v>357</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F217" s="8">
         <v>2024</v>
       </c>
       <c r="G217" s="11">
-        <v>37.426236000000003</v>
+        <v>36.945439999999998</v>
       </c>
       <c r="H217">
-        <v>24.979096999999999</v>
+        <v>25.622852000000002</v>
       </c>
       <c r="I217" s="9">
-        <v>45542</v>
+        <v>45541</v>
       </c>
       <c r="J217" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="15.75" customHeight="1">
       <c r="A218" s="11" t="s">
-        <v>278</v>
+        <v>509</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>79</v>
@@ -8260,30 +8293,30 @@
         <v>357</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F218" s="8">
         <v>2024</v>
       </c>
       <c r="G218" s="11">
-        <v>37.444156999999997</v>
+        <v>37.426236000000003</v>
       </c>
       <c r="H218">
-        <v>24.943947000000001</v>
+        <v>24.979096999999999</v>
       </c>
       <c r="I218" s="9">
         <v>45542</v>
       </c>
       <c r="J218" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="15.75" customHeight="1">
       <c r="A219" s="11" t="s">
-        <v>513</v>
+        <v>278</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>79</v>
@@ -8292,30 +8325,30 @@
         <v>357</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F219" s="8">
         <v>2024</v>
       </c>
       <c r="G219" s="11">
-        <v>37.422544000000002</v>
+        <v>37.444156999999997</v>
       </c>
       <c r="H219">
-        <v>25.323034</v>
+        <v>24.943947000000001</v>
       </c>
       <c r="I219" s="9">
-        <v>45544</v>
+        <v>45542</v>
       </c>
       <c r="J219" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="15.75" customHeight="1">
       <c r="A220" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>79</v>
@@ -8324,25 +8357,89 @@
         <v>357</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F220" s="8">
         <v>2024</v>
       </c>
       <c r="G220" s="11">
-        <v>37.425511</v>
+        <v>37.422544000000002</v>
       </c>
       <c r="H220">
-        <v>25.304774999999999</v>
+        <v>25.323034</v>
       </c>
       <c r="I220" s="9">
         <v>45544</v>
       </c>
       <c r="J220" t="s">
-        <v>516</v>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A221" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="F221" s="8">
+        <v>2024</v>
+      </c>
+      <c r="G221" s="11">
+        <v>37.425511</v>
+      </c>
+      <c r="H221">
+        <v>25.304774999999999</v>
+      </c>
+      <c r="I221" s="9">
+        <v>45544</v>
+      </c>
+      <c r="J221" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A222" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F222" s="8">
+        <v>2018</v>
+      </c>
+      <c r="G222" s="11">
+        <v>39.963292000000003</v>
+      </c>
+      <c r="H222">
+        <v>20.735551000000001</v>
+      </c>
+      <c r="I222" s="9">
+        <v>43285</v>
+      </c>
+      <c r="J222" s="11" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/Places_V2.xlsx
+++ b/Places_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ABDEBE-12DA-41DF-9E79-7DA57264D030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABC2787-A415-4E2B-B4E2-5BD5019BB878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="649">
   <si>
     <t>Place</t>
   </si>
@@ -1825,10 +1825,151 @@
     <t>Montafon</t>
   </si>
   <si>
-    <t>Snow shoe day</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chill Sunday ski. With a long long drive back to Basel. When we found the forgoten passport of Lilia, the cat. When we were super late with Nina to return the Roche car. When the Roche parking door was locked and the charging card was not working properly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drive to Austria in two cars. Sofia Phillip and I in one and Tamas, Marina and Gemma in the other one. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow shoe day. First we picked up Nina and Jule from the train station with Gemma. Then we had to rent the snowshoe and go up to the mountain. It was funny because there was not enough snow. We had to go really up to find it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing ski resort. First orange off pist I ever did, first time skiing good with Nina and Sofia. If I remember one thing from that day is that Nina does not fall when skiing, her skis stop! </t>
+  </si>
+  <si>
+    <t>Delémont</t>
+  </si>
+  <si>
+    <t>David_Lea_hiking</t>
+  </si>
+  <si>
+    <t>David, Lea, Uli, Ofeli, Uli's wife</t>
+  </si>
+  <si>
+    <t>Soulce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day hike with Lea, her friend, David and Uli. Chill. Felt like networking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lea </t>
+  </si>
+  <si>
+    <t>Flims</t>
+  </si>
+  <si>
+    <t>Lea_Laax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorab Gletscher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Siala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ski weekend trip with Lea. We stayed at Flims and we skied two days in Laax ski resort. Although the trip was great, something was bothering me. I was not able to be chill, I was nervous and not capable of letting little thoughts go. Waiting during the morning pissed me off more than what it should have. Then I was in a semi bad mood all day. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top of the mountain. Where the two very nice black slopes begun. Especially the one that takes you to the other side of the mountain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The other top of the mountain. </t>
+  </si>
+  <si>
+    <t>Crap Masegn</t>
+  </si>
+  <si>
+    <t>Plaun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where we had lunch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One the way down. Negens to Flims through path 12 and 18 in 17 minutes last ride on Saturday. </t>
+  </si>
+  <si>
+    <t>andermatt_day_ski</t>
+  </si>
+  <si>
+    <t>Philipp, Lea, Louis, Karim, Robbie, Niko</t>
+  </si>
+  <si>
+    <t>Tujetsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day trip to Andermatt for skiing. Wake up at 5.30am, take the bus to SBB, board on Andermatt express bus that takes you directly at Andermatt ski resort, go up, start skiing. Probably the most ideal ski conditions. 20cm new snow from last night and 100 percent sunny weather. I did a really high jump that day in the ski park wihtout falling. Credits to Philipp of course. </t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live </t>
+  </si>
+  <si>
+    <t>Ski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business trip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irish_cliffs </t>
+  </si>
+  <si>
+    <t>Galway</t>
+  </si>
+  <si>
+    <t>Lahinch</t>
+  </si>
+  <si>
+    <t>Spanish Point</t>
+  </si>
+  <si>
+    <t>Cliffs Of Moher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yet another spontaneous trip to Ireland. Flew there on Thursday after my monthly Bordeaux trip. Chilled Thursday and Friday and drove to the west part on Saturday. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cute city. Last stop before going back to Duvlin. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The thing to remember from that day is that Danai was more excited to show me the short 90 sec video about wind patterns and rain behaviour in west ireland more than going to the goregeous cliffs of Moher. The excitement was almost as much as it was for the epic adventure of buying potatoes at the supermarket. Finally, I ve never seen her so amazed in my life compared to when she buys chipps. </t>
+  </si>
+  <si>
+    <t>Danai, Alan, Mao, Tiago</t>
+  </si>
+  <si>
+    <t>Pizolhütte</t>
+  </si>
+  <si>
+    <t>Piyol_ski</t>
+  </si>
+  <si>
+    <t>Josefine</t>
+  </si>
+  <si>
+    <t>Bad Ragaz</t>
+  </si>
+  <si>
+    <t>Out of the pist experience. Vibe is go fast or go home, worry about stoping later. Epic fall exiting the out of pist path. Exactly the spot where I had to cross the river.</t>
+  </si>
+  <si>
+    <t>Pizol lift</t>
+  </si>
+  <si>
+    <t>Day ski in Pizol. I spent the night at Josefines place in Zurich on Saturday, we had a drink with her roomate in Zurich, and lunch. Quite fun! Then we took the train in the morning for Pizol. I was surprised by Josefines abilities to not hold coffee inside a coffee cup.</t>
   </si>
 </sst>
 </file>
@@ -2186,10 +2327,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J250"/>
+  <dimension ref="A1:K269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J251" sqref="J251"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J267" sqref="J267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2203,7 +2344,7 @@
     <col min="10" max="10" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2234,8 +2375,11 @@
       <c r="J1" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>66</v>
       </c>
@@ -2264,8 +2408,11 @@
       <c r="J2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>523</v>
       </c>
@@ -2296,8 +2443,11 @@
       <c r="J3" s="11" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -2326,8 +2476,11 @@
       <c r="J4" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -2356,8 +2509,11 @@
       <c r="J5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,8 +2544,11 @@
       <c r="J6" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>132</v>
       </c>
@@ -2420,8 +2579,11 @@
       <c r="J7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -2452,8 +2614,11 @@
       <c r="J8" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -2482,8 +2647,11 @@
       <c r="J9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -2514,8 +2682,11 @@
       <c r="J10" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -2544,8 +2715,11 @@
       <c r="J11" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -2574,8 +2748,11 @@
       <c r="J12" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -2604,8 +2781,11 @@
       <c r="J13" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K13" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>104</v>
       </c>
@@ -2634,8 +2814,11 @@
       <c r="J14" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -2666,8 +2849,11 @@
       <c r="J15" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K15" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -2698,8 +2884,11 @@
       <c r="J16" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -2725,8 +2914,11 @@
       <c r="I17" s="9">
         <v>44068</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K17" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>260</v>
       </c>
@@ -2755,8 +2947,11 @@
       <c r="J18" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K18" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -2785,8 +2980,11 @@
       <c r="J19" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K19" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -2815,8 +3013,11 @@
       <c r="J20" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K20" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2845,8 +3046,11 @@
       <c r="J21" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K21" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2875,8 +3079,11 @@
       <c r="J22" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K22" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -2905,8 +3112,11 @@
       <c r="J23" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -2935,8 +3145,11 @@
       <c r="J24" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K24" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -2965,8 +3178,11 @@
       <c r="J25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K25" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -2995,8 +3211,11 @@
       <c r="J26" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K26" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3025,8 +3244,11 @@
       <c r="J27" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K27" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -3057,8 +3279,11 @@
       <c r="J28" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K28" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3089,8 +3314,11 @@
       <c r="J29" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K29" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -3121,8 +3349,11 @@
       <c r="J30" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K30" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -3153,8 +3384,11 @@
       <c r="J31" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -3185,8 +3419,11 @@
       <c r="J32" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -3217,8 +3454,11 @@
       <c r="J33" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K33" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -3249,8 +3489,11 @@
       <c r="J34" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K34" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -3279,8 +3522,11 @@
       <c r="J35" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K35" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -3309,8 +3555,11 @@
       <c r="J36" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K36" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>571</v>
       </c>
@@ -3339,8 +3588,11 @@
       <c r="J37" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K37" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -3369,8 +3621,11 @@
       <c r="J38" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="12.5">
+      <c r="K38" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="12.5">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -3401,8 +3656,11 @@
       <c r="J39" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="12.5">
+      <c r="K39" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="12.5">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -3433,8 +3691,11 @@
       <c r="J40" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="12.5">
+      <c r="K40" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="12.5">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -3465,8 +3726,11 @@
       <c r="J41" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="12.5">
+      <c r="K41" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="12.5">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
@@ -3497,8 +3761,11 @@
       <c r="J42" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="12.5">
+      <c r="K42" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="12.5">
       <c r="A43" s="1" t="s">
         <v>108</v>
       </c>
@@ -3527,8 +3794,11 @@
       <c r="J43" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="12.5">
+      <c r="K43" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="12.5">
       <c r="A44" s="8" t="s">
         <v>109</v>
       </c>
@@ -3559,8 +3829,11 @@
       <c r="J44" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="12.5">
+      <c r="K44" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="12.5">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
@@ -3589,8 +3862,11 @@
       <c r="J45" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="12.5">
+      <c r="K45" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="12.5">
       <c r="A46" s="8" t="s">
         <v>110</v>
       </c>
@@ -3619,8 +3895,11 @@
       <c r="J46" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="12.5">
+      <c r="K46" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="12.5">
       <c r="A47" s="8" t="s">
         <v>112</v>
       </c>
@@ -3649,8 +3928,11 @@
       <c r="J47" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="12.5">
+      <c r="K47" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="12.5">
       <c r="A48" s="11" t="s">
         <v>127</v>
       </c>
@@ -3681,8 +3963,11 @@
       <c r="J48" s="11" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="12.5">
+      <c r="K48" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="12.5">
       <c r="A49" s="8" t="s">
         <v>116</v>
       </c>
@@ -3713,8 +3998,11 @@
       <c r="J49" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="12.5">
+      <c r="K49" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="12.5">
       <c r="A50" s="8" t="s">
         <v>117</v>
       </c>
@@ -3743,8 +4031,11 @@
       <c r="J50" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="12.5">
+      <c r="K50" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="12.5">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -3773,8 +4064,11 @@
       <c r="J51" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="12.5">
+      <c r="K51" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="12.5">
       <c r="A52" s="8" t="s">
         <v>241</v>
       </c>
@@ -3803,8 +4097,11 @@
       <c r="J52" s="11" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="12.5">
+      <c r="K52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="12.5">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
@@ -3833,8 +4130,11 @@
       <c r="J53" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="12.5">
+      <c r="K53" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="12.5">
       <c r="A54" s="8" t="s">
         <v>125</v>
       </c>
@@ -3865,8 +4165,11 @@
       <c r="J54" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="12.5">
+      <c r="K54" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="12.5">
       <c r="A55" s="8" t="s">
         <v>128</v>
       </c>
@@ -3897,8 +4200,11 @@
       <c r="J55" s="11" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="12.5">
+      <c r="K55" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="12.5">
       <c r="A56" s="8" t="s">
         <v>120</v>
       </c>
@@ -3929,8 +4235,11 @@
       <c r="J56" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="12.5">
+      <c r="K56" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="12.5">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -3959,8 +4268,11 @@
       <c r="J57" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="12.5">
+      <c r="K57" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="12.5">
       <c r="A58" t="s">
         <v>149</v>
       </c>
@@ -3989,8 +4301,11 @@
       <c r="J58" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="12.5">
+      <c r="K58" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="12.5">
       <c r="A59" s="8" t="s">
         <v>153</v>
       </c>
@@ -4021,8 +4336,11 @@
       <c r="J59" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="12.5">
+      <c r="K59" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="12.5">
       <c r="A60" s="8" t="s">
         <v>154</v>
       </c>
@@ -4053,8 +4371,11 @@
       <c r="J60" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="12.5">
+      <c r="K60" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="12.5">
       <c r="A61" s="8" t="s">
         <v>155</v>
       </c>
@@ -4085,8 +4406,11 @@
       <c r="J61" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="12.5">
+      <c r="K61" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="12.5">
       <c r="A62" s="8" t="s">
         <v>156</v>
       </c>
@@ -4117,8 +4441,11 @@
       <c r="J62" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="12.5">
+      <c r="K62" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="12.5">
       <c r="A63" s="8" t="s">
         <v>157</v>
       </c>
@@ -4149,8 +4476,11 @@
       <c r="J63" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="12.5">
+      <c r="K63" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="12.5">
       <c r="A64" s="8" t="s">
         <v>159</v>
       </c>
@@ -4181,8 +4511,11 @@
       <c r="J64" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K64" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="8" t="s">
         <v>160</v>
       </c>
@@ -4213,8 +4546,11 @@
       <c r="J65" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K65" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
         <v>162</v>
       </c>
@@ -4245,8 +4581,11 @@
       <c r="J66" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K66" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -4277,8 +4616,11 @@
       <c r="J67" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K67" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -4309,8 +4651,11 @@
       <c r="J68" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K68" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -4341,8 +4686,11 @@
       <c r="J69" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K69" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" t="s">
         <v>175</v>
       </c>
@@ -4371,8 +4719,11 @@
       <c r="J70" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K70" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" t="s">
         <v>178</v>
       </c>
@@ -4401,8 +4752,11 @@
       <c r="J71" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K71" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" t="s">
         <v>181</v>
       </c>
@@ -4433,8 +4787,11 @@
       <c r="J72" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K72" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" t="s">
         <v>192</v>
       </c>
@@ -4465,8 +4822,11 @@
       <c r="J73" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K73" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" t="s">
         <v>184</v>
       </c>
@@ -4497,8 +4857,11 @@
       <c r="J74" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K74" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -4529,8 +4892,11 @@
       <c r="J75" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K75" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" t="s">
         <v>188</v>
       </c>
@@ -4561,8 +4927,11 @@
       <c r="J76" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K76" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" t="s">
         <v>186</v>
       </c>
@@ -4593,8 +4962,11 @@
       <c r="J77" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K77" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>201</v>
       </c>
@@ -4623,8 +4995,11 @@
       <c r="J78" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K78" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" t="s">
         <v>213</v>
       </c>
@@ -4653,8 +5028,11 @@
       <c r="J79" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K79" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>219</v>
       </c>
@@ -4683,8 +5061,11 @@
       <c r="J80" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K80" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>231</v>
       </c>
@@ -4715,8 +5096,11 @@
       <c r="J81" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>234</v>
       </c>
@@ -4747,8 +5131,11 @@
       <c r="J82" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K82" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
         <v>219</v>
       </c>
@@ -4777,8 +5164,11 @@
       <c r="J83" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K83" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="8" t="s">
         <v>270</v>
       </c>
@@ -4809,8 +5199,11 @@
       <c r="J84" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K84" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>236</v>
       </c>
@@ -4841,8 +5234,11 @@
       <c r="J85" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K85" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>239</v>
       </c>
@@ -4871,8 +5267,11 @@
       <c r="J86" s="11" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K86" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>243</v>
       </c>
@@ -4901,8 +5300,11 @@
       <c r="J87" s="11" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K87" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" t="s">
         <v>252</v>
       </c>
@@ -4933,8 +5335,11 @@
       <c r="J88" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K88" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>368</v>
       </c>
@@ -4965,8 +5370,11 @@
       <c r="J89" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K89" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>23</v>
       </c>
@@ -4994,8 +5402,11 @@
       <c r="I90" s="9">
         <v>45108</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K90" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>25</v>
       </c>
@@ -5026,8 +5437,11 @@
       <c r="J91" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K91" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>249</v>
       </c>
@@ -5058,8 +5472,11 @@
       <c r="J92" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K92" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>24</v>
       </c>
@@ -5090,8 +5507,11 @@
       <c r="J93" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K93" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>241</v>
       </c>
@@ -5120,8 +5540,11 @@
       <c r="J94" s="11" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K94" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>256</v>
       </c>
@@ -5150,8 +5573,11 @@
       <c r="J95" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K95" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>261</v>
       </c>
@@ -5182,8 +5608,11 @@
       <c r="J96" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K96" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>266</v>
       </c>
@@ -5214,8 +5643,11 @@
       <c r="J97" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K97" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>263</v>
       </c>
@@ -5246,8 +5678,11 @@
       <c r="J98" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K98" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>272</v>
       </c>
@@ -5278,8 +5713,11 @@
       <c r="J99" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K99" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>276</v>
       </c>
@@ -5310,8 +5748,11 @@
       <c r="J100" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K100" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>277</v>
       </c>
@@ -5342,8 +5783,11 @@
       <c r="J101" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K101" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>278</v>
       </c>
@@ -5374,8 +5818,11 @@
       <c r="J102" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K102" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>280</v>
       </c>
@@ -5404,8 +5851,11 @@
       <c r="J103" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K103" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>283</v>
       </c>
@@ -5434,8 +5884,11 @@
       <c r="J104" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K104" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>285</v>
       </c>
@@ -5466,8 +5919,11 @@
       <c r="J105" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K105" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>288</v>
       </c>
@@ -5498,8 +5954,11 @@
       <c r="J106" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K106" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>290</v>
       </c>
@@ -5528,8 +5987,11 @@
       <c r="J107" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K107" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>295</v>
       </c>
@@ -5558,8 +6020,11 @@
       <c r="J108" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K108" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>299</v>
       </c>
@@ -5588,8 +6053,11 @@
       <c r="J109" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K109" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>301</v>
       </c>
@@ -5618,8 +6086,11 @@
       <c r="J110" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K110" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1">
       <c r="A111" t="s">
         <v>304</v>
       </c>
@@ -5650,8 +6121,11 @@
       <c r="J111" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K111" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>35</v>
       </c>
@@ -5682,8 +6156,11 @@
       <c r="J112" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K112" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1">
       <c r="A113" t="s">
         <v>307</v>
       </c>
@@ -5714,8 +6191,11 @@
       <c r="J113" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K113" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1">
       <c r="A114" s="8" t="s">
         <v>311</v>
       </c>
@@ -5744,8 +6224,11 @@
       <c r="J114" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K114" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" customHeight="1">
       <c r="A115" s="8" t="s">
         <v>159</v>
       </c>
@@ -5776,8 +6259,11 @@
       <c r="J115" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K115" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>315</v>
       </c>
@@ -5808,8 +6294,11 @@
       <c r="J116" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="15.5" customHeight="1">
+      <c r="K116" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="15.5" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>319</v>
       </c>
@@ -5838,8 +6327,11 @@
       <c r="J117" s="11" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K117" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" customHeight="1">
       <c r="A118" t="s">
         <v>321</v>
       </c>
@@ -5870,8 +6362,11 @@
       <c r="J118" s="11" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K118" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>320</v>
       </c>
@@ -5902,8 +6397,11 @@
       <c r="J119" s="11" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="15.5" customHeight="1">
+      <c r="K119" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="15.5" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>324</v>
       </c>
@@ -5934,8 +6432,11 @@
       <c r="J120" s="11" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K120" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>326</v>
       </c>
@@ -5966,8 +6467,11 @@
       <c r="J121" s="11" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K121" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>341</v>
       </c>
@@ -5996,8 +6500,11 @@
       <c r="J122" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K122" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1">
       <c r="A123" s="8" t="s">
         <v>345</v>
       </c>
@@ -6026,8 +6533,11 @@
       <c r="J123" s="11" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K123" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1">
       <c r="A124" s="8" t="s">
         <v>348</v>
       </c>
@@ -6058,8 +6568,11 @@
       <c r="J124" s="11" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K124" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1">
       <c r="A125" s="8" t="s">
         <v>352</v>
       </c>
@@ -6090,8 +6603,11 @@
       <c r="J125" s="11" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K125" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1">
       <c r="A126" s="8" t="s">
         <v>350</v>
       </c>
@@ -6122,8 +6638,11 @@
       <c r="J126" s="11" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K126" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1">
       <c r="A127" s="8" t="s">
         <v>392</v>
       </c>
@@ -6154,8 +6673,11 @@
       <c r="J127" s="8" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K127" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" customHeight="1">
       <c r="A128" s="8" t="s">
         <v>393</v>
       </c>
@@ -6184,8 +6706,11 @@
         <v>45378</v>
       </c>
       <c r="J128" s="8"/>
-    </row>
-    <row r="129" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K128" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" customHeight="1">
       <c r="A129" s="8" t="s">
         <v>391</v>
       </c>
@@ -6216,8 +6741,11 @@
       <c r="J129" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K129" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" customHeight="1">
       <c r="A130" s="8" t="s">
         <v>388</v>
       </c>
@@ -6248,8 +6776,11 @@
       <c r="J130" s="8" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K130" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="15.75" customHeight="1">
       <c r="A131" s="8" t="s">
         <v>389</v>
       </c>
@@ -6280,8 +6811,11 @@
       <c r="J131" s="8" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K131" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="15.75" customHeight="1">
       <c r="A132" s="8" t="s">
         <v>386</v>
       </c>
@@ -6312,8 +6846,11 @@
       <c r="J132" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K132" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" customHeight="1">
       <c r="A133" s="8" t="s">
         <v>390</v>
       </c>
@@ -6344,8 +6881,11 @@
       <c r="J133" s="8" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K133" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" customHeight="1">
       <c r="A134" s="8" t="s">
         <v>387</v>
       </c>
@@ -6376,8 +6916,11 @@
       <c r="J134" s="8" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K134" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" customHeight="1">
       <c r="A135" s="8" t="s">
         <v>396</v>
       </c>
@@ -6408,8 +6951,11 @@
       <c r="J135" s="8" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K135" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="15.75" customHeight="1">
       <c r="A136" s="8" t="s">
         <v>397</v>
       </c>
@@ -6440,8 +6986,11 @@
       <c r="J136" s="8" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K136" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>398</v>
       </c>
@@ -6472,8 +7021,11 @@
       <c r="J137" s="8" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K137" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>400</v>
       </c>
@@ -6504,8 +7056,11 @@
       <c r="J138" s="8" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K138" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>399</v>
       </c>
@@ -6536,8 +7091,11 @@
       <c r="J139" s="8" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K139" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="15.75" customHeight="1">
       <c r="A140" s="8" t="s">
         <v>465</v>
       </c>
@@ -6568,8 +7126,11 @@
       <c r="J140" s="8" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K140" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>443</v>
       </c>
@@ -6600,8 +7161,11 @@
       <c r="J141" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K141" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="15.75" customHeight="1">
       <c r="A142" t="s">
         <v>448</v>
       </c>
@@ -6632,8 +7196,11 @@
       <c r="J142" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K142" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="15.75" customHeight="1">
       <c r="A143" t="s">
         <v>452</v>
       </c>
@@ -6664,8 +7231,11 @@
       <c r="J143" s="11" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K143" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>456</v>
       </c>
@@ -6696,8 +7266,11 @@
       <c r="J144" s="11" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K144" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="15.75" customHeight="1">
       <c r="A145" s="8" t="s">
         <v>270</v>
       </c>
@@ -6725,8 +7298,11 @@
       <c r="I145" s="9">
         <v>45470</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K145" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="15.75" customHeight="1">
       <c r="A146" s="8" t="s">
         <v>236</v>
       </c>
@@ -6754,8 +7330,11 @@
       <c r="I146" s="9">
         <v>45471</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K146" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>462</v>
       </c>
@@ -6786,8 +7365,11 @@
       <c r="J147" s="11" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K147" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="15.75" customHeight="1">
       <c r="A148" s="8" t="s">
         <v>467</v>
       </c>
@@ -6818,8 +7400,11 @@
       <c r="J148" s="11" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K148" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="15.75" customHeight="1">
       <c r="A149" s="8" t="s">
         <v>89</v>
       </c>
@@ -6850,8 +7435,11 @@
       <c r="J149" s="11" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K149" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="15.75" customHeight="1">
       <c r="A150" s="8" t="s">
         <v>475</v>
       </c>
@@ -6882,8 +7470,11 @@
       <c r="J150" s="11" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K150" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="15.75" customHeight="1">
       <c r="A151" t="s">
         <v>479</v>
       </c>
@@ -6914,8 +7505,11 @@
       <c r="J151" s="11" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K151" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="15.75" customHeight="1">
       <c r="A152" t="s">
         <v>480</v>
       </c>
@@ -6946,8 +7540,11 @@
       <c r="J152" s="11" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K152" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="15.75" customHeight="1">
       <c r="A153" t="s">
         <v>483</v>
       </c>
@@ -6978,8 +7575,11 @@
       <c r="J153" s="11" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K153" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="15.75" customHeight="1">
       <c r="A154" t="s">
         <v>486</v>
       </c>
@@ -7007,8 +7607,11 @@
       <c r="I154" s="9">
         <v>45527</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K154" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="15.75" customHeight="1">
       <c r="A155" t="s">
         <v>487</v>
       </c>
@@ -7039,8 +7642,11 @@
       <c r="J155" s="11" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K155" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="15.75" customHeight="1">
       <c r="A156" s="11" t="s">
         <v>488</v>
       </c>
@@ -7071,8 +7677,11 @@
       <c r="J156" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K156" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="15.75" customHeight="1">
       <c r="A157" s="11" t="s">
         <v>489</v>
       </c>
@@ -7100,8 +7709,11 @@
       <c r="I157" s="9">
         <v>45530</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K157" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="15.75" customHeight="1">
       <c r="A158" s="11" t="s">
         <v>494</v>
       </c>
@@ -7132,8 +7744,11 @@
       <c r="J158" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K158" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="15.75" customHeight="1">
       <c r="A159" s="11" t="s">
         <v>495</v>
       </c>
@@ -7164,8 +7779,11 @@
       <c r="J159" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K159" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="15.75" customHeight="1">
       <c r="A160" s="11" t="s">
         <v>498</v>
       </c>
@@ -7196,8 +7814,11 @@
       <c r="J160" s="11" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K160" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="15.75" customHeight="1">
       <c r="A161" s="11" t="s">
         <v>496</v>
       </c>
@@ -7228,8 +7849,11 @@
       <c r="J161" s="11" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K161" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="15.75" customHeight="1">
       <c r="A162" s="11" t="s">
         <v>500</v>
       </c>
@@ -7260,8 +7884,11 @@
       <c r="J162" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K162" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="15.75" customHeight="1">
       <c r="A163" s="11" t="s">
         <v>521</v>
       </c>
@@ -7292,8 +7919,11 @@
       <c r="J163" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K163" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="15.75" customHeight="1">
       <c r="A164" s="11" t="s">
         <v>499</v>
       </c>
@@ -7324,8 +7954,11 @@
       <c r="J164" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K164" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="15.75" customHeight="1">
       <c r="A165" s="11" t="s">
         <v>497</v>
       </c>
@@ -7356,8 +7989,11 @@
       <c r="J165" s="11" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K165" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="15.75" customHeight="1">
       <c r="A166" s="11" t="s">
         <v>272</v>
       </c>
@@ -7385,8 +8021,11 @@
       <c r="I166" s="9">
         <v>45538</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K166" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="15.75" customHeight="1">
       <c r="A167" s="11" t="s">
         <v>278</v>
       </c>
@@ -7414,8 +8053,11 @@
       <c r="I167" s="9">
         <v>45539</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K167" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="15.75" customHeight="1">
       <c r="A168" s="11" t="s">
         <v>502</v>
       </c>
@@ -7446,8 +8088,11 @@
       <c r="J168" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K168" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="15.75" customHeight="1">
       <c r="A169" s="11" t="s">
         <v>503</v>
       </c>
@@ -7478,8 +8123,11 @@
       <c r="J169" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K169" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="15.75" customHeight="1">
       <c r="A170" s="11" t="s">
         <v>100</v>
       </c>
@@ -7510,8 +8158,11 @@
       <c r="J170" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K170" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="15.75" customHeight="1">
       <c r="A171" s="11" t="s">
         <v>506</v>
       </c>
@@ -7542,8 +8193,11 @@
       <c r="J171" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K171" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="15.75" customHeight="1">
       <c r="A172" s="11" t="s">
         <v>505</v>
       </c>
@@ -7574,8 +8228,11 @@
       <c r="J172" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K172" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="15.75" customHeight="1">
       <c r="A173" s="11" t="s">
         <v>504</v>
       </c>
@@ -7606,8 +8263,11 @@
       <c r="J173" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K173" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="15.75" customHeight="1">
       <c r="A174" s="11" t="s">
         <v>507</v>
       </c>
@@ -7638,8 +8298,11 @@
       <c r="J174" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K174" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="15.75" customHeight="1">
       <c r="A175" s="11" t="s">
         <v>277</v>
       </c>
@@ -7670,8 +8333,11 @@
       <c r="J175" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K175" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="15.75" customHeight="1">
       <c r="A176" s="11" t="s">
         <v>509</v>
       </c>
@@ -7702,8 +8368,11 @@
       <c r="J176" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K176" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="15.75" customHeight="1">
       <c r="A177" s="11" t="s">
         <v>508</v>
       </c>
@@ -7734,8 +8403,11 @@
       <c r="J177" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K177" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="15.75" customHeight="1">
       <c r="A178" s="8" t="s">
         <v>117</v>
       </c>
@@ -7764,8 +8436,11 @@
       <c r="J178" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K178" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="15.75" customHeight="1">
       <c r="A179" s="8" t="s">
         <v>537</v>
       </c>
@@ -7794,8 +8469,11 @@
       <c r="J179" s="11" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K179" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="15.75" customHeight="1">
       <c r="A180" s="8" t="s">
         <v>539</v>
       </c>
@@ -7824,8 +8502,11 @@
       <c r="J180" s="11" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K180" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="15.75" customHeight="1">
       <c r="A181" s="8" t="s">
         <v>541</v>
       </c>
@@ -7854,8 +8535,11 @@
       <c r="J181" s="11" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K181" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>51</v>
       </c>
@@ -7886,8 +8570,11 @@
       <c r="J182" s="11" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K182" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="15.75" customHeight="1">
       <c r="A183" s="8" t="s">
         <v>545</v>
       </c>
@@ -7918,8 +8605,11 @@
       <c r="J183" s="11" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K183" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>56</v>
       </c>
@@ -7950,8 +8640,11 @@
       <c r="J184" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K184" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="15.75" customHeight="1">
       <c r="A185" t="s">
         <v>546</v>
       </c>
@@ -7982,8 +8675,11 @@
       <c r="J185" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K185" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="15.75" customHeight="1">
       <c r="A186" t="s">
         <v>547</v>
       </c>
@@ -8014,8 +8710,11 @@
       <c r="J186" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K186" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="15.75" customHeight="1">
       <c r="A187" t="s">
         <v>548</v>
       </c>
@@ -8046,8 +8745,11 @@
       <c r="J187" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K187" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
         <v>53</v>
       </c>
@@ -8078,8 +8780,11 @@
       <c r="J188" s="11" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K188" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="15.75" customHeight="1">
       <c r="A189" t="s">
         <v>556</v>
       </c>
@@ -8110,8 +8815,11 @@
       <c r="J189" s="11" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K189" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="15.75" customHeight="1">
       <c r="A190" t="s">
         <v>560</v>
       </c>
@@ -8142,8 +8850,11 @@
       <c r="J190" s="11" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K190" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="15.75" customHeight="1">
       <c r="A191" s="20" t="s">
         <v>567</v>
       </c>
@@ -8174,8 +8885,11 @@
       <c r="J191" s="11" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K191" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="15.75" customHeight="1">
       <c r="A192" s="8" t="s">
         <v>159</v>
       </c>
@@ -8206,8 +8920,11 @@
       <c r="J192" s="11" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K192" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="15.75" customHeight="1">
       <c r="A193" t="s">
         <v>571</v>
       </c>
@@ -8238,8 +8955,11 @@
       <c r="J193" s="11" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K193" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
         <v>319</v>
       </c>
@@ -8270,8 +8990,11 @@
       <c r="J194" s="11" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K194" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="15.75" customHeight="1">
       <c r="A195" s="8" t="s">
         <v>120</v>
       </c>
@@ -8300,8 +9023,11 @@
         <v>45640</v>
       </c>
       <c r="J195" s="11"/>
-    </row>
-    <row r="196" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K195" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="15.75" customHeight="1">
       <c r="A196" t="s">
         <v>579</v>
       </c>
@@ -8329,8 +9055,11 @@
       <c r="I196" s="9">
         <v>45641</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K196" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="15.75" customHeight="1">
       <c r="A197" t="s">
         <v>584</v>
       </c>
@@ -8358,8 +9087,11 @@
       <c r="I197" s="9">
         <v>45644</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K197" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="15.75" customHeight="1">
       <c r="A198" s="8" t="s">
         <v>580</v>
       </c>
@@ -8390,8 +9122,11 @@
       <c r="J198" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K198" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="15.75" customHeight="1">
       <c r="A199" s="11" t="s">
         <v>587</v>
       </c>
@@ -8422,8 +9157,11 @@
       <c r="J199" s="11" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K199" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="15.75" customHeight="1">
       <c r="A200" t="s">
         <v>590</v>
       </c>
@@ -8451,8 +9189,11 @@
       <c r="I200" s="9">
         <v>45668</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K200" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="15.75" customHeight="1">
       <c r="A201" s="8" t="s">
         <v>589</v>
       </c>
@@ -8480,8 +9221,11 @@
       <c r="I201" s="9">
         <v>45669</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K201" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>56</v>
       </c>
@@ -8512,8 +9256,11 @@
       <c r="J202" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K202" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="15.75" customHeight="1">
       <c r="A203" s="8" t="s">
         <v>73</v>
       </c>
@@ -8536,8 +9283,11 @@
       <c r="H203" s="7">
         <v>13.576610000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K203" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="15.75" customHeight="1">
       <c r="A204" s="8" t="s">
         <v>89</v>
       </c>
@@ -8557,8 +9307,11 @@
       <c r="H204" s="7">
         <v>23.915412</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K204" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="15.75" customHeight="1">
       <c r="A205" s="8" t="s">
         <v>86</v>
       </c>
@@ -8573,8 +9326,11 @@
       <c r="H205" s="7">
         <v>23.72784</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K205" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="15.75" customHeight="1">
       <c r="A206" s="8" t="s">
         <v>98</v>
       </c>
@@ -8589,8 +9345,11 @@
       <c r="H206" s="7">
         <v>26.130711999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K206" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="15.75" customHeight="1">
       <c r="A207" s="8" t="s">
         <v>90</v>
       </c>
@@ -8605,8 +9364,11 @@
       <c r="H207" s="7">
         <v>24.147006000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K207" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="15.75" customHeight="1">
       <c r="A208" s="8" t="s">
         <v>75</v>
       </c>
@@ -8632,8 +9394,11 @@
       <c r="J208" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K208" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="15.75" customHeight="1">
       <c r="A209" s="8" t="s">
         <v>68</v>
       </c>
@@ -8653,8 +9418,11 @@
       <c r="H209" s="7">
         <v>11.246259999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K209" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="15.75" customHeight="1">
       <c r="A210" s="8" t="s">
         <v>81</v>
       </c>
@@ -8674,8 +9442,11 @@
       <c r="H210" s="7">
         <v>20.857987000000001</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K210" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>268</v>
       </c>
@@ -8698,8 +9469,11 @@
       <c r="J211" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K211" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="15.75" customHeight="1">
       <c r="A212" s="8" t="s">
         <v>80</v>
       </c>
@@ -8714,8 +9488,11 @@
       <c r="H212" s="7">
         <v>21.263010999999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K212" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="15.75" customHeight="1">
       <c r="A213" s="8" t="s">
         <v>92</v>
       </c>
@@ -8730,8 +9507,11 @@
       <c r="H213" s="7">
         <v>24.412331999999999</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K213" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="15.75" customHeight="1">
       <c r="A214" s="8" t="s">
         <v>72</v>
       </c>
@@ -8754,8 +9534,11 @@
       <c r="H214" s="7">
         <v>18.172440000000002</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K214" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="15.75" customHeight="1">
       <c r="A215" s="8" t="s">
         <v>97</v>
       </c>
@@ -8775,8 +9558,11 @@
       <c r="H215" s="7">
         <v>26.549226000000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K215" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="15.75" customHeight="1">
       <c r="A216" s="8" t="s">
         <v>84</v>
       </c>
@@ -8796,8 +9582,11 @@
       <c r="H216" s="7">
         <v>20.700458999999999</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K216" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="15.75" customHeight="1">
       <c r="A217" s="8" t="s">
         <v>96</v>
       </c>
@@ -8812,8 +9601,11 @@
       <c r="H217" s="7">
         <v>25.065902000000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K217" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
         <v>30</v>
       </c>
@@ -8839,8 +9631,11 @@
       <c r="J218" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K218" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="15.75" customHeight="1">
       <c r="A219" s="8" t="s">
         <v>106</v>
       </c>
@@ -8860,8 +9655,11 @@
       <c r="H219" s="7">
         <v>21.181526999999999</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K219" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="15.75" customHeight="1">
       <c r="A220" s="8" t="s">
         <v>100</v>
       </c>
@@ -8876,8 +9674,11 @@
       <c r="H220" s="7">
         <v>25.449898000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K220" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="15.75" customHeight="1">
       <c r="A221" s="8" t="s">
         <v>82</v>
       </c>
@@ -8892,8 +9693,11 @@
       <c r="H221" s="7">
         <v>20.184436000000002</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K221" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="15.75" customHeight="1">
       <c r="A222" s="8" t="s">
         <v>101</v>
       </c>
@@ -8913,8 +9717,11 @@
       <c r="H222" s="7">
         <v>25.240739000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K222" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="15.75" customHeight="1">
       <c r="A223" s="8" t="s">
         <v>85</v>
       </c>
@@ -8937,8 +9744,11 @@
       <c r="J223" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K223" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="15.75" customHeight="1">
       <c r="A224" s="8" t="s">
         <v>105</v>
       </c>
@@ -8958,8 +9768,11 @@
       <c r="H224" s="7">
         <v>22.923787000000001</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K224" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="15.75" customHeight="1">
       <c r="A225" s="8" t="s">
         <v>69</v>
       </c>
@@ -8979,8 +9792,11 @@
       <c r="H225" s="7">
         <v>14.496980000000001</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K225" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="15.75" customHeight="1">
       <c r="A226" s="8" t="s">
         <v>107</v>
       </c>
@@ -8995,8 +9811,11 @@
       <c r="H226" s="7">
         <v>21.128466</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K226" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="15.75" customHeight="1">
       <c r="A227" s="8" t="s">
         <v>83</v>
       </c>
@@ -9011,8 +9830,11 @@
       <c r="H227" s="7">
         <v>20.75263</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K227" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="15.75" customHeight="1">
       <c r="A228" s="3" t="s">
         <v>63</v>
       </c>
@@ -9037,8 +9859,11 @@
       <c r="J228" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K228" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
         <v>9</v>
       </c>
@@ -9058,8 +9883,11 @@
       <c r="H229" s="5">
         <v>8.8222799999999992</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K229" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" ht="15.75" customHeight="1">
       <c r="A230" s="8" t="s">
         <v>99</v>
       </c>
@@ -9074,8 +9902,11 @@
       <c r="H230" s="7">
         <v>28.216380999999998</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K230" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="15.75" customHeight="1">
       <c r="A231" s="8" t="s">
         <v>95</v>
       </c>
@@ -9090,8 +9921,11 @@
       <c r="H231" s="7">
         <v>25.588498999999999</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K231" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
         <v>13</v>
       </c>
@@ -9114,8 +9948,11 @@
       <c r="J232" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K232" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="15.75" customHeight="1">
       <c r="A233" s="8" t="s">
         <v>76</v>
       </c>
@@ -9138,8 +9975,11 @@
       <c r="H233" s="7">
         <v>15.28664</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K233" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="15.75" customHeight="1">
       <c r="A234" s="8" t="s">
         <v>91</v>
       </c>
@@ -9154,8 +9994,11 @@
       <c r="H234" s="7">
         <v>24.029107</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K234" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="15.75" customHeight="1">
       <c r="A235" s="8" t="s">
         <v>102</v>
       </c>
@@ -9175,8 +10018,11 @@
       <c r="H235" s="7">
         <v>23.489733999999999</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K235" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="15.75" customHeight="1">
       <c r="A236" s="8" t="s">
         <v>103</v>
       </c>
@@ -9191,8 +10037,11 @@
       <c r="H236" s="7">
         <v>23.726915999999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K236" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="15.75" customHeight="1">
       <c r="A237" s="8" t="s">
         <v>70</v>
       </c>
@@ -9215,8 +10064,11 @@
       <c r="J237" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K237" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
         <v>267</v>
       </c>
@@ -9239,8 +10091,11 @@
       <c r="H238">
         <v>23.687878999999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K238" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="15.75" customHeight="1">
       <c r="A239" s="8" t="s">
         <v>65</v>
       </c>
@@ -9262,8 +10117,11 @@
       <c r="H239" s="7">
         <v>20.1663</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K239" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="15.75" customHeight="1">
       <c r="A240" s="8" t="s">
         <v>74</v>
       </c>
@@ -9286,8 +10144,11 @@
       <c r="H240" s="7">
         <v>15.28851</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K240" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="15.75" customHeight="1">
       <c r="A241" s="8" t="s">
         <v>94</v>
       </c>
@@ -9302,8 +10163,11 @@
       <c r="H241" s="7">
         <v>24.575970999999999</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K241" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="15.75" customHeight="1">
       <c r="A242" s="8" t="s">
         <v>79</v>
       </c>
@@ -9323,8 +10187,11 @@
       <c r="H242" s="7">
         <v>22.950029000000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K242" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
         <v>31</v>
       </c>
@@ -9350,8 +10217,11 @@
       <c r="J243" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K243" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="15.75" customHeight="1">
       <c r="A244" s="8" t="s">
         <v>88</v>
       </c>
@@ -9366,8 +10236,11 @@
       <c r="H244" s="7">
         <v>23.173162999999999</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K244" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="15.75" customHeight="1">
       <c r="A245" s="8" t="s">
         <v>87</v>
       </c>
@@ -9382,8 +10255,11 @@
       <c r="H245" s="7">
         <v>22.947213000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K245" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="15.75" customHeight="1">
       <c r="A246" s="8" t="s">
         <v>93</v>
       </c>
@@ -9398,8 +10274,11 @@
       <c r="H246" s="7">
         <v>24.88841</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K246" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="15.75" customHeight="1">
       <c r="A247" s="8" t="s">
         <v>592</v>
       </c>
@@ -9427,8 +10306,14 @@
       <c r="I247" s="9">
         <v>45673</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J247" t="s">
+        <v>601</v>
+      </c>
+      <c r="K247" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="15.75" customHeight="1">
       <c r="A248" t="s">
         <v>596</v>
       </c>
@@ -9457,10 +10342,13 @@
         <v>45674</v>
       </c>
       <c r="J248" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="15.75" customHeight="1">
+        <v>602</v>
+      </c>
+      <c r="K248" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="15.75" customHeight="1">
       <c r="A249" s="8" t="s">
         <v>598</v>
       </c>
@@ -9488,8 +10376,14 @@
       <c r="I249" s="9">
         <v>45675</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" ht="15.75" customHeight="1">
+      <c r="J249" t="s">
+        <v>603</v>
+      </c>
+      <c r="K249" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="15.75" customHeight="1">
       <c r="A250" s="8" t="s">
         <v>599</v>
       </c>
@@ -9518,7 +10412,654 @@
         <v>45676</v>
       </c>
       <c r="J250" t="s">
-        <v>601</v>
+        <v>600</v>
+      </c>
+      <c r="K250" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A251" t="s">
+        <v>607</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F251">
+        <v>2025</v>
+      </c>
+      <c r="G251" s="11">
+        <v>47.307532999999999</v>
+      </c>
+      <c r="H251">
+        <v>7.2738310000000004</v>
+      </c>
+      <c r="I251" s="9">
+        <v>45682</v>
+      </c>
+      <c r="J251" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="K251" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A252" t="s">
+        <v>604</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F252">
+        <v>2025</v>
+      </c>
+      <c r="G252" s="11">
+        <v>47.375385999999999</v>
+      </c>
+      <c r="H252">
+        <v>7.3586</v>
+      </c>
+      <c r="I252" s="9">
+        <v>45682</v>
+      </c>
+      <c r="K252" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A253" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" t="s">
+        <v>356</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F253">
+        <v>2025</v>
+      </c>
+      <c r="G253" s="11">
+        <v>46.835030000000003</v>
+      </c>
+      <c r="H253">
+        <v>9.2811400000000006</v>
+      </c>
+      <c r="I253" s="9">
+        <v>45689</v>
+      </c>
+      <c r="J253" t="s">
+        <v>614</v>
+      </c>
+      <c r="K253" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A254" t="s">
+        <v>617</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" t="s">
+        <v>356</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F254">
+        <v>2025</v>
+      </c>
+      <c r="G254" s="11">
+        <v>46.859164</v>
+      </c>
+      <c r="H254">
+        <v>9.1682170000000003</v>
+      </c>
+      <c r="I254" s="9">
+        <v>45689</v>
+      </c>
+      <c r="K254" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A255" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" t="s">
+        <v>356</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F255">
+        <v>2025</v>
+      </c>
+      <c r="G255" s="11">
+        <v>46.869275000000002</v>
+      </c>
+      <c r="H255">
+        <v>9.2218420000000005</v>
+      </c>
+      <c r="I255" s="9">
+        <v>45690</v>
+      </c>
+      <c r="J255" t="s">
+        <v>616</v>
+      </c>
+      <c r="K255" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A256" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" t="s">
+        <v>356</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F256">
+        <v>2025</v>
+      </c>
+      <c r="G256" s="11">
+        <v>46.875</v>
+      </c>
+      <c r="H256">
+        <v>9.1736000000000004</v>
+      </c>
+      <c r="I256" s="9">
+        <v>45690</v>
+      </c>
+      <c r="J256" t="s">
+        <v>615</v>
+      </c>
+      <c r="K256" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A257" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
+        <v>356</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F257">
+        <v>2025</v>
+      </c>
+      <c r="G257" s="11">
+        <v>46.845917999999998</v>
+      </c>
+      <c r="H257">
+        <v>9.2319469999999999</v>
+      </c>
+      <c r="I257" s="9">
+        <v>45690</v>
+      </c>
+      <c r="K257" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A258" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" t="s">
+        <v>356</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F258">
+        <v>2025</v>
+      </c>
+      <c r="G258" s="11">
+        <v>46.873550000000002</v>
+      </c>
+      <c r="H258">
+        <v>9.1814610000000005</v>
+      </c>
+      <c r="I258" s="9">
+        <v>45689</v>
+      </c>
+      <c r="J258" t="s">
+        <v>620</v>
+      </c>
+      <c r="K258" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A259" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" t="s">
+        <v>356</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F259">
+        <v>2025</v>
+      </c>
+      <c r="G259" s="11">
+        <v>46.865315000000002</v>
+      </c>
+      <c r="H259">
+        <v>9.2363199999999992</v>
+      </c>
+      <c r="I259" s="9">
+        <v>45689</v>
+      </c>
+      <c r="J259" t="s">
+        <v>622</v>
+      </c>
+      <c r="K259" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A260" t="s">
+        <v>181</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" t="s">
+        <v>358</v>
+      </c>
+      <c r="D260" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="F260">
+        <v>2025</v>
+      </c>
+      <c r="G260">
+        <v>46.659350000000003</v>
+      </c>
+      <c r="H260">
+        <v>8.6711720000000003</v>
+      </c>
+      <c r="I260" s="9">
+        <v>45703</v>
+      </c>
+      <c r="J260" t="s">
+        <v>626</v>
+      </c>
+      <c r="K260" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A261" t="s">
+        <v>625</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" t="s">
+        <v>358</v>
+      </c>
+      <c r="D261" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E261" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="F261">
+        <v>2025</v>
+      </c>
+      <c r="G261">
+        <v>46.669600000000003</v>
+      </c>
+      <c r="H261">
+        <v>8.7301000000000002</v>
+      </c>
+      <c r="I261" s="9">
+        <v>45703</v>
+      </c>
+      <c r="K261" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A262" t="s">
+        <v>112</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C262" t="s">
+        <v>356</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="F262">
+        <v>2025</v>
+      </c>
+      <c r="G262">
+        <v>53.333060000000003</v>
+      </c>
+      <c r="H262">
+        <v>-6.2488900000000003</v>
+      </c>
+      <c r="I262" s="9">
+        <v>45709</v>
+      </c>
+      <c r="J262" t="s">
+        <v>638</v>
+      </c>
+      <c r="K262" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A263" t="s">
+        <v>634</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C263" t="s">
+        <v>356</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="E263" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="F263">
+        <v>2025</v>
+      </c>
+      <c r="G263" s="11">
+        <v>53.273899999999998</v>
+      </c>
+      <c r="H263">
+        <v>-9.0511999999999997</v>
+      </c>
+      <c r="I263" s="9">
+        <v>45711</v>
+      </c>
+      <c r="J263" t="s">
+        <v>639</v>
+      </c>
+      <c r="K263" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A264" t="s">
+        <v>635</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C264" t="s">
+        <v>356</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="F264">
+        <v>2025</v>
+      </c>
+      <c r="G264" s="11">
+        <v>52.932675000000003</v>
+      </c>
+      <c r="H264">
+        <v>-9.347353</v>
+      </c>
+      <c r="I264" s="9">
+        <v>45711</v>
+      </c>
+      <c r="K264" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A265" t="s">
+        <v>636</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C265" t="s">
+        <v>356</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="E265" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="F265">
+        <v>2025</v>
+      </c>
+      <c r="G265" s="11">
+        <v>52.860131000000003</v>
+      </c>
+      <c r="H265">
+        <v>-9.4306920000000005</v>
+      </c>
+      <c r="I265" s="9">
+        <v>45711</v>
+      </c>
+      <c r="K265" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A266" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C266" t="s">
+        <v>356</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="E266" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="F266">
+        <v>2025</v>
+      </c>
+      <c r="G266" s="11">
+        <v>52.958703</v>
+      </c>
+      <c r="H266">
+        <v>-9.3976059999999997</v>
+      </c>
+      <c r="I266" s="9">
+        <v>45710</v>
+      </c>
+      <c r="J266" t="s">
+        <v>640</v>
+      </c>
+      <c r="K266" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A267" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" t="s">
+        <v>356</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="E267" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="F267">
+        <v>2025</v>
+      </c>
+      <c r="G267" s="11">
+        <v>46.979199999999999</v>
+      </c>
+      <c r="H267">
+        <v>9.4174000000000007</v>
+      </c>
+      <c r="I267" s="9">
+        <v>45718</v>
+      </c>
+      <c r="K267" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A268" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" t="s">
+        <v>356</v>
+      </c>
+      <c r="D268" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="E268" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="F268">
+        <v>2025</v>
+      </c>
+      <c r="G268" s="11">
+        <v>46.995392000000002</v>
+      </c>
+      <c r="H268">
+        <v>9.4603420000000007</v>
+      </c>
+      <c r="I268" s="9">
+        <v>45718</v>
+      </c>
+      <c r="J268" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="K268" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A269" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" t="s">
+        <v>356</v>
+      </c>
+      <c r="D269" t="s">
+        <v>643</v>
+      </c>
+      <c r="E269" t="s">
+        <v>644</v>
+      </c>
+      <c r="F269">
+        <v>2025</v>
+      </c>
+      <c r="G269" s="11">
+        <v>47.0002</v>
+      </c>
+      <c r="H269">
+        <v>9.4175000000000004</v>
+      </c>
+      <c r="I269" s="9">
+        <v>45718</v>
+      </c>
+      <c r="J269" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="K269" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
